--- a/Server_time.xlsx
+++ b/Server_time.xlsx
@@ -360,7 +360,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E76"/>
+  <dimension ref="A1:E93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -385,183 +385,183 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>3745</v>
+        <v>3723</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>378</v>
+        <v>397</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
       <c r="C4">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>519</v>
+        <v>500</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>504</v>
+        <v>529</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
       <c r="C8">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>500</v>
+        <v>490</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>509</v>
+        <v>493</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>492</v>
+        <v>498</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="C11">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="C12">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -572,30 +572,30 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C13">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
       <c r="C14">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -606,16 +606,16 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15">
         <v>496</v>
@@ -623,19 +623,19 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
       <c r="E16">
-        <v>508</v>
+        <v>500</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -646,143 +646,143 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>491</v>
+        <v>520</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
       <c r="C18">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18">
-        <v>490</v>
+        <v>480</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>506</v>
+        <v>516</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B20">
         <v>0</v>
       </c>
       <c r="C20">
-        <v>155</v>
+        <v>215</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>503</v>
+        <v>536</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B21">
         <v>1</v>
       </c>
       <c r="C21">
-        <v>164</v>
+        <v>201</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>511</v>
+        <v>488</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>494</v>
+        <v>466</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>13</v>
+        <v>249</v>
       </c>
       <c r="B23">
         <v>2</v>
       </c>
       <c r="C23">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>492</v>
+        <v>726</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B24">
         <v>0</v>
       </c>
       <c r="C24">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>501</v>
+        <v>273</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -793,495 +793,495 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B26">
         <v>0</v>
       </c>
       <c r="C26">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="D26">
         <v>0</v>
       </c>
       <c r="E26">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C27">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27">
-        <v>503</v>
+        <v>506</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B28">
         <v>0</v>
       </c>
       <c r="C28">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="D28">
         <v>0</v>
       </c>
       <c r="E28">
-        <v>495</v>
+        <v>497</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B29">
         <v>0</v>
       </c>
       <c r="C29">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="D29">
         <v>0</v>
       </c>
       <c r="E29">
-        <v>512</v>
+        <v>486</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B30">
         <v>1</v>
       </c>
       <c r="C30">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D30">
         <v>0</v>
       </c>
       <c r="E30">
-        <v>491</v>
+        <v>509</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C31">
-        <v>159</v>
+        <v>189</v>
       </c>
       <c r="D31">
         <v>0</v>
       </c>
       <c r="E31">
-        <v>501</v>
+        <v>532</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B32">
         <v>0</v>
       </c>
       <c r="C32">
-        <v>165</v>
+        <v>229</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32">
-        <v>507</v>
+        <v>539</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="B33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C33">
-        <v>171</v>
+        <v>225</v>
       </c>
       <c r="D33">
         <v>0</v>
       </c>
       <c r="E33">
-        <v>527</v>
+        <v>489</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="B34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C34">
-        <v>159</v>
+        <v>181</v>
       </c>
       <c r="D34">
         <v>0</v>
       </c>
       <c r="E34">
-        <v>470</v>
+        <v>494</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="B35">
         <v>0</v>
       </c>
       <c r="C35">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="D35">
         <v>0</v>
       </c>
       <c r="E35">
-        <v>506</v>
+        <v>486</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B36">
         <v>0</v>
       </c>
       <c r="C36">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D36">
         <v>0</v>
       </c>
       <c r="E36">
-        <v>501</v>
+        <v>467</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C37">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="D37">
         <v>0</v>
       </c>
       <c r="E37">
-        <v>500</v>
+        <v>505</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B38">
         <v>0</v>
       </c>
       <c r="C38">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="D38">
         <v>0</v>
       </c>
       <c r="E38">
-        <v>491</v>
+        <v>527</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B39">
         <v>0</v>
       </c>
       <c r="C39">
-        <v>164</v>
+        <v>194</v>
       </c>
       <c r="D39">
         <v>0</v>
       </c>
       <c r="E39">
-        <v>505</v>
+        <v>483</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C40">
-        <v>169</v>
+        <v>206</v>
       </c>
       <c r="D40">
         <v>0</v>
       </c>
       <c r="E40">
-        <v>503</v>
+        <v>531</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B41">
         <v>0</v>
       </c>
       <c r="C41">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="D41">
         <v>0</v>
       </c>
       <c r="E41">
-        <v>506</v>
+        <v>439</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
       <c r="C42">
-        <v>160</v>
+        <v>204</v>
       </c>
       <c r="D42">
         <v>0</v>
       </c>
       <c r="E42">
-        <v>487</v>
+        <v>544</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B43">
         <v>0</v>
       </c>
       <c r="C43">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="D43">
         <v>0</v>
       </c>
       <c r="E43">
-        <v>515</v>
+        <v>460</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C44">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="D44">
         <v>0</v>
       </c>
       <c r="E44">
-        <v>484</v>
+        <v>508</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C45">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D45">
         <v>0</v>
       </c>
       <c r="E45">
-        <v>517</v>
+        <v>493</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B46">
         <v>0</v>
       </c>
       <c r="C46">
-        <v>167</v>
+        <v>190</v>
       </c>
       <c r="D46">
         <v>0</v>
       </c>
       <c r="E46">
-        <v>490</v>
+        <v>523</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B47">
         <v>0</v>
       </c>
       <c r="C47">
-        <v>169</v>
+        <v>209</v>
       </c>
       <c r="D47">
         <v>0</v>
       </c>
       <c r="E47">
-        <v>502</v>
+        <v>527</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B48">
         <v>0</v>
       </c>
       <c r="C48">
-        <v>163</v>
+        <v>207</v>
       </c>
       <c r="D48">
         <v>0</v>
       </c>
       <c r="E48">
-        <v>493</v>
+        <v>487</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B49">
         <v>0</v>
       </c>
       <c r="C49">
-        <v>169</v>
+        <v>194</v>
       </c>
       <c r="D49">
         <v>0</v>
       </c>
       <c r="E49">
-        <v>527</v>
+        <v>486</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C50">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="D50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E50">
-        <v>476</v>
+        <v>481</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B51">
         <v>0</v>
       </c>
       <c r="C51">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="D51">
         <v>0</v>
       </c>
       <c r="E51">
-        <v>504</v>
+        <v>510</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
       <c r="C52">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="D52">
         <v>0</v>
       </c>
       <c r="E52">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B53">
         <v>0</v>
       </c>
       <c r="C53">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="D53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E53">
-        <v>509</v>
+        <v>499</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B54">
         <v>0</v>
       </c>
       <c r="C54">
-        <v>174</v>
+        <v>210</v>
       </c>
       <c r="D54">
         <v>0</v>
       </c>
       <c r="E54">
-        <v>500</v>
+        <v>539</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1289,135 +1289,135 @@
         <v>13</v>
       </c>
       <c r="B55">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C55">
-        <v>173</v>
+        <v>219</v>
       </c>
       <c r="D55">
         <v>0</v>
       </c>
       <c r="E55">
-        <v>498</v>
+        <v>502</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C56">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="D56">
         <v>0</v>
       </c>
       <c r="E56">
-        <v>498</v>
+        <v>484</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
       <c r="C57">
-        <v>169</v>
+        <v>207</v>
       </c>
       <c r="D57">
         <v>0</v>
       </c>
       <c r="E57">
-        <v>497</v>
+        <v>505</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="B58">
         <v>0</v>
       </c>
       <c r="C58">
-        <v>169</v>
+        <v>201</v>
       </c>
       <c r="D58">
         <v>0</v>
       </c>
       <c r="E58">
-        <v>511</v>
+        <v>539</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="B59">
         <v>0</v>
       </c>
       <c r="C59">
-        <v>173</v>
+        <v>261</v>
       </c>
       <c r="D59">
         <v>0</v>
       </c>
       <c r="E59">
-        <v>493</v>
+        <v>555</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B60">
         <v>0</v>
       </c>
       <c r="C60">
-        <v>169</v>
+        <v>254</v>
       </c>
       <c r="D60">
         <v>0</v>
       </c>
       <c r="E60">
-        <v>497</v>
+        <v>473</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B61">
         <v>1</v>
       </c>
       <c r="C61">
-        <v>172</v>
+        <v>214</v>
       </c>
       <c r="D61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E61">
-        <v>585</v>
+        <v>451</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="B62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C62">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="D62">
         <v>0</v>
       </c>
       <c r="E62">
-        <v>432</v>
+        <v>465</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1425,7 +1425,7 @@
         <v>16</v>
       </c>
       <c r="B63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C63">
         <v>176</v>
@@ -1434,24 +1434,24 @@
         <v>0</v>
       </c>
       <c r="E63">
-        <v>490</v>
+        <v>505</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C64">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="D64">
         <v>0</v>
       </c>
       <c r="E64">
-        <v>496</v>
+        <v>484</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1459,203 +1459,492 @@
         <v>12</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C65">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="D65">
         <v>0</v>
       </c>
       <c r="E65">
-        <v>502</v>
+        <v>516</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B66">
         <v>0</v>
       </c>
       <c r="C66">
-        <v>168</v>
+        <v>211</v>
       </c>
       <c r="D66">
         <v>0</v>
       </c>
       <c r="E66">
-        <v>484</v>
+        <v>512</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B67">
         <v>0</v>
       </c>
       <c r="C67">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="D67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E67">
-        <v>533</v>
+        <v>481</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B68">
         <v>0</v>
       </c>
       <c r="C68">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="D68">
         <v>0</v>
       </c>
       <c r="E68">
-        <v>490</v>
+        <v>502</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B69">
         <v>0</v>
       </c>
       <c r="C69">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="D69">
         <v>0</v>
       </c>
       <c r="E69">
-        <v>510</v>
+        <v>492</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="B70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C70">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E70">
-        <v>503</v>
+        <v>496</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B71">
         <v>0</v>
       </c>
       <c r="C71">
-        <v>187</v>
+        <v>217</v>
       </c>
       <c r="D71">
         <v>0</v>
       </c>
       <c r="E71">
-        <v>517</v>
+        <v>544</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B72">
         <v>0</v>
       </c>
       <c r="C72">
-        <v>175</v>
+        <v>240</v>
       </c>
       <c r="D72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E72">
-        <v>466</v>
+        <v>514</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C73">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="D73">
         <v>0</v>
       </c>
       <c r="E73">
-        <v>501</v>
+        <v>454</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74">
-        <v>9</v>
+        <v>64</v>
       </c>
       <c r="B74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C74">
-        <v>178</v>
+        <v>201</v>
       </c>
       <c r="D74">
         <v>0</v>
       </c>
       <c r="E74">
-        <v>500</v>
+        <v>563</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C75">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D75">
         <v>0</v>
       </c>
       <c r="E75">
-        <v>504</v>
+        <v>423</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76">
+        <v>10</v>
+      </c>
+      <c r="B76">
+        <v>0</v>
+      </c>
+      <c r="C76">
+        <v>236</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77">
+        <v>18</v>
+      </c>
+      <c r="B77">
+        <v>0</v>
+      </c>
+      <c r="C77">
+        <v>192</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78">
+        <v>9</v>
+      </c>
+      <c r="B78">
+        <v>0</v>
+      </c>
+      <c r="C78">
+        <v>240</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79">
+        <v>20</v>
+      </c>
+      <c r="B79">
+        <v>1</v>
+      </c>
+      <c r="C79">
+        <v>208</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80">
         <v>13</v>
       </c>
-      <c r="B76">
-        <v>0</v>
-      </c>
-      <c r="C76">
-        <v>183</v>
-      </c>
-      <c r="D76">
-        <v>1</v>
-      </c>
-      <c r="E76">
-        <v>513</v>
+      <c r="B80">
+        <v>1</v>
+      </c>
+      <c r="C80">
+        <v>193</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81">
+        <v>17</v>
+      </c>
+      <c r="B81">
+        <v>0</v>
+      </c>
+      <c r="C81">
+        <v>214</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82">
+        <v>16</v>
+      </c>
+      <c r="B82">
+        <v>1</v>
+      </c>
+      <c r="C82">
+        <v>209</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="E82">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83">
+        <v>9</v>
+      </c>
+      <c r="B83">
+        <v>1</v>
+      </c>
+      <c r="C83">
+        <v>198</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+      <c r="E83">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84">
+        <v>7</v>
+      </c>
+      <c r="B84">
+        <v>0</v>
+      </c>
+      <c r="C84">
+        <v>185</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+      <c r="E84">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85">
+        <v>14</v>
+      </c>
+      <c r="B85">
+        <v>0</v>
+      </c>
+      <c r="C85">
+        <v>205</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="E85">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86">
+        <v>8</v>
+      </c>
+      <c r="B86">
+        <v>2</v>
+      </c>
+      <c r="C86">
+        <v>211</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="E86">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87">
+        <v>10</v>
+      </c>
+      <c r="B87">
+        <v>1</v>
+      </c>
+      <c r="C87">
+        <v>197</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+      <c r="E87">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88">
+        <v>21</v>
+      </c>
+      <c r="B88">
+        <v>0</v>
+      </c>
+      <c r="C88">
+        <v>246</v>
+      </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
+      <c r="E88">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89">
+        <v>12</v>
+      </c>
+      <c r="B89">
+        <v>0</v>
+      </c>
+      <c r="C89">
+        <v>248</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+      <c r="E89">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90">
+        <v>11</v>
+      </c>
+      <c r="B90">
+        <v>1</v>
+      </c>
+      <c r="C90">
+        <v>202</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="E90">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91">
+        <v>12</v>
+      </c>
+      <c r="B91">
+        <v>1</v>
+      </c>
+      <c r="C91">
+        <v>196</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+      <c r="E91">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92">
+        <v>19</v>
+      </c>
+      <c r="B92">
+        <v>0</v>
+      </c>
+      <c r="C92">
+        <v>199</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
+      <c r="E92">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93">
+        <v>10</v>
+      </c>
+      <c r="B93">
+        <v>0</v>
+      </c>
+      <c r="C93">
+        <v>188</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
+      <c r="E93">
+        <v>473</v>
       </c>
     </row>
   </sheetData>

--- a/Server_time.xlsx
+++ b/Server_time.xlsx
@@ -360,7 +360,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E93"/>
+  <dimension ref="A1:E168"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -385,58 +385,58 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>3723</v>
+        <v>2597</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>397</v>
+        <v>252</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>500</v>
+        <v>414</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -448,41 +448,41 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>491</v>
+        <v>268</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>496</v>
+        <v>289</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>529</v>
+        <v>288</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -493,47 +493,47 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>490</v>
+        <v>255</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
       <c r="C9">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9">
-        <v>493</v>
+        <v>274</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>498</v>
+        <v>281</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -541,72 +541,72 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>502</v>
+        <v>261</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="C12">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>510</v>
+        <v>247</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>494</v>
+        <v>278</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>510</v>
+        <v>252</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -615,231 +615,231 @@
         <v>149</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>496</v>
+        <v>280</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
       <c r="C16">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16">
-        <v>500</v>
+        <v>241</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
       <c r="C17">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>520</v>
+        <v>304</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
       <c r="C18">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18">
-        <v>480</v>
+        <v>279</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>516</v>
+        <v>286</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C20">
-        <v>215</v>
+        <v>150</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>536</v>
+        <v>263</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21">
-        <v>201</v>
+        <v>155</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>488</v>
+        <v>335</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B22">
         <v>0</v>
       </c>
       <c r="C22">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>466</v>
+        <v>269</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>249</v>
+        <v>12</v>
       </c>
       <c r="B23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C23">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23">
-        <v>726</v>
+        <v>289</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B24">
         <v>0</v>
       </c>
       <c r="C24">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>273</v>
+        <v>261</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B25">
         <v>0</v>
       </c>
       <c r="C25">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>499</v>
+        <v>303</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B26">
         <v>0</v>
       </c>
       <c r="C26">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="D26">
         <v>0</v>
       </c>
       <c r="E26">
-        <v>505</v>
+        <v>283</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
       <c r="C27">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27">
-        <v>506</v>
+        <v>327</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="B28">
         <v>0</v>
       </c>
       <c r="C28">
-        <v>162</v>
+        <v>183</v>
       </c>
       <c r="D28">
         <v>0</v>
       </c>
       <c r="E28">
-        <v>497</v>
+        <v>342</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -850,353 +850,353 @@
         <v>0</v>
       </c>
       <c r="C29">
-        <v>159</v>
+        <v>213</v>
       </c>
       <c r="D29">
         <v>0</v>
       </c>
       <c r="E29">
-        <v>486</v>
+        <v>381</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C30">
-        <v>159</v>
+        <v>183</v>
       </c>
       <c r="D30">
         <v>0</v>
       </c>
       <c r="E30">
-        <v>509</v>
+        <v>294</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C31">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31">
-        <v>532</v>
+        <v>289</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C32">
-        <v>229</v>
+        <v>208</v>
       </c>
       <c r="D32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E32">
-        <v>539</v>
+        <v>320</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="B33">
         <v>1</v>
       </c>
       <c r="C33">
-        <v>225</v>
+        <v>190</v>
       </c>
       <c r="D33">
         <v>0</v>
       </c>
       <c r="E33">
-        <v>489</v>
+        <v>333</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="B34">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C34">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="D34">
         <v>0</v>
       </c>
       <c r="E34">
-        <v>494</v>
+        <v>313</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B35">
         <v>0</v>
       </c>
       <c r="C35">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="D35">
         <v>0</v>
       </c>
       <c r="E35">
-        <v>486</v>
+        <v>294</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C36">
-        <v>167</v>
+        <v>191</v>
       </c>
       <c r="D36">
         <v>0</v>
       </c>
       <c r="E36">
-        <v>467</v>
+        <v>329</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C37">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D37">
         <v>0</v>
       </c>
       <c r="E37">
-        <v>505</v>
+        <v>289</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B38">
         <v>0</v>
       </c>
       <c r="C38">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="D38">
         <v>0</v>
       </c>
       <c r="E38">
-        <v>527</v>
+        <v>317</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B39">
         <v>0</v>
       </c>
       <c r="C39">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="D39">
         <v>0</v>
       </c>
       <c r="E39">
-        <v>483</v>
+        <v>322</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="B40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C40">
-        <v>206</v>
+        <v>179</v>
       </c>
       <c r="D40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E40">
-        <v>531</v>
+        <v>390</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B41">
         <v>0</v>
       </c>
       <c r="C41">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="D41">
         <v>0</v>
       </c>
       <c r="E41">
-        <v>439</v>
+        <v>416</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
       <c r="C42">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="D42">
         <v>0</v>
       </c>
       <c r="E42">
-        <v>544</v>
+        <v>292</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B43">
         <v>0</v>
       </c>
       <c r="C43">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D43">
         <v>0</v>
       </c>
       <c r="E43">
-        <v>460</v>
+        <v>310</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B44">
         <v>0</v>
       </c>
       <c r="C44">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="D44">
         <v>0</v>
       </c>
       <c r="E44">
-        <v>508</v>
+        <v>288</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="B45">
         <v>1</v>
       </c>
       <c r="C45">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="D45">
         <v>0</v>
       </c>
       <c r="E45">
-        <v>493</v>
+        <v>335</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B46">
         <v>0</v>
       </c>
       <c r="C46">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="D46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E46">
-        <v>523</v>
+        <v>309</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B47">
         <v>0</v>
       </c>
       <c r="C47">
-        <v>209</v>
+        <v>171</v>
       </c>
       <c r="D47">
         <v>0</v>
       </c>
       <c r="E47">
-        <v>527</v>
+        <v>269</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C48">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="D48">
         <v>0</v>
       </c>
       <c r="E48">
-        <v>487</v>
+        <v>382</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="B49">
         <v>0</v>
       </c>
       <c r="C49">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E49">
-        <v>486</v>
+        <v>315</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1207,81 +1207,81 @@
         <v>0</v>
       </c>
       <c r="C50">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E50">
-        <v>481</v>
+        <v>309</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B51">
         <v>0</v>
       </c>
       <c r="C51">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D51">
         <v>0</v>
       </c>
       <c r="E51">
-        <v>510</v>
+        <v>296</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
       <c r="C52">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D52">
         <v>0</v>
       </c>
       <c r="E52">
-        <v>497</v>
+        <v>337</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="B53">
         <v>0</v>
       </c>
       <c r="C53">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="D53">
         <v>1</v>
       </c>
       <c r="E53">
-        <v>499</v>
+        <v>347</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B54">
         <v>0</v>
       </c>
       <c r="C54">
-        <v>210</v>
+        <v>178</v>
       </c>
       <c r="D54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E54">
-        <v>539</v>
+        <v>327</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1289,327 +1289,327 @@
         <v>13</v>
       </c>
       <c r="B55">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C55">
-        <v>219</v>
+        <v>169</v>
       </c>
       <c r="D55">
         <v>0</v>
       </c>
       <c r="E55">
-        <v>502</v>
+        <v>295</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C56">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="D56">
         <v>0</v>
       </c>
       <c r="E56">
-        <v>484</v>
+        <v>289</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C57">
-        <v>207</v>
+        <v>175</v>
       </c>
       <c r="D57">
         <v>0</v>
       </c>
       <c r="E57">
-        <v>505</v>
+        <v>286</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="B58">
         <v>0</v>
       </c>
       <c r="C58">
-        <v>201</v>
+        <v>177</v>
       </c>
       <c r="D58">
         <v>0</v>
       </c>
       <c r="E58">
-        <v>539</v>
+        <v>333</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="B59">
         <v>0</v>
       </c>
       <c r="C59">
-        <v>261</v>
+        <v>177</v>
       </c>
       <c r="D59">
         <v>0</v>
       </c>
       <c r="E59">
-        <v>555</v>
+        <v>290</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C60">
-        <v>254</v>
+        <v>177</v>
       </c>
       <c r="D60">
         <v>0</v>
       </c>
       <c r="E60">
-        <v>473</v>
+        <v>334</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C61">
-        <v>214</v>
+        <v>180</v>
       </c>
       <c r="D61">
         <v>0</v>
       </c>
       <c r="E61">
-        <v>451</v>
+        <v>291</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B62">
         <v>0</v>
       </c>
       <c r="C62">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D62">
         <v>0</v>
       </c>
       <c r="E62">
-        <v>465</v>
+        <v>308</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C63">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D63">
         <v>0</v>
       </c>
       <c r="E63">
-        <v>505</v>
+        <v>359</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C64">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D64">
         <v>0</v>
       </c>
       <c r="E64">
-        <v>484</v>
+        <v>290</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B65">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C65">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="D65">
         <v>0</v>
       </c>
       <c r="E65">
-        <v>516</v>
+        <v>296</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B66">
         <v>0</v>
       </c>
       <c r="C66">
-        <v>211</v>
+        <v>183</v>
       </c>
       <c r="D66">
         <v>0</v>
       </c>
       <c r="E66">
-        <v>512</v>
+        <v>298</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="B67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C67">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="D67">
         <v>0</v>
       </c>
       <c r="E67">
-        <v>481</v>
+        <v>321</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C68">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D68">
         <v>0</v>
       </c>
       <c r="E68">
-        <v>502</v>
+        <v>291</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B69">
         <v>0</v>
       </c>
       <c r="C69">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="D69">
         <v>0</v>
       </c>
       <c r="E69">
-        <v>492</v>
+        <v>318</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B70">
         <v>1</v>
       </c>
       <c r="C70">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E70">
-        <v>496</v>
+        <v>292</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B71">
         <v>0</v>
       </c>
       <c r="C71">
-        <v>217</v>
+        <v>188</v>
       </c>
       <c r="D71">
         <v>0</v>
       </c>
       <c r="E71">
-        <v>544</v>
+        <v>305</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="B72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C72">
-        <v>240</v>
+        <v>182</v>
       </c>
       <c r="D72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E72">
-        <v>514</v>
+        <v>325</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C73">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E73">
-        <v>454</v>
+        <v>299</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -1621,109 +1621,109 @@
         <v>0</v>
       </c>
       <c r="E74">
-        <v>563</v>
+        <v>345</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C75">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="D75">
         <v>0</v>
       </c>
       <c r="E75">
-        <v>423</v>
+        <v>313</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B76">
         <v>0</v>
       </c>
       <c r="C76">
-        <v>236</v>
+        <v>190</v>
       </c>
       <c r="D76">
         <v>0</v>
       </c>
       <c r="E76">
-        <v>556</v>
+        <v>326</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B77">
         <v>0</v>
       </c>
       <c r="C77">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="D77">
         <v>0</v>
       </c>
       <c r="E77">
-        <v>466</v>
+        <v>406</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="B78">
         <v>0</v>
       </c>
       <c r="C78">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="D78">
         <v>0</v>
       </c>
       <c r="E78">
-        <v>537</v>
+        <v>461</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="B79">
         <v>1</v>
       </c>
       <c r="C79">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="D79">
         <v>0</v>
       </c>
       <c r="E79">
-        <v>487</v>
+        <v>323</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="B80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C80">
-        <v>193</v>
+        <v>251</v>
       </c>
       <c r="D80">
         <v>0</v>
       </c>
       <c r="E80">
-        <v>472</v>
+        <v>415</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -1734,166 +1734,166 @@
         <v>0</v>
       </c>
       <c r="C81">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="D81">
         <v>0</v>
       </c>
       <c r="E81">
-        <v>527</v>
+        <v>331</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="B82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C82">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="D82">
         <v>0</v>
       </c>
       <c r="E82">
-        <v>502</v>
+        <v>425</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B83">
         <v>1</v>
       </c>
       <c r="C83">
-        <v>198</v>
+        <v>232</v>
       </c>
       <c r="D83">
         <v>0</v>
       </c>
       <c r="E83">
-        <v>473</v>
+        <v>333</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C84">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="D84">
         <v>0</v>
       </c>
       <c r="E84">
-        <v>484</v>
+        <v>330</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B85">
         <v>0</v>
       </c>
       <c r="C85">
-        <v>205</v>
+        <v>235</v>
       </c>
       <c r="D85">
         <v>0</v>
       </c>
       <c r="E85">
-        <v>530</v>
+        <v>346</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B86">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C86">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D86">
         <v>0</v>
       </c>
       <c r="E86">
-        <v>499</v>
+        <v>349</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87">
-        <v>10</v>
+        <v>152</v>
       </c>
       <c r="B87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C87">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="D87">
         <v>0</v>
       </c>
       <c r="E87">
-        <v>503</v>
+        <v>461</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B88">
         <v>0</v>
       </c>
       <c r="C88">
-        <v>246</v>
+        <v>195</v>
       </c>
       <c r="D88">
         <v>0</v>
       </c>
       <c r="E88">
-        <v>557</v>
+        <v>338</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89">
-        <v>12</v>
+        <v>135</v>
       </c>
       <c r="B89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C89">
-        <v>248</v>
+        <v>191</v>
       </c>
       <c r="D89">
         <v>0</v>
       </c>
       <c r="E89">
-        <v>493</v>
+        <v>418</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C90">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="D90">
         <v>0</v>
       </c>
       <c r="E90">
-        <v>435</v>
+        <v>339</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -1904,47 +1904,1322 @@
         <v>1</v>
       </c>
       <c r="C91">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="D91">
         <v>0</v>
       </c>
       <c r="E91">
-        <v>578</v>
+        <v>311</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B92">
         <v>0</v>
       </c>
       <c r="C92">
-        <v>199</v>
+        <v>220</v>
       </c>
       <c r="D92">
         <v>0</v>
       </c>
       <c r="E92">
-        <v>435</v>
+        <v>377</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93">
+        <v>21</v>
+      </c>
+      <c r="B93">
+        <v>1</v>
+      </c>
+      <c r="C93">
+        <v>237</v>
+      </c>
+      <c r="D93">
+        <v>1</v>
+      </c>
+      <c r="E93">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94">
         <v>10</v>
       </c>
-      <c r="B93">
-        <v>0</v>
-      </c>
-      <c r="C93">
-        <v>188</v>
-      </c>
-      <c r="D93">
-        <v>0</v>
-      </c>
-      <c r="E93">
-        <v>473</v>
+      <c r="B94">
+        <v>0</v>
+      </c>
+      <c r="C94">
+        <v>237</v>
+      </c>
+      <c r="D94">
+        <v>0</v>
+      </c>
+      <c r="E94">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95">
+        <v>31</v>
+      </c>
+      <c r="B95">
+        <v>0</v>
+      </c>
+      <c r="C95">
+        <v>226</v>
+      </c>
+      <c r="D95">
+        <v>0</v>
+      </c>
+      <c r="E95">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96">
+        <v>12</v>
+      </c>
+      <c r="B96">
+        <v>1</v>
+      </c>
+      <c r="C96">
+        <v>209</v>
+      </c>
+      <c r="D96">
+        <v>1</v>
+      </c>
+      <c r="E96">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97">
+        <v>34</v>
+      </c>
+      <c r="B97">
+        <v>0</v>
+      </c>
+      <c r="C97">
+        <v>197</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+      <c r="E97">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98">
+        <v>8</v>
+      </c>
+      <c r="B98">
+        <v>0</v>
+      </c>
+      <c r="C98">
+        <v>213</v>
+      </c>
+      <c r="D98">
+        <v>0</v>
+      </c>
+      <c r="E98">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99">
+        <v>17</v>
+      </c>
+      <c r="B99">
+        <v>0</v>
+      </c>
+      <c r="C99">
+        <v>222</v>
+      </c>
+      <c r="D99">
+        <v>0</v>
+      </c>
+      <c r="E99">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100">
+        <v>14</v>
+      </c>
+      <c r="B100">
+        <v>1</v>
+      </c>
+      <c r="C100">
+        <v>240</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101">
+        <v>15</v>
+      </c>
+      <c r="B101">
+        <v>1</v>
+      </c>
+      <c r="C101">
+        <v>244</v>
+      </c>
+      <c r="D101">
+        <v>0</v>
+      </c>
+      <c r="E101">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102">
+        <v>6</v>
+      </c>
+      <c r="B102">
+        <v>0</v>
+      </c>
+      <c r="C102">
+        <v>201</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103">
+        <v>9</v>
+      </c>
+      <c r="B103">
+        <v>0</v>
+      </c>
+      <c r="C103">
+        <v>226</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104">
+        <v>17</v>
+      </c>
+      <c r="B104">
+        <v>1</v>
+      </c>
+      <c r="C104">
+        <v>216</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105">
+        <v>10</v>
+      </c>
+      <c r="B105">
+        <v>0</v>
+      </c>
+      <c r="C105">
+        <v>230</v>
+      </c>
+      <c r="D105">
+        <v>0</v>
+      </c>
+      <c r="E105">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106">
+        <v>5</v>
+      </c>
+      <c r="B106">
+        <v>0</v>
+      </c>
+      <c r="C106">
+        <v>254</v>
+      </c>
+      <c r="D106">
+        <v>0</v>
+      </c>
+      <c r="E106">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107">
+        <v>22</v>
+      </c>
+      <c r="B107">
+        <v>1</v>
+      </c>
+      <c r="C107">
+        <v>243</v>
+      </c>
+      <c r="D107">
+        <v>0</v>
+      </c>
+      <c r="E107">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108">
+        <v>11</v>
+      </c>
+      <c r="B108">
+        <v>0</v>
+      </c>
+      <c r="C108">
+        <v>285</v>
+      </c>
+      <c r="D108">
+        <v>0</v>
+      </c>
+      <c r="E108">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109">
+        <v>22</v>
+      </c>
+      <c r="B109">
+        <v>1</v>
+      </c>
+      <c r="C109">
+        <v>239</v>
+      </c>
+      <c r="D109">
+        <v>0</v>
+      </c>
+      <c r="E109">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110">
+        <v>35</v>
+      </c>
+      <c r="B110">
+        <v>0</v>
+      </c>
+      <c r="C110">
+        <v>240</v>
+      </c>
+      <c r="D110">
+        <v>0</v>
+      </c>
+      <c r="E110">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111">
+        <v>77</v>
+      </c>
+      <c r="B111">
+        <v>1</v>
+      </c>
+      <c r="C111">
+        <v>267</v>
+      </c>
+      <c r="D111">
+        <v>0</v>
+      </c>
+      <c r="E111">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112">
+        <v>14</v>
+      </c>
+      <c r="B112">
+        <v>0</v>
+      </c>
+      <c r="C112">
+        <v>232</v>
+      </c>
+      <c r="D112">
+        <v>0</v>
+      </c>
+      <c r="E112">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113">
+        <v>25</v>
+      </c>
+      <c r="B113">
+        <v>1</v>
+      </c>
+      <c r="C113">
+        <v>248</v>
+      </c>
+      <c r="D113">
+        <v>0</v>
+      </c>
+      <c r="E113">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114">
+        <v>26</v>
+      </c>
+      <c r="B114">
+        <v>1</v>
+      </c>
+      <c r="C114">
+        <v>214</v>
+      </c>
+      <c r="D114">
+        <v>0</v>
+      </c>
+      <c r="E114">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115">
+        <v>11</v>
+      </c>
+      <c r="B115">
+        <v>0</v>
+      </c>
+      <c r="C115">
+        <v>213</v>
+      </c>
+      <c r="D115">
+        <v>0</v>
+      </c>
+      <c r="E115">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116">
+        <v>46</v>
+      </c>
+      <c r="B116">
+        <v>1</v>
+      </c>
+      <c r="C116">
+        <v>212</v>
+      </c>
+      <c r="D116">
+        <v>0</v>
+      </c>
+      <c r="E116">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117">
+        <v>24</v>
+      </c>
+      <c r="B117">
+        <v>0</v>
+      </c>
+      <c r="C117">
+        <v>216</v>
+      </c>
+      <c r="D117">
+        <v>0</v>
+      </c>
+      <c r="E117">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118">
+        <v>45</v>
+      </c>
+      <c r="B118">
+        <v>0</v>
+      </c>
+      <c r="C118">
+        <v>230</v>
+      </c>
+      <c r="D118">
+        <v>0</v>
+      </c>
+      <c r="E118">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119">
+        <v>42</v>
+      </c>
+      <c r="B119">
+        <v>0</v>
+      </c>
+      <c r="C119">
+        <v>264</v>
+      </c>
+      <c r="D119">
+        <v>0</v>
+      </c>
+      <c r="E119">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120">
+        <v>12</v>
+      </c>
+      <c r="B120">
+        <v>1</v>
+      </c>
+      <c r="C120">
+        <v>257</v>
+      </c>
+      <c r="D120">
+        <v>0</v>
+      </c>
+      <c r="E120">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121">
+        <v>11</v>
+      </c>
+      <c r="B121">
+        <v>0</v>
+      </c>
+      <c r="C121">
+        <v>251</v>
+      </c>
+      <c r="D121">
+        <v>0</v>
+      </c>
+      <c r="E121">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122">
+        <v>18</v>
+      </c>
+      <c r="B122">
+        <v>0</v>
+      </c>
+      <c r="C122">
+        <v>273</v>
+      </c>
+      <c r="D122">
+        <v>0</v>
+      </c>
+      <c r="E122">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123">
+        <v>32</v>
+      </c>
+      <c r="B123">
+        <v>0</v>
+      </c>
+      <c r="C123">
+        <v>241</v>
+      </c>
+      <c r="D123">
+        <v>0</v>
+      </c>
+      <c r="E123">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124">
+        <v>10</v>
+      </c>
+      <c r="B124">
+        <v>0</v>
+      </c>
+      <c r="C124">
+        <v>246</v>
+      </c>
+      <c r="D124">
+        <v>0</v>
+      </c>
+      <c r="E124">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125">
+        <v>11</v>
+      </c>
+      <c r="B125">
+        <v>0</v>
+      </c>
+      <c r="C125">
+        <v>241</v>
+      </c>
+      <c r="D125">
+        <v>0</v>
+      </c>
+      <c r="E125">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126">
+        <v>10</v>
+      </c>
+      <c r="B126">
+        <v>0</v>
+      </c>
+      <c r="C126">
+        <v>234</v>
+      </c>
+      <c r="D126">
+        <v>0</v>
+      </c>
+      <c r="E126">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127">
+        <v>15</v>
+      </c>
+      <c r="B127">
+        <v>0</v>
+      </c>
+      <c r="C127">
+        <v>237</v>
+      </c>
+      <c r="D127">
+        <v>1</v>
+      </c>
+      <c r="E127">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128">
+        <v>8</v>
+      </c>
+      <c r="B128">
+        <v>0</v>
+      </c>
+      <c r="C128">
+        <v>241</v>
+      </c>
+      <c r="D128">
+        <v>0</v>
+      </c>
+      <c r="E128">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129">
+        <v>30</v>
+      </c>
+      <c r="B129">
+        <v>1</v>
+      </c>
+      <c r="C129">
+        <v>242</v>
+      </c>
+      <c r="D129">
+        <v>0</v>
+      </c>
+      <c r="E129">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130">
+        <v>20</v>
+      </c>
+      <c r="B130">
+        <v>0</v>
+      </c>
+      <c r="C130">
+        <v>255</v>
+      </c>
+      <c r="D130">
+        <v>0</v>
+      </c>
+      <c r="E130">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131">
+        <v>14</v>
+      </c>
+      <c r="B131">
+        <v>0</v>
+      </c>
+      <c r="C131">
+        <v>241</v>
+      </c>
+      <c r="D131">
+        <v>0</v>
+      </c>
+      <c r="E131">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132">
+        <v>12</v>
+      </c>
+      <c r="B132">
+        <v>0</v>
+      </c>
+      <c r="C132">
+        <v>255</v>
+      </c>
+      <c r="D132">
+        <v>0</v>
+      </c>
+      <c r="E132">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133">
+        <v>14</v>
+      </c>
+      <c r="B133">
+        <v>1</v>
+      </c>
+      <c r="C133">
+        <v>250</v>
+      </c>
+      <c r="D133">
+        <v>0</v>
+      </c>
+      <c r="E133">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134">
+        <v>15</v>
+      </c>
+      <c r="B134">
+        <v>0</v>
+      </c>
+      <c r="C134">
+        <v>277</v>
+      </c>
+      <c r="D134">
+        <v>0</v>
+      </c>
+      <c r="E134">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135">
+        <v>23</v>
+      </c>
+      <c r="B135">
+        <v>0</v>
+      </c>
+      <c r="C135">
+        <v>302</v>
+      </c>
+      <c r="D135">
+        <v>0</v>
+      </c>
+      <c r="E135">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136">
+        <v>10</v>
+      </c>
+      <c r="B136">
+        <v>0</v>
+      </c>
+      <c r="C136">
+        <v>246</v>
+      </c>
+      <c r="D136">
+        <v>1</v>
+      </c>
+      <c r="E136">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137">
+        <v>9</v>
+      </c>
+      <c r="B137">
+        <v>1</v>
+      </c>
+      <c r="C137">
+        <v>241</v>
+      </c>
+      <c r="D137">
+        <v>0</v>
+      </c>
+      <c r="E137">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138">
+        <v>18</v>
+      </c>
+      <c r="B138">
+        <v>1</v>
+      </c>
+      <c r="C138">
+        <v>265</v>
+      </c>
+      <c r="D138">
+        <v>0</v>
+      </c>
+      <c r="E138">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139">
+        <v>27</v>
+      </c>
+      <c r="B139">
+        <v>0</v>
+      </c>
+      <c r="C139">
+        <v>266</v>
+      </c>
+      <c r="D139">
+        <v>0</v>
+      </c>
+      <c r="E139">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140">
+        <v>19</v>
+      </c>
+      <c r="B140">
+        <v>1</v>
+      </c>
+      <c r="C140">
+        <v>301</v>
+      </c>
+      <c r="D140">
+        <v>0</v>
+      </c>
+      <c r="E140">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141">
+        <v>26</v>
+      </c>
+      <c r="B141">
+        <v>0</v>
+      </c>
+      <c r="C141">
+        <v>243</v>
+      </c>
+      <c r="D141">
+        <v>0</v>
+      </c>
+      <c r="E141">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142">
+        <v>13</v>
+      </c>
+      <c r="B142">
+        <v>1</v>
+      </c>
+      <c r="C142">
+        <v>261</v>
+      </c>
+      <c r="D142">
+        <v>0</v>
+      </c>
+      <c r="E142">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="A143">
+        <v>11</v>
+      </c>
+      <c r="B143">
+        <v>0</v>
+      </c>
+      <c r="C143">
+        <v>253</v>
+      </c>
+      <c r="D143">
+        <v>0</v>
+      </c>
+      <c r="E143">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
+      <c r="A144">
+        <v>15</v>
+      </c>
+      <c r="B144">
+        <v>0</v>
+      </c>
+      <c r="C144">
+        <v>253</v>
+      </c>
+      <c r="D144">
+        <v>0</v>
+      </c>
+      <c r="E144">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
+      <c r="A145">
+        <v>26</v>
+      </c>
+      <c r="B145">
+        <v>1</v>
+      </c>
+      <c r="C145">
+        <v>262</v>
+      </c>
+      <c r="D145">
+        <v>0</v>
+      </c>
+      <c r="E145">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
+      <c r="A146">
+        <v>18</v>
+      </c>
+      <c r="B146">
+        <v>0</v>
+      </c>
+      <c r="C146">
+        <v>248</v>
+      </c>
+      <c r="D146">
+        <v>0</v>
+      </c>
+      <c r="E146">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5">
+      <c r="A147">
+        <v>18</v>
+      </c>
+      <c r="B147">
+        <v>0</v>
+      </c>
+      <c r="C147">
+        <v>279</v>
+      </c>
+      <c r="D147">
+        <v>0</v>
+      </c>
+      <c r="E147">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
+      <c r="A148">
+        <v>22</v>
+      </c>
+      <c r="B148">
+        <v>0</v>
+      </c>
+      <c r="C148">
+        <v>252</v>
+      </c>
+      <c r="D148">
+        <v>0</v>
+      </c>
+      <c r="E148">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
+      <c r="A149">
+        <v>36</v>
+      </c>
+      <c r="B149">
+        <v>0</v>
+      </c>
+      <c r="C149">
+        <v>244</v>
+      </c>
+      <c r="D149">
+        <v>0</v>
+      </c>
+      <c r="E149">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5">
+      <c r="A150">
+        <v>11</v>
+      </c>
+      <c r="B150">
+        <v>0</v>
+      </c>
+      <c r="C150">
+        <v>247</v>
+      </c>
+      <c r="D150">
+        <v>0</v>
+      </c>
+      <c r="E150">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5">
+      <c r="A151">
+        <v>7</v>
+      </c>
+      <c r="B151">
+        <v>1</v>
+      </c>
+      <c r="C151">
+        <v>243</v>
+      </c>
+      <c r="D151">
+        <v>0</v>
+      </c>
+      <c r="E151">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
+      <c r="A152">
+        <v>8</v>
+      </c>
+      <c r="B152">
+        <v>0</v>
+      </c>
+      <c r="C152">
+        <v>245</v>
+      </c>
+      <c r="D152">
+        <v>1</v>
+      </c>
+      <c r="E152">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
+      <c r="A153">
+        <v>12</v>
+      </c>
+      <c r="B153">
+        <v>0</v>
+      </c>
+      <c r="C153">
+        <v>255</v>
+      </c>
+      <c r="D153">
+        <v>0</v>
+      </c>
+      <c r="E153">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
+      <c r="A154">
+        <v>14</v>
+      </c>
+      <c r="B154">
+        <v>0</v>
+      </c>
+      <c r="C154">
+        <v>267</v>
+      </c>
+      <c r="D154">
+        <v>0</v>
+      </c>
+      <c r="E154">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5">
+      <c r="A155">
+        <v>6</v>
+      </c>
+      <c r="B155">
+        <v>0</v>
+      </c>
+      <c r="C155">
+        <v>244</v>
+      </c>
+      <c r="D155">
+        <v>0</v>
+      </c>
+      <c r="E155">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
+      <c r="A156">
+        <v>15</v>
+      </c>
+      <c r="B156">
+        <v>0</v>
+      </c>
+      <c r="C156">
+        <v>246</v>
+      </c>
+      <c r="D156">
+        <v>0</v>
+      </c>
+      <c r="E156">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
+      <c r="A157">
+        <v>16</v>
+      </c>
+      <c r="B157">
+        <v>0</v>
+      </c>
+      <c r="C157">
+        <v>243</v>
+      </c>
+      <c r="D157">
+        <v>0</v>
+      </c>
+      <c r="E157">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5">
+      <c r="A158">
+        <v>11</v>
+      </c>
+      <c r="B158">
+        <v>0</v>
+      </c>
+      <c r="C158">
+        <v>246</v>
+      </c>
+      <c r="D158">
+        <v>0</v>
+      </c>
+      <c r="E158">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5">
+      <c r="A159">
+        <v>13</v>
+      </c>
+      <c r="B159">
+        <v>0</v>
+      </c>
+      <c r="C159">
+        <v>245</v>
+      </c>
+      <c r="D159">
+        <v>0</v>
+      </c>
+      <c r="E159">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5">
+      <c r="A160">
+        <v>7</v>
+      </c>
+      <c r="B160">
+        <v>0</v>
+      </c>
+      <c r="C160">
+        <v>249</v>
+      </c>
+      <c r="D160">
+        <v>0</v>
+      </c>
+      <c r="E160">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5">
+      <c r="A161">
+        <v>9</v>
+      </c>
+      <c r="B161">
+        <v>1</v>
+      </c>
+      <c r="C161">
+        <v>249</v>
+      </c>
+      <c r="D161">
+        <v>0</v>
+      </c>
+      <c r="E161">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5">
+      <c r="A162">
+        <v>12</v>
+      </c>
+      <c r="B162">
+        <v>0</v>
+      </c>
+      <c r="C162">
+        <v>260</v>
+      </c>
+      <c r="D162">
+        <v>0</v>
+      </c>
+      <c r="E162">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5">
+      <c r="A163">
+        <v>14</v>
+      </c>
+      <c r="B163">
+        <v>0</v>
+      </c>
+      <c r="C163">
+        <v>252</v>
+      </c>
+      <c r="D163">
+        <v>0</v>
+      </c>
+      <c r="E163">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5">
+      <c r="A164">
+        <v>15</v>
+      </c>
+      <c r="B164">
+        <v>0</v>
+      </c>
+      <c r="C164">
+        <v>249</v>
+      </c>
+      <c r="D164">
+        <v>0</v>
+      </c>
+      <c r="E164">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5">
+      <c r="A165">
+        <v>19</v>
+      </c>
+      <c r="B165">
+        <v>0</v>
+      </c>
+      <c r="C165">
+        <v>270</v>
+      </c>
+      <c r="D165">
+        <v>0</v>
+      </c>
+      <c r="E165">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5">
+      <c r="A166">
+        <v>31</v>
+      </c>
+      <c r="B166">
+        <v>0</v>
+      </c>
+      <c r="C166">
+        <v>245</v>
+      </c>
+      <c r="D166">
+        <v>0</v>
+      </c>
+      <c r="E166">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5">
+      <c r="A167">
+        <v>22</v>
+      </c>
+      <c r="B167">
+        <v>0</v>
+      </c>
+      <c r="C167">
+        <v>266</v>
+      </c>
+      <c r="D167">
+        <v>0</v>
+      </c>
+      <c r="E167">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5">
+      <c r="A168">
+        <v>8</v>
+      </c>
+      <c r="B168">
+        <v>0</v>
+      </c>
+      <c r="C168">
+        <v>256</v>
+      </c>
+      <c r="D168">
+        <v>0</v>
+      </c>
+      <c r="E168">
+        <v>357</v>
       </c>
     </row>
   </sheetData>

--- a/Server_time.xlsx
+++ b/Server_time.xlsx
@@ -360,7 +360,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E168"/>
+  <dimension ref="A1:E113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -385,30 +385,30 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="C2">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>2597</v>
+        <v>2829</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -419,104 +419,104 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>414</v>
+        <v>259</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>141</v>
+        <v>163</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>268</v>
+        <v>333</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>289</v>
+        <v>262</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>288</v>
+        <v>321</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
       <c r="C8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>255</v>
+        <v>248</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
       <c r="C9">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>274</v>
+        <v>310</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -527,523 +527,523 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10">
-        <v>281</v>
+        <v>248</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>261</v>
+        <v>345</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="C12">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>247</v>
+        <v>266</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13">
-        <v>278</v>
+        <v>354</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>252</v>
+        <v>269</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
       <c r="C15">
-        <v>149</v>
+        <v>195</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>280</v>
+        <v>361</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
       <c r="C16">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>241</v>
+        <v>286</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
       <c r="C17">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>304</v>
+        <v>343</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
       <c r="C18">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>279</v>
+        <v>253</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C19">
-        <v>156</v>
+        <v>180</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>286</v>
+        <v>331</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C20">
-        <v>150</v>
+        <v>177</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>263</v>
+        <v>284</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="B21">
         <v>0</v>
       </c>
       <c r="C21">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>335</v>
+        <v>360</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B22">
         <v>0</v>
       </c>
       <c r="C22">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="D23">
         <v>1</v>
       </c>
       <c r="E23">
-        <v>289</v>
+        <v>311</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B24">
         <v>0</v>
       </c>
       <c r="C24">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>261</v>
+        <v>295</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="B25">
         <v>0</v>
       </c>
       <c r="C25">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>303</v>
+        <v>405</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B26">
         <v>0</v>
       </c>
       <c r="C26">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26">
-        <v>283</v>
+        <v>302</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>27</v>
+        <v>117</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
       <c r="C27">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D27">
         <v>0</v>
       </c>
       <c r="E27">
-        <v>327</v>
+        <v>421</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B28">
         <v>0</v>
       </c>
       <c r="C28">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D28">
         <v>0</v>
       </c>
       <c r="E28">
-        <v>342</v>
+        <v>310</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="B29">
         <v>0</v>
       </c>
       <c r="C29">
-        <v>213</v>
+        <v>179</v>
       </c>
       <c r="D29">
         <v>0</v>
       </c>
       <c r="E29">
-        <v>381</v>
+        <v>384</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B30">
         <v>0</v>
       </c>
       <c r="C30">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="D30">
         <v>0</v>
       </c>
       <c r="E30">
-        <v>294</v>
+        <v>315</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B31">
         <v>0</v>
       </c>
       <c r="C31">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="D31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E31">
-        <v>289</v>
+        <v>357</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C32">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="D32">
         <v>0</v>
       </c>
       <c r="E32">
-        <v>320</v>
+        <v>311</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C33">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D33">
         <v>0</v>
       </c>
       <c r="E33">
-        <v>333</v>
+        <v>376</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C34">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="D34">
         <v>0</v>
       </c>
       <c r="E34">
-        <v>313</v>
+        <v>296</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B35">
         <v>0</v>
       </c>
       <c r="C35">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D35">
         <v>0</v>
       </c>
       <c r="E35">
-        <v>294</v>
+        <v>368</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="B36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C36">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D36">
         <v>0</v>
       </c>
       <c r="E36">
-        <v>329</v>
+        <v>291</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C37">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="D37">
         <v>0</v>
       </c>
       <c r="E37">
-        <v>289</v>
+        <v>371</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B38">
         <v>0</v>
       </c>
       <c r="C38">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D38">
         <v>0</v>
       </c>
       <c r="E38">
-        <v>317</v>
+        <v>301</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B39">
         <v>0</v>
       </c>
       <c r="C39">
-        <v>209</v>
+        <v>190</v>
       </c>
       <c r="D39">
         <v>0</v>
       </c>
       <c r="E39">
-        <v>322</v>
+        <v>382</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B40">
         <v>0</v>
       </c>
       <c r="C40">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="D40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E40">
-        <v>390</v>
+        <v>302</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1054,307 +1054,307 @@
         <v>0</v>
       </c>
       <c r="C41">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="D41">
         <v>0</v>
       </c>
       <c r="E41">
-        <v>416</v>
+        <v>296</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
       <c r="C42">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D42">
         <v>0</v>
       </c>
       <c r="E42">
-        <v>292</v>
+        <v>375</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B43">
         <v>0</v>
       </c>
       <c r="C43">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="D43">
         <v>0</v>
       </c>
       <c r="E43">
-        <v>310</v>
+        <v>296</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="B44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C44">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="D44">
         <v>0</v>
       </c>
       <c r="E44">
-        <v>288</v>
+        <v>360</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="B45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C45">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="D45">
         <v>0</v>
       </c>
       <c r="E45">
-        <v>335</v>
+        <v>266</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="B46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C46">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="D46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E46">
-        <v>309</v>
+        <v>410</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B47">
         <v>0</v>
       </c>
       <c r="C47">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="D47">
         <v>0</v>
       </c>
       <c r="E47">
-        <v>269</v>
+        <v>307</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="B48">
         <v>1</v>
       </c>
       <c r="C48">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="D48">
         <v>0</v>
       </c>
       <c r="E48">
-        <v>382</v>
+        <v>418</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C49">
-        <v>203</v>
+        <v>166</v>
       </c>
       <c r="D49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E49">
-        <v>315</v>
+        <v>265</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="B50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C50">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="D50">
         <v>0</v>
       </c>
       <c r="E50">
-        <v>309</v>
+        <v>373</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B51">
         <v>0</v>
       </c>
       <c r="C51">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="D51">
         <v>0</v>
       </c>
       <c r="E51">
-        <v>296</v>
+        <v>300</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
       <c r="C52">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E52">
-        <v>337</v>
+        <v>379</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="B53">
         <v>0</v>
       </c>
       <c r="C53">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="D53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E53">
-        <v>347</v>
+        <v>278</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B54">
         <v>0</v>
       </c>
       <c r="C54">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D54">
         <v>1</v>
       </c>
       <c r="E54">
-        <v>327</v>
+        <v>373</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B55">
         <v>0</v>
       </c>
       <c r="C55">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="D55">
         <v>0</v>
       </c>
       <c r="E55">
-        <v>295</v>
+        <v>284</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B56">
         <v>0</v>
       </c>
       <c r="C56">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D56">
         <v>0</v>
       </c>
       <c r="E56">
-        <v>289</v>
+        <v>381</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C57">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="D57">
         <v>0</v>
       </c>
       <c r="E57">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B58">
         <v>0</v>
       </c>
       <c r="C58">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D58">
         <v>0</v>
       </c>
       <c r="E58">
-        <v>333</v>
+        <v>359</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -1366,41 +1366,41 @@
         <v>0</v>
       </c>
       <c r="E59">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B60">
         <v>1</v>
       </c>
       <c r="C60">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D60">
         <v>0</v>
       </c>
       <c r="E60">
-        <v>334</v>
+        <v>337</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B61">
         <v>0</v>
       </c>
       <c r="C61">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="D61">
         <v>0</v>
       </c>
       <c r="E61">
-        <v>291</v>
+        <v>294</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1408,577 +1408,577 @@
         <v>16</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C62">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="D62">
         <v>0</v>
       </c>
       <c r="E62">
-        <v>308</v>
+        <v>366</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B63">
         <v>0</v>
       </c>
       <c r="C63">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="D63">
         <v>0</v>
       </c>
       <c r="E63">
-        <v>359</v>
+        <v>289</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B64">
         <v>0</v>
       </c>
       <c r="C64">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="D64">
         <v>0</v>
       </c>
       <c r="E64">
-        <v>290</v>
+        <v>347</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B65">
         <v>0</v>
       </c>
       <c r="C65">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="D65">
         <v>0</v>
       </c>
       <c r="E65">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66">
-        <v>11</v>
+        <v>118</v>
       </c>
       <c r="B66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C66">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="D66">
         <v>0</v>
       </c>
       <c r="E66">
-        <v>298</v>
+        <v>470</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="B67">
         <v>1</v>
       </c>
       <c r="C67">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="D67">
         <v>0</v>
       </c>
       <c r="E67">
-        <v>321</v>
+        <v>431</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C68">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="D68">
         <v>0</v>
       </c>
       <c r="E68">
-        <v>291</v>
+        <v>413</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C69">
-        <v>183</v>
+        <v>226</v>
       </c>
       <c r="D69">
         <v>0</v>
       </c>
       <c r="E69">
-        <v>318</v>
+        <v>330</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="B70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C70">
-        <v>184</v>
+        <v>202</v>
       </c>
       <c r="D70">
         <v>0</v>
       </c>
       <c r="E70">
-        <v>292</v>
+        <v>416</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B71">
         <v>0</v>
       </c>
       <c r="C71">
-        <v>188</v>
+        <v>246</v>
       </c>
       <c r="D71">
         <v>0</v>
       </c>
       <c r="E71">
-        <v>305</v>
+        <v>354</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="B72">
         <v>1</v>
       </c>
       <c r="C72">
-        <v>182</v>
+        <v>228</v>
       </c>
       <c r="D72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E72">
-        <v>325</v>
+        <v>431</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B73">
         <v>0</v>
       </c>
       <c r="C73">
-        <v>194</v>
+        <v>247</v>
       </c>
       <c r="D73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E73">
-        <v>299</v>
+        <v>353</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B74">
         <v>0</v>
       </c>
       <c r="C74">
-        <v>201</v>
+        <v>248</v>
       </c>
       <c r="D74">
         <v>0</v>
       </c>
       <c r="E74">
-        <v>345</v>
+        <v>409</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="B75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C75">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="D75">
         <v>0</v>
       </c>
       <c r="E75">
-        <v>313</v>
+        <v>345</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B76">
         <v>0</v>
       </c>
       <c r="C76">
-        <v>190</v>
+        <v>208</v>
       </c>
       <c r="D76">
         <v>0</v>
       </c>
       <c r="E76">
-        <v>326</v>
+        <v>385</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C77">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="D77">
         <v>0</v>
       </c>
       <c r="E77">
-        <v>406</v>
+        <v>338</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="B78">
         <v>0</v>
       </c>
       <c r="C78">
-        <v>227</v>
+        <v>197</v>
       </c>
       <c r="D78">
         <v>0</v>
       </c>
       <c r="E78">
-        <v>461</v>
+        <v>360</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B79">
         <v>1</v>
       </c>
       <c r="C79">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="D79">
         <v>0</v>
       </c>
       <c r="E79">
-        <v>323</v>
+        <v>340</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="B80">
         <v>0</v>
       </c>
       <c r="C80">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="D80">
         <v>0</v>
       </c>
       <c r="E80">
-        <v>415</v>
+        <v>359</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C81">
-        <v>190</v>
+        <v>204</v>
       </c>
       <c r="D81">
         <v>0</v>
       </c>
       <c r="E81">
-        <v>331</v>
+        <v>401</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82">
-        <v>70</v>
+        <v>19</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C82">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="D82">
         <v>0</v>
       </c>
       <c r="E82">
-        <v>425</v>
+        <v>393</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="B83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C83">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="D83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E83">
-        <v>333</v>
+        <v>448</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B84">
         <v>1</v>
       </c>
       <c r="C84">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="D84">
         <v>0</v>
       </c>
       <c r="E84">
-        <v>330</v>
+        <v>295</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B85">
         <v>0</v>
       </c>
       <c r="C85">
-        <v>235</v>
+        <v>197</v>
       </c>
       <c r="D85">
         <v>0</v>
       </c>
       <c r="E85">
-        <v>346</v>
+        <v>356</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B86">
         <v>0</v>
       </c>
       <c r="C86">
-        <v>206</v>
+        <v>245</v>
       </c>
       <c r="D86">
         <v>0</v>
       </c>
       <c r="E86">
-        <v>349</v>
+        <v>356</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87">
-        <v>152</v>
+        <v>46</v>
       </c>
       <c r="B87">
         <v>0</v>
       </c>
       <c r="C87">
-        <v>200</v>
+        <v>242</v>
       </c>
       <c r="D87">
         <v>0</v>
       </c>
       <c r="E87">
-        <v>461</v>
+        <v>436</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="B88">
         <v>0</v>
       </c>
       <c r="C88">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="D88">
         <v>0</v>
       </c>
       <c r="E88">
-        <v>338</v>
+        <v>344</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89">
-        <v>135</v>
+        <v>28</v>
       </c>
       <c r="B89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C89">
-        <v>191</v>
+        <v>251</v>
       </c>
       <c r="D89">
         <v>0</v>
       </c>
       <c r="E89">
-        <v>418</v>
+        <v>462</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="B90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C90">
-        <v>191</v>
+        <v>236</v>
       </c>
       <c r="D90">
         <v>0</v>
       </c>
       <c r="E90">
-        <v>339</v>
+        <v>427</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91">
-        <v>12</v>
+        <v>166</v>
       </c>
       <c r="B91">
         <v>1</v>
       </c>
       <c r="C91">
-        <v>203</v>
+        <v>240</v>
       </c>
       <c r="D91">
         <v>0</v>
       </c>
       <c r="E91">
-        <v>311</v>
+        <v>597</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B92">
         <v>0</v>
       </c>
       <c r="C92">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D92">
         <v>0</v>
       </c>
       <c r="E92">
-        <v>377</v>
+        <v>349</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93">
-        <v>21</v>
+        <v>82</v>
       </c>
       <c r="B93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C93">
-        <v>237</v>
+        <v>254</v>
       </c>
       <c r="D93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E93">
-        <v>349</v>
+        <v>646</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="B94">
         <v>0</v>
       </c>
       <c r="C94">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D94">
         <v>0</v>
       </c>
       <c r="E94">
-        <v>369</v>
+        <v>384</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="B95">
         <v>0</v>
       </c>
       <c r="C95">
-        <v>226</v>
+        <v>254</v>
       </c>
       <c r="D95">
         <v>0</v>
       </c>
       <c r="E95">
-        <v>359</v>
+        <v>513</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -1986,1240 +1986,305 @@
         <v>12</v>
       </c>
       <c r="B96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C96">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="D96">
         <v>1</v>
       </c>
       <c r="E96">
-        <v>337</v>
+        <v>350</v>
       </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="B97">
         <v>0</v>
       </c>
       <c r="C97">
-        <v>197</v>
+        <v>258</v>
       </c>
       <c r="D97">
         <v>0</v>
       </c>
       <c r="E97">
-        <v>353</v>
+        <v>647</v>
       </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C98">
-        <v>213</v>
+        <v>252</v>
       </c>
       <c r="D98">
         <v>0</v>
       </c>
       <c r="E98">
-        <v>315</v>
+        <v>362</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="B99">
         <v>0</v>
       </c>
       <c r="C99">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="D99">
         <v>0</v>
       </c>
       <c r="E99">
-        <v>358</v>
+        <v>423</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C100">
-        <v>240</v>
+        <v>341</v>
       </c>
       <c r="D100">
         <v>0</v>
       </c>
       <c r="E100">
-        <v>348</v>
+        <v>448</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B101">
         <v>1</v>
       </c>
       <c r="C101">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D101">
         <v>0</v>
       </c>
       <c r="E101">
-        <v>384</v>
+        <v>414</v>
       </c>
     </row>
     <row r="102" spans="1:5">
       <c r="A102">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
       <c r="C102">
-        <v>201</v>
+        <v>254</v>
       </c>
       <c r="D102">
         <v>0</v>
       </c>
       <c r="E102">
-        <v>296</v>
+        <v>362</v>
       </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="B103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C103">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="D103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E103">
-        <v>387</v>
+        <v>381</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C104">
-        <v>216</v>
+        <v>240</v>
       </c>
       <c r="D104">
         <v>0</v>
       </c>
       <c r="E104">
-        <v>349</v>
+        <v>341</v>
       </c>
     </row>
     <row r="105" spans="1:5">
       <c r="A105">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="B105">
         <v>0</v>
       </c>
       <c r="C105">
-        <v>230</v>
+        <v>246</v>
       </c>
       <c r="D105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E105">
-        <v>373</v>
+        <v>410</v>
       </c>
     </row>
     <row r="106" spans="1:5">
       <c r="A106">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B106">
         <v>0</v>
       </c>
       <c r="C106">
-        <v>254</v>
+        <v>232</v>
       </c>
       <c r="D106">
         <v>0</v>
       </c>
       <c r="E106">
-        <v>374</v>
+        <v>343</v>
       </c>
     </row>
     <row r="107" spans="1:5">
       <c r="A107">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="B107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C107">
-        <v>243</v>
+        <v>223</v>
       </c>
       <c r="D107">
         <v>0</v>
       </c>
       <c r="E107">
-        <v>413</v>
+        <v>406</v>
       </c>
     </row>
     <row r="108" spans="1:5">
       <c r="A108">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="B108">
         <v>0</v>
       </c>
       <c r="C108">
-        <v>285</v>
+        <v>233</v>
       </c>
       <c r="D108">
         <v>0</v>
       </c>
       <c r="E108">
-        <v>389</v>
+        <v>488</v>
       </c>
     </row>
     <row r="109" spans="1:5">
       <c r="A109">
-        <v>22</v>
+        <v>94</v>
       </c>
       <c r="B109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C109">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D109">
         <v>0</v>
       </c>
       <c r="E109">
-        <v>379</v>
+        <v>531</v>
       </c>
     </row>
     <row r="110" spans="1:5">
       <c r="A110">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="B110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C110">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="D110">
         <v>0</v>
       </c>
       <c r="E110">
-        <v>365</v>
+        <v>333</v>
       </c>
     </row>
     <row r="111" spans="1:5">
       <c r="A111">
-        <v>77</v>
+        <v>116</v>
       </c>
       <c r="B111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C111">
-        <v>267</v>
+        <v>326</v>
       </c>
       <c r="D111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E111">
-        <v>468</v>
+        <v>588</v>
       </c>
     </row>
     <row r="112" spans="1:5">
       <c r="A112">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="B112">
         <v>0</v>
       </c>
       <c r="C112">
-        <v>232</v>
+        <v>271</v>
       </c>
       <c r="D112">
         <v>0</v>
       </c>
       <c r="E112">
-        <v>342</v>
+        <v>393</v>
       </c>
     </row>
     <row r="113" spans="1:5">
       <c r="A113">
-        <v>25</v>
+        <v>84</v>
       </c>
       <c r="B113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C113">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E113">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5">
-      <c r="A114">
-        <v>26</v>
-      </c>
-      <c r="B114">
-        <v>1</v>
-      </c>
-      <c r="C114">
-        <v>214</v>
-      </c>
-      <c r="D114">
-        <v>0</v>
-      </c>
-      <c r="E114">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5">
-      <c r="A115">
-        <v>11</v>
-      </c>
-      <c r="B115">
-        <v>0</v>
-      </c>
-      <c r="C115">
-        <v>213</v>
-      </c>
-      <c r="D115">
-        <v>0</v>
-      </c>
-      <c r="E115">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5">
-      <c r="A116">
-        <v>46</v>
-      </c>
-      <c r="B116">
-        <v>1</v>
-      </c>
-      <c r="C116">
-        <v>212</v>
-      </c>
-      <c r="D116">
-        <v>0</v>
-      </c>
-      <c r="E116">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5">
-      <c r="A117">
-        <v>24</v>
-      </c>
-      <c r="B117">
-        <v>0</v>
-      </c>
-      <c r="C117">
-        <v>216</v>
-      </c>
-      <c r="D117">
-        <v>0</v>
-      </c>
-      <c r="E117">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5">
-      <c r="A118">
-        <v>45</v>
-      </c>
-      <c r="B118">
-        <v>0</v>
-      </c>
-      <c r="C118">
-        <v>230</v>
-      </c>
-      <c r="D118">
-        <v>0</v>
-      </c>
-      <c r="E118">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5">
-      <c r="A119">
-        <v>42</v>
-      </c>
-      <c r="B119">
-        <v>0</v>
-      </c>
-      <c r="C119">
-        <v>264</v>
-      </c>
-      <c r="D119">
-        <v>0</v>
-      </c>
-      <c r="E119">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5">
-      <c r="A120">
-        <v>12</v>
-      </c>
-      <c r="B120">
-        <v>1</v>
-      </c>
-      <c r="C120">
-        <v>257</v>
-      </c>
-      <c r="D120">
-        <v>0</v>
-      </c>
-      <c r="E120">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5">
-      <c r="A121">
-        <v>11</v>
-      </c>
-      <c r="B121">
-        <v>0</v>
-      </c>
-      <c r="C121">
-        <v>251</v>
-      </c>
-      <c r="D121">
-        <v>0</v>
-      </c>
-      <c r="E121">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5">
-      <c r="A122">
-        <v>18</v>
-      </c>
-      <c r="B122">
-        <v>0</v>
-      </c>
-      <c r="C122">
-        <v>273</v>
-      </c>
-      <c r="D122">
-        <v>0</v>
-      </c>
-      <c r="E122">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5">
-      <c r="A123">
-        <v>32</v>
-      </c>
-      <c r="B123">
-        <v>0</v>
-      </c>
-      <c r="C123">
-        <v>241</v>
-      </c>
-      <c r="D123">
-        <v>0</v>
-      </c>
-      <c r="E123">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5">
-      <c r="A124">
-        <v>10</v>
-      </c>
-      <c r="B124">
-        <v>0</v>
-      </c>
-      <c r="C124">
-        <v>246</v>
-      </c>
-      <c r="D124">
-        <v>0</v>
-      </c>
-      <c r="E124">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5">
-      <c r="A125">
-        <v>11</v>
-      </c>
-      <c r="B125">
-        <v>0</v>
-      </c>
-      <c r="C125">
-        <v>241</v>
-      </c>
-      <c r="D125">
-        <v>0</v>
-      </c>
-      <c r="E125">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5">
-      <c r="A126">
-        <v>10</v>
-      </c>
-      <c r="B126">
-        <v>0</v>
-      </c>
-      <c r="C126">
-        <v>234</v>
-      </c>
-      <c r="D126">
-        <v>0</v>
-      </c>
-      <c r="E126">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5">
-      <c r="A127">
-        <v>15</v>
-      </c>
-      <c r="B127">
-        <v>0</v>
-      </c>
-      <c r="C127">
-        <v>237</v>
-      </c>
-      <c r="D127">
-        <v>1</v>
-      </c>
-      <c r="E127">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5">
-      <c r="A128">
-        <v>8</v>
-      </c>
-      <c r="B128">
-        <v>0</v>
-      </c>
-      <c r="C128">
-        <v>241</v>
-      </c>
-      <c r="D128">
-        <v>0</v>
-      </c>
-      <c r="E128">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5">
-      <c r="A129">
-        <v>30</v>
-      </c>
-      <c r="B129">
-        <v>1</v>
-      </c>
-      <c r="C129">
-        <v>242</v>
-      </c>
-      <c r="D129">
-        <v>0</v>
-      </c>
-      <c r="E129">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5">
-      <c r="A130">
-        <v>20</v>
-      </c>
-      <c r="B130">
-        <v>0</v>
-      </c>
-      <c r="C130">
-        <v>255</v>
-      </c>
-      <c r="D130">
-        <v>0</v>
-      </c>
-      <c r="E130">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5">
-      <c r="A131">
-        <v>14</v>
-      </c>
-      <c r="B131">
-        <v>0</v>
-      </c>
-      <c r="C131">
-        <v>241</v>
-      </c>
-      <c r="D131">
-        <v>0</v>
-      </c>
-      <c r="E131">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5">
-      <c r="A132">
-        <v>12</v>
-      </c>
-      <c r="B132">
-        <v>0</v>
-      </c>
-      <c r="C132">
-        <v>255</v>
-      </c>
-      <c r="D132">
-        <v>0</v>
-      </c>
-      <c r="E132">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5">
-      <c r="A133">
-        <v>14</v>
-      </c>
-      <c r="B133">
-        <v>1</v>
-      </c>
-      <c r="C133">
-        <v>250</v>
-      </c>
-      <c r="D133">
-        <v>0</v>
-      </c>
-      <c r="E133">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5">
-      <c r="A134">
-        <v>15</v>
-      </c>
-      <c r="B134">
-        <v>0</v>
-      </c>
-      <c r="C134">
-        <v>277</v>
-      </c>
-      <c r="D134">
-        <v>0</v>
-      </c>
-      <c r="E134">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5">
-      <c r="A135">
-        <v>23</v>
-      </c>
-      <c r="B135">
-        <v>0</v>
-      </c>
-      <c r="C135">
-        <v>302</v>
-      </c>
-      <c r="D135">
-        <v>0</v>
-      </c>
-      <c r="E135">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5">
-      <c r="A136">
-        <v>10</v>
-      </c>
-      <c r="B136">
-        <v>0</v>
-      </c>
-      <c r="C136">
-        <v>246</v>
-      </c>
-      <c r="D136">
-        <v>1</v>
-      </c>
-      <c r="E136">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5">
-      <c r="A137">
-        <v>9</v>
-      </c>
-      <c r="B137">
-        <v>1</v>
-      </c>
-      <c r="C137">
-        <v>241</v>
-      </c>
-      <c r="D137">
-        <v>0</v>
-      </c>
-      <c r="E137">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5">
-      <c r="A138">
-        <v>18</v>
-      </c>
-      <c r="B138">
-        <v>1</v>
-      </c>
-      <c r="C138">
-        <v>265</v>
-      </c>
-      <c r="D138">
-        <v>0</v>
-      </c>
-      <c r="E138">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5">
-      <c r="A139">
-        <v>27</v>
-      </c>
-      <c r="B139">
-        <v>0</v>
-      </c>
-      <c r="C139">
-        <v>266</v>
-      </c>
-      <c r="D139">
-        <v>0</v>
-      </c>
-      <c r="E139">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5">
-      <c r="A140">
-        <v>19</v>
-      </c>
-      <c r="B140">
-        <v>1</v>
-      </c>
-      <c r="C140">
-        <v>301</v>
-      </c>
-      <c r="D140">
-        <v>0</v>
-      </c>
-      <c r="E140">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5">
-      <c r="A141">
-        <v>26</v>
-      </c>
-      <c r="B141">
-        <v>0</v>
-      </c>
-      <c r="C141">
-        <v>243</v>
-      </c>
-      <c r="D141">
-        <v>0</v>
-      </c>
-      <c r="E141">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5">
-      <c r="A142">
-        <v>13</v>
-      </c>
-      <c r="B142">
-        <v>1</v>
-      </c>
-      <c r="C142">
-        <v>261</v>
-      </c>
-      <c r="D142">
-        <v>0</v>
-      </c>
-      <c r="E142">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5">
-      <c r="A143">
-        <v>11</v>
-      </c>
-      <c r="B143">
-        <v>0</v>
-      </c>
-      <c r="C143">
-        <v>253</v>
-      </c>
-      <c r="D143">
-        <v>0</v>
-      </c>
-      <c r="E143">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5">
-      <c r="A144">
-        <v>15</v>
-      </c>
-      <c r="B144">
-        <v>0</v>
-      </c>
-      <c r="C144">
-        <v>253</v>
-      </c>
-      <c r="D144">
-        <v>0</v>
-      </c>
-      <c r="E144">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5">
-      <c r="A145">
-        <v>26</v>
-      </c>
-      <c r="B145">
-        <v>1</v>
-      </c>
-      <c r="C145">
-        <v>262</v>
-      </c>
-      <c r="D145">
-        <v>0</v>
-      </c>
-      <c r="E145">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5">
-      <c r="A146">
-        <v>18</v>
-      </c>
-      <c r="B146">
-        <v>0</v>
-      </c>
-      <c r="C146">
-        <v>248</v>
-      </c>
-      <c r="D146">
-        <v>0</v>
-      </c>
-      <c r="E146">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5">
-      <c r="A147">
-        <v>18</v>
-      </c>
-      <c r="B147">
-        <v>0</v>
-      </c>
-      <c r="C147">
-        <v>279</v>
-      </c>
-      <c r="D147">
-        <v>0</v>
-      </c>
-      <c r="E147">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5">
-      <c r="A148">
-        <v>22</v>
-      </c>
-      <c r="B148">
-        <v>0</v>
-      </c>
-      <c r="C148">
-        <v>252</v>
-      </c>
-      <c r="D148">
-        <v>0</v>
-      </c>
-      <c r="E148">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5">
-      <c r="A149">
-        <v>36</v>
-      </c>
-      <c r="B149">
-        <v>0</v>
-      </c>
-      <c r="C149">
-        <v>244</v>
-      </c>
-      <c r="D149">
-        <v>0</v>
-      </c>
-      <c r="E149">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5">
-      <c r="A150">
-        <v>11</v>
-      </c>
-      <c r="B150">
-        <v>0</v>
-      </c>
-      <c r="C150">
-        <v>247</v>
-      </c>
-      <c r="D150">
-        <v>0</v>
-      </c>
-      <c r="E150">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5">
-      <c r="A151">
-        <v>7</v>
-      </c>
-      <c r="B151">
-        <v>1</v>
-      </c>
-      <c r="C151">
-        <v>243</v>
-      </c>
-      <c r="D151">
-        <v>0</v>
-      </c>
-      <c r="E151">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5">
-      <c r="A152">
-        <v>8</v>
-      </c>
-      <c r="B152">
-        <v>0</v>
-      </c>
-      <c r="C152">
-        <v>245</v>
-      </c>
-      <c r="D152">
-        <v>1</v>
-      </c>
-      <c r="E152">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5">
-      <c r="A153">
-        <v>12</v>
-      </c>
-      <c r="B153">
-        <v>0</v>
-      </c>
-      <c r="C153">
-        <v>255</v>
-      </c>
-      <c r="D153">
-        <v>0</v>
-      </c>
-      <c r="E153">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5">
-      <c r="A154">
-        <v>14</v>
-      </c>
-      <c r="B154">
-        <v>0</v>
-      </c>
-      <c r="C154">
-        <v>267</v>
-      </c>
-      <c r="D154">
-        <v>0</v>
-      </c>
-      <c r="E154">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5">
-      <c r="A155">
-        <v>6</v>
-      </c>
-      <c r="B155">
-        <v>0</v>
-      </c>
-      <c r="C155">
-        <v>244</v>
-      </c>
-      <c r="D155">
-        <v>0</v>
-      </c>
-      <c r="E155">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5">
-      <c r="A156">
-        <v>15</v>
-      </c>
-      <c r="B156">
-        <v>0</v>
-      </c>
-      <c r="C156">
-        <v>246</v>
-      </c>
-      <c r="D156">
-        <v>0</v>
-      </c>
-      <c r="E156">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5">
-      <c r="A157">
-        <v>16</v>
-      </c>
-      <c r="B157">
-        <v>0</v>
-      </c>
-      <c r="C157">
-        <v>243</v>
-      </c>
-      <c r="D157">
-        <v>0</v>
-      </c>
-      <c r="E157">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5">
-      <c r="A158">
-        <v>11</v>
-      </c>
-      <c r="B158">
-        <v>0</v>
-      </c>
-      <c r="C158">
-        <v>246</v>
-      </c>
-      <c r="D158">
-        <v>0</v>
-      </c>
-      <c r="E158">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5">
-      <c r="A159">
-        <v>13</v>
-      </c>
-      <c r="B159">
-        <v>0</v>
-      </c>
-      <c r="C159">
-        <v>245</v>
-      </c>
-      <c r="D159">
-        <v>0</v>
-      </c>
-      <c r="E159">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5">
-      <c r="A160">
-        <v>7</v>
-      </c>
-      <c r="B160">
-        <v>0</v>
-      </c>
-      <c r="C160">
-        <v>249</v>
-      </c>
-      <c r="D160">
-        <v>0</v>
-      </c>
-      <c r="E160">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5">
-      <c r="A161">
-        <v>9</v>
-      </c>
-      <c r="B161">
-        <v>1</v>
-      </c>
-      <c r="C161">
-        <v>249</v>
-      </c>
-      <c r="D161">
-        <v>0</v>
-      </c>
-      <c r="E161">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5">
-      <c r="A162">
-        <v>12</v>
-      </c>
-      <c r="B162">
-        <v>0</v>
-      </c>
-      <c r="C162">
-        <v>260</v>
-      </c>
-      <c r="D162">
-        <v>0</v>
-      </c>
-      <c r="E162">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5">
-      <c r="A163">
-        <v>14</v>
-      </c>
-      <c r="B163">
-        <v>0</v>
-      </c>
-      <c r="C163">
-        <v>252</v>
-      </c>
-      <c r="D163">
-        <v>0</v>
-      </c>
-      <c r="E163">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5">
-      <c r="A164">
-        <v>15</v>
-      </c>
-      <c r="B164">
-        <v>0</v>
-      </c>
-      <c r="C164">
-        <v>249</v>
-      </c>
-      <c r="D164">
-        <v>0</v>
-      </c>
-      <c r="E164">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5">
-      <c r="A165">
-        <v>19</v>
-      </c>
-      <c r="B165">
-        <v>0</v>
-      </c>
-      <c r="C165">
-        <v>270</v>
-      </c>
-      <c r="D165">
-        <v>0</v>
-      </c>
-      <c r="E165">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5">
-      <c r="A166">
-        <v>31</v>
-      </c>
-      <c r="B166">
-        <v>0</v>
-      </c>
-      <c r="C166">
-        <v>245</v>
-      </c>
-      <c r="D166">
-        <v>0</v>
-      </c>
-      <c r="E166">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5">
-      <c r="A167">
-        <v>22</v>
-      </c>
-      <c r="B167">
-        <v>0</v>
-      </c>
-      <c r="C167">
-        <v>266</v>
-      </c>
-      <c r="D167">
-        <v>0</v>
-      </c>
-      <c r="E167">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5">
-      <c r="A168">
-        <v>8</v>
-      </c>
-      <c r="B168">
-        <v>0</v>
-      </c>
-      <c r="C168">
-        <v>256</v>
-      </c>
-      <c r="D168">
-        <v>0</v>
-      </c>
-      <c r="E168">
-        <v>357</v>
+        <v>506</v>
       </c>
     </row>
   </sheetData>

--- a/Server_time.xlsx
+++ b/Server_time.xlsx
@@ -360,7 +360,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E113"/>
+  <dimension ref="A1:E157"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -385,36 +385,36 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="C2">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>2829</v>
+        <v>4195</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>14</v>
+        <v>116</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3">
-        <v>144</v>
+        <v>187</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>252</v>
+        <v>408</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -425,200 +425,200 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4">
-        <v>259</v>
+        <v>410</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="C5">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>333</v>
+        <v>490</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>262</v>
+        <v>469</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>321</v>
+        <v>648</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
       <c r="C8">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>248</v>
+        <v>495</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>310</v>
+        <v>353</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
       <c r="C10">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>248</v>
+        <v>495</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="C11">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>345</v>
+        <v>516</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12">
-        <v>145</v>
+        <v>194</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12">
-        <v>266</v>
+        <v>534</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
       <c r="C13">
-        <v>153</v>
+        <v>203</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>354</v>
+        <v>506</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
       <c r="C14">
-        <v>151</v>
+        <v>181</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>269</v>
+        <v>503</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
       <c r="C15">
-        <v>195</v>
+        <v>162</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>361</v>
+        <v>463</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -626,373 +626,373 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16">
-        <v>152</v>
+        <v>177</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>286</v>
+        <v>512</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
       <c r="C17">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17">
-        <v>343</v>
+        <v>480</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
       <c r="C18">
-        <v>151</v>
+        <v>188</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18">
-        <v>253</v>
+        <v>524</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C19">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>331</v>
+        <v>469</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>284</v>
+        <v>512</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B21">
         <v>0</v>
       </c>
       <c r="C21">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>360</v>
+        <v>510</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>271</v>
+        <v>492</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C23">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23">
-        <v>311</v>
+        <v>548</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B24">
         <v>0</v>
       </c>
       <c r="C24">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>295</v>
+        <v>483</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="B25">
         <v>0</v>
       </c>
       <c r="C25">
-        <v>187</v>
+        <v>156</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25">
-        <v>405</v>
+        <v>545</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B26">
         <v>0</v>
       </c>
       <c r="C26">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26">
-        <v>302</v>
+        <v>443</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>117</v>
+        <v>14</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
       <c r="C27">
-        <v>158</v>
+        <v>208</v>
       </c>
       <c r="D27">
         <v>0</v>
       </c>
       <c r="E27">
-        <v>421</v>
+        <v>613</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="B28">
         <v>0</v>
       </c>
       <c r="C28">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="D28">
         <v>0</v>
       </c>
       <c r="E28">
-        <v>310</v>
+        <v>404</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="B29">
         <v>0</v>
       </c>
       <c r="C29">
-        <v>179</v>
+        <v>216</v>
       </c>
       <c r="D29">
         <v>0</v>
       </c>
       <c r="E29">
-        <v>384</v>
+        <v>514</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B30">
         <v>0</v>
       </c>
       <c r="C30">
-        <v>169</v>
+        <v>196</v>
       </c>
       <c r="D30">
         <v>0</v>
       </c>
       <c r="E30">
-        <v>315</v>
+        <v>478</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C31">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="D31">
         <v>0</v>
       </c>
       <c r="E31">
-        <v>357</v>
+        <v>533</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="B32">
         <v>0</v>
       </c>
       <c r="C32">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="D32">
         <v>0</v>
       </c>
       <c r="E32">
-        <v>311</v>
+        <v>470</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C33">
-        <v>187</v>
+        <v>165</v>
       </c>
       <c r="D33">
         <v>0</v>
       </c>
       <c r="E33">
-        <v>376</v>
+        <v>479</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B34">
         <v>2</v>
       </c>
       <c r="C34">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="D34">
         <v>0</v>
       </c>
       <c r="E34">
-        <v>296</v>
+        <v>506</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="B35">
         <v>0</v>
       </c>
       <c r="C35">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D35">
         <v>0</v>
       </c>
       <c r="E35">
-        <v>368</v>
+        <v>473</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C36">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D36">
         <v>0</v>
       </c>
       <c r="E36">
-        <v>291</v>
+        <v>523</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C37">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D37">
         <v>0</v>
       </c>
       <c r="E37">
-        <v>371</v>
+        <v>521</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1000,259 +1000,259 @@
         <v>16</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C38">
-        <v>169</v>
+        <v>189</v>
       </c>
       <c r="D38">
         <v>0</v>
       </c>
       <c r="E38">
-        <v>301</v>
+        <v>603</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B39">
         <v>0</v>
       </c>
       <c r="C39">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="D39">
         <v>0</v>
       </c>
       <c r="E39">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B40">
         <v>0</v>
       </c>
       <c r="C40">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="D40">
         <v>0</v>
       </c>
       <c r="E40">
-        <v>302</v>
+        <v>509</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B41">
         <v>0</v>
       </c>
       <c r="C41">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="D41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E41">
-        <v>296</v>
+        <v>476</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
       <c r="C42">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="D42">
         <v>0</v>
       </c>
       <c r="E42">
-        <v>375</v>
+        <v>504</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B43">
         <v>0</v>
       </c>
       <c r="C43">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="D43">
         <v>0</v>
       </c>
       <c r="E43">
-        <v>296</v>
+        <v>496</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="B44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C44">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D44">
         <v>0</v>
       </c>
       <c r="E44">
-        <v>360</v>
+        <v>503</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
       <c r="C45">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="D45">
         <v>0</v>
       </c>
       <c r="E45">
-        <v>266</v>
+        <v>500</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="B46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C46">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D46">
         <v>0</v>
       </c>
       <c r="E46">
-        <v>410</v>
+        <v>514</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="B47">
         <v>0</v>
       </c>
       <c r="C47">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="D47">
         <v>0</v>
       </c>
       <c r="E47">
-        <v>307</v>
+        <v>500</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B48">
         <v>1</v>
       </c>
       <c r="C48">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="D48">
         <v>0</v>
       </c>
       <c r="E48">
-        <v>418</v>
+        <v>480</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="B49">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C49">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="D49">
         <v>0</v>
       </c>
       <c r="E49">
-        <v>265</v>
+        <v>523</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="B50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C50">
-        <v>170</v>
+        <v>194</v>
       </c>
       <c r="D50">
         <v>0</v>
       </c>
       <c r="E50">
-        <v>373</v>
+        <v>498</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B51">
         <v>0</v>
       </c>
       <c r="C51">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D51">
         <v>0</v>
       </c>
       <c r="E51">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
       <c r="C52">
-        <v>175</v>
+        <v>204</v>
       </c>
       <c r="D52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E52">
-        <v>379</v>
+        <v>534</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -1264,233 +1264,233 @@
         <v>0</v>
       </c>
       <c r="E53">
-        <v>278</v>
+        <v>446</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="B54">
         <v>0</v>
       </c>
       <c r="C54">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="D54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E54">
-        <v>373</v>
+        <v>506</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B55">
         <v>0</v>
       </c>
       <c r="C55">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E55">
-        <v>284</v>
+        <v>501</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B56">
         <v>0</v>
       </c>
       <c r="C56">
-        <v>174</v>
+        <v>195</v>
       </c>
       <c r="D56">
         <v>0</v>
       </c>
       <c r="E56">
-        <v>381</v>
+        <v>572</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
       <c r="C57">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="D57">
         <v>0</v>
       </c>
       <c r="E57">
-        <v>282</v>
+        <v>981</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="B58">
         <v>0</v>
       </c>
       <c r="C58">
-        <v>180</v>
+        <v>230</v>
       </c>
       <c r="D58">
         <v>0</v>
       </c>
       <c r="E58">
-        <v>359</v>
+        <v>492</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C59">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="D59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E59">
-        <v>286</v>
+        <v>478</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="B60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C60">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D60">
         <v>0</v>
       </c>
       <c r="E60">
-        <v>337</v>
+        <v>498</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="B61">
         <v>0</v>
       </c>
       <c r="C61">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="D61">
         <v>0</v>
       </c>
       <c r="E61">
-        <v>294</v>
+        <v>535</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C62">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="D62">
         <v>0</v>
       </c>
       <c r="E62">
-        <v>366</v>
+        <v>449</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="B63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C63">
-        <v>189</v>
+        <v>230</v>
       </c>
       <c r="D63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E63">
-        <v>289</v>
+        <v>558</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B64">
         <v>0</v>
       </c>
       <c r="C64">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D64">
         <v>0</v>
       </c>
       <c r="E64">
-        <v>347</v>
+        <v>439</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="B65">
         <v>0</v>
       </c>
       <c r="C65">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="D65">
         <v>0</v>
       </c>
       <c r="E65">
-        <v>295</v>
+        <v>535</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66">
-        <v>118</v>
+        <v>7</v>
       </c>
       <c r="B66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C66">
-        <v>186</v>
+        <v>225</v>
       </c>
       <c r="D66">
         <v>0</v>
       </c>
       <c r="E66">
-        <v>470</v>
+        <v>503</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B67">
         <v>1</v>
@@ -1502,131 +1502,131 @@
         <v>0</v>
       </c>
       <c r="E67">
-        <v>431</v>
+        <v>489</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B68">
         <v>0</v>
       </c>
       <c r="C68">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="D68">
         <v>0</v>
       </c>
       <c r="E68">
-        <v>413</v>
+        <v>494</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C69">
-        <v>226</v>
+        <v>203</v>
       </c>
       <c r="D69">
         <v>0</v>
       </c>
       <c r="E69">
-        <v>330</v>
+        <v>495</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="B70">
         <v>0</v>
       </c>
       <c r="C70">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="D70">
         <v>0</v>
       </c>
       <c r="E70">
-        <v>416</v>
+        <v>494</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B71">
         <v>0</v>
       </c>
       <c r="C71">
-        <v>246</v>
+        <v>183</v>
       </c>
       <c r="D71">
         <v>0</v>
       </c>
       <c r="E71">
-        <v>354</v>
+        <v>497</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="B72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C72">
-        <v>228</v>
+        <v>198</v>
       </c>
       <c r="D72">
         <v>0</v>
       </c>
       <c r="E72">
-        <v>431</v>
+        <v>504</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B73">
         <v>0</v>
       </c>
       <c r="C73">
-        <v>247</v>
+        <v>212</v>
       </c>
       <c r="D73">
         <v>0</v>
       </c>
       <c r="E73">
-        <v>353</v>
+        <v>525</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C74">
-        <v>248</v>
+        <v>219</v>
       </c>
       <c r="D74">
         <v>0</v>
       </c>
       <c r="E74">
-        <v>409</v>
+        <v>500</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -1638,653 +1638,1401 @@
         <v>0</v>
       </c>
       <c r="E75">
-        <v>345</v>
+        <v>493</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C76">
-        <v>208</v>
+        <v>253</v>
       </c>
       <c r="D76">
         <v>0</v>
       </c>
       <c r="E76">
-        <v>385</v>
+        <v>615</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B77">
         <v>1</v>
       </c>
       <c r="C77">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="D77">
         <v>0</v>
       </c>
       <c r="E77">
-        <v>338</v>
+        <v>405</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B78">
         <v>0</v>
       </c>
       <c r="C78">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="D78">
         <v>0</v>
       </c>
       <c r="E78">
-        <v>360</v>
+        <v>467</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B79">
         <v>1</v>
       </c>
       <c r="C79">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D79">
         <v>0</v>
       </c>
       <c r="E79">
-        <v>340</v>
+        <v>511</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B80">
         <v>0</v>
       </c>
       <c r="C80">
-        <v>239</v>
+        <v>198</v>
       </c>
       <c r="D80">
         <v>0</v>
       </c>
       <c r="E80">
-        <v>359</v>
+        <v>488</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B81">
         <v>1</v>
       </c>
       <c r="C81">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="D81">
         <v>0</v>
       </c>
       <c r="E81">
-        <v>401</v>
+        <v>504</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C82">
-        <v>217</v>
+        <v>201</v>
       </c>
       <c r="D82">
         <v>0</v>
       </c>
       <c r="E82">
-        <v>393</v>
+        <v>496</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="B83">
         <v>0</v>
       </c>
       <c r="C83">
-        <v>244</v>
+        <v>188</v>
       </c>
       <c r="D83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E83">
-        <v>448</v>
+        <v>498</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="B84">
         <v>1</v>
       </c>
       <c r="C84">
-        <v>193</v>
+        <v>220</v>
       </c>
       <c r="D84">
         <v>0</v>
       </c>
       <c r="E84">
-        <v>295</v>
+        <v>540</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B85">
         <v>0</v>
       </c>
       <c r="C85">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D85">
         <v>0</v>
       </c>
       <c r="E85">
-        <v>356</v>
+        <v>468</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B86">
         <v>0</v>
       </c>
       <c r="C86">
-        <v>245</v>
+        <v>190</v>
       </c>
       <c r="D86">
         <v>0</v>
       </c>
       <c r="E86">
-        <v>356</v>
+        <v>482</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="B87">
         <v>0</v>
       </c>
       <c r="C87">
-        <v>242</v>
+        <v>199</v>
       </c>
       <c r="D87">
         <v>0</v>
       </c>
       <c r="E87">
-        <v>436</v>
+        <v>531</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="B88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C88">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D88">
         <v>0</v>
       </c>
       <c r="E88">
-        <v>344</v>
+        <v>504</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B89">
         <v>0</v>
       </c>
       <c r="C89">
-        <v>251</v>
+        <v>210</v>
       </c>
       <c r="D89">
         <v>0</v>
       </c>
       <c r="E89">
-        <v>462</v>
+        <v>497</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="B90">
         <v>1</v>
       </c>
       <c r="C90">
-        <v>236</v>
+        <v>189</v>
       </c>
       <c r="D90">
         <v>0</v>
       </c>
       <c r="E90">
-        <v>427</v>
+        <v>496</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91">
-        <v>166</v>
+        <v>15</v>
       </c>
       <c r="B91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C91">
-        <v>240</v>
+        <v>192</v>
       </c>
       <c r="D91">
         <v>0</v>
       </c>
       <c r="E91">
-        <v>597</v>
+        <v>504</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="B92">
         <v>0</v>
       </c>
       <c r="C92">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="D92">
         <v>0</v>
       </c>
       <c r="E92">
-        <v>349</v>
+        <v>525</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93">
-        <v>82</v>
+        <v>17</v>
       </c>
       <c r="B93">
         <v>0</v>
       </c>
       <c r="C93">
-        <v>254</v>
+        <v>194</v>
       </c>
       <c r="D93">
         <v>0</v>
       </c>
       <c r="E93">
-        <v>646</v>
+        <v>469</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B94">
         <v>0</v>
       </c>
       <c r="C94">
-        <v>233</v>
+        <v>194</v>
       </c>
       <c r="D94">
         <v>0</v>
       </c>
       <c r="E94">
-        <v>384</v>
+        <v>510</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="B95">
         <v>0</v>
       </c>
       <c r="C95">
-        <v>254</v>
+        <v>204</v>
       </c>
       <c r="D95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E95">
-        <v>513</v>
+        <v>488</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
       <c r="C96">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="D96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E96">
-        <v>350</v>
+        <v>507</v>
       </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="B97">
         <v>0</v>
       </c>
       <c r="C97">
-        <v>258</v>
+        <v>209</v>
       </c>
       <c r="D97">
         <v>0</v>
       </c>
       <c r="E97">
-        <v>647</v>
+        <v>506</v>
       </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="B98">
         <v>1</v>
       </c>
       <c r="C98">
-        <v>252</v>
+        <v>203</v>
       </c>
       <c r="D98">
         <v>0</v>
       </c>
       <c r="E98">
-        <v>362</v>
+        <v>518</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="B99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C99">
-        <v>231</v>
+        <v>195</v>
       </c>
       <c r="D99">
         <v>0</v>
       </c>
       <c r="E99">
-        <v>423</v>
+        <v>470</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="B100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C100">
-        <v>341</v>
+        <v>197</v>
       </c>
       <c r="D100">
         <v>0</v>
       </c>
       <c r="E100">
-        <v>448</v>
+        <v>509</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C101">
-        <v>240</v>
+        <v>198</v>
       </c>
       <c r="D101">
         <v>0</v>
       </c>
       <c r="E101">
-        <v>414</v>
+        <v>478</v>
       </c>
     </row>
     <row r="102" spans="1:5">
       <c r="A102">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="B102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C102">
-        <v>254</v>
+        <v>194</v>
       </c>
       <c r="D102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E102">
-        <v>362</v>
+        <v>533</v>
       </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B103">
         <v>1</v>
       </c>
       <c r="C103">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="D103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E103">
-        <v>381</v>
+        <v>580</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
       <c r="C104">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="D104">
         <v>0</v>
       </c>
       <c r="E104">
-        <v>341</v>
+        <v>459</v>
       </c>
     </row>
     <row r="105" spans="1:5">
       <c r="A105">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="B105">
         <v>0</v>
       </c>
       <c r="C105">
-        <v>246</v>
+        <v>205</v>
       </c>
       <c r="D105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E105">
-        <v>410</v>
+        <v>430</v>
       </c>
     </row>
     <row r="106" spans="1:5">
       <c r="A106">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="B106">
         <v>0</v>
       </c>
       <c r="C106">
-        <v>232</v>
+        <v>208</v>
       </c>
       <c r="D106">
         <v>0</v>
       </c>
       <c r="E106">
-        <v>343</v>
+        <v>532</v>
       </c>
     </row>
     <row r="107" spans="1:5">
       <c r="A107">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="B107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C107">
-        <v>223</v>
+        <v>205</v>
       </c>
       <c r="D107">
         <v>0</v>
       </c>
       <c r="E107">
-        <v>406</v>
+        <v>499</v>
       </c>
     </row>
     <row r="108" spans="1:5">
       <c r="A108">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="B108">
         <v>0</v>
       </c>
       <c r="C108">
-        <v>233</v>
+        <v>203</v>
       </c>
       <c r="D108">
         <v>0</v>
       </c>
       <c r="E108">
-        <v>488</v>
+        <v>520</v>
       </c>
     </row>
     <row r="109" spans="1:5">
       <c r="A109">
-        <v>94</v>
+        <v>22</v>
       </c>
       <c r="B109">
         <v>0</v>
       </c>
       <c r="C109">
-        <v>238</v>
+        <v>211</v>
       </c>
       <c r="D109">
         <v>0</v>
       </c>
       <c r="E109">
-        <v>531</v>
+        <v>495</v>
       </c>
     </row>
     <row r="110" spans="1:5">
       <c r="A110">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B110">
         <v>1</v>
       </c>
       <c r="C110">
-        <v>224</v>
+        <v>245</v>
       </c>
       <c r="D110">
         <v>0</v>
       </c>
       <c r="E110">
-        <v>333</v>
+        <v>583</v>
       </c>
     </row>
     <row r="111" spans="1:5">
       <c r="A111">
-        <v>116</v>
+        <v>24</v>
       </c>
       <c r="B111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C111">
-        <v>326</v>
+        <v>237</v>
       </c>
       <c r="D111">
         <v>1</v>
       </c>
       <c r="E111">
-        <v>588</v>
+        <v>423</v>
       </c>
     </row>
     <row r="112" spans="1:5">
       <c r="A112">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="B112">
         <v>0</v>
       </c>
       <c r="C112">
-        <v>271</v>
+        <v>208</v>
       </c>
       <c r="D112">
         <v>0</v>
       </c>
       <c r="E112">
-        <v>393</v>
+        <v>467</v>
       </c>
     </row>
     <row r="113" spans="1:5">
       <c r="A113">
-        <v>84</v>
+        <v>8</v>
       </c>
       <c r="B113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C113">
+        <v>201</v>
+      </c>
+      <c r="D113">
+        <v>0</v>
+      </c>
+      <c r="E113">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114">
+        <v>27</v>
+      </c>
+      <c r="B114">
+        <v>0</v>
+      </c>
+      <c r="C114">
+        <v>205</v>
+      </c>
+      <c r="D114">
+        <v>0</v>
+      </c>
+      <c r="E114">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115">
+        <v>12</v>
+      </c>
+      <c r="B115">
+        <v>0</v>
+      </c>
+      <c r="C115">
+        <v>226</v>
+      </c>
+      <c r="D115">
+        <v>0</v>
+      </c>
+      <c r="E115">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116">
+        <v>11</v>
+      </c>
+      <c r="B116">
+        <v>1</v>
+      </c>
+      <c r="C116">
+        <v>222</v>
+      </c>
+      <c r="D116">
+        <v>0</v>
+      </c>
+      <c r="E116">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117">
+        <v>13</v>
+      </c>
+      <c r="B117">
+        <v>0</v>
+      </c>
+      <c r="C117">
+        <v>221</v>
+      </c>
+      <c r="D117">
+        <v>0</v>
+      </c>
+      <c r="E117">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118">
+        <v>34</v>
+      </c>
+      <c r="B118">
+        <v>0</v>
+      </c>
+      <c r="C118">
+        <v>230</v>
+      </c>
+      <c r="D118">
+        <v>0</v>
+      </c>
+      <c r="E118">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119">
+        <v>12</v>
+      </c>
+      <c r="B119">
+        <v>0</v>
+      </c>
+      <c r="C119">
+        <v>229</v>
+      </c>
+      <c r="D119">
+        <v>0</v>
+      </c>
+      <c r="E119">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120">
+        <v>30</v>
+      </c>
+      <c r="B120">
+        <v>0</v>
+      </c>
+      <c r="C120">
+        <v>206</v>
+      </c>
+      <c r="D120">
+        <v>0</v>
+      </c>
+      <c r="E120">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121">
+        <v>27</v>
+      </c>
+      <c r="B121">
+        <v>0</v>
+      </c>
+      <c r="C121">
+        <v>218</v>
+      </c>
+      <c r="D121">
+        <v>0</v>
+      </c>
+      <c r="E121">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122">
+        <v>128</v>
+      </c>
+      <c r="B122">
+        <v>1</v>
+      </c>
+      <c r="C122">
+        <v>210</v>
+      </c>
+      <c r="D122">
+        <v>0</v>
+      </c>
+      <c r="E122">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123">
+        <v>22</v>
+      </c>
+      <c r="B123">
+        <v>0</v>
+      </c>
+      <c r="C123">
+        <v>273</v>
+      </c>
+      <c r="D123">
+        <v>0</v>
+      </c>
+      <c r="E123">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124">
+        <v>30</v>
+      </c>
+      <c r="B124">
+        <v>0</v>
+      </c>
+      <c r="C124">
+        <v>249</v>
+      </c>
+      <c r="D124">
+        <v>0</v>
+      </c>
+      <c r="E124">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125">
+        <v>71</v>
+      </c>
+      <c r="B125">
+        <v>0</v>
+      </c>
+      <c r="C125">
+        <v>290</v>
+      </c>
+      <c r="D125">
+        <v>1</v>
+      </c>
+      <c r="E125">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126">
+        <v>65</v>
+      </c>
+      <c r="B126">
+        <v>0</v>
+      </c>
+      <c r="C126">
+        <v>250</v>
+      </c>
+      <c r="D126">
+        <v>1</v>
+      </c>
+      <c r="E126">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127">
+        <v>21</v>
+      </c>
+      <c r="B127">
+        <v>0</v>
+      </c>
+      <c r="C127">
+        <v>281</v>
+      </c>
+      <c r="D127">
+        <v>0</v>
+      </c>
+      <c r="E127">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128">
+        <v>40</v>
+      </c>
+      <c r="B128">
+        <v>0</v>
+      </c>
+      <c r="C128">
+        <v>220</v>
+      </c>
+      <c r="D128">
+        <v>0</v>
+      </c>
+      <c r="E128">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129">
+        <v>16</v>
+      </c>
+      <c r="B129">
+        <v>0</v>
+      </c>
+      <c r="C129">
+        <v>261</v>
+      </c>
+      <c r="D129">
+        <v>1</v>
+      </c>
+      <c r="E129">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130">
+        <v>44</v>
+      </c>
+      <c r="B130">
+        <v>0</v>
+      </c>
+      <c r="C130">
+        <v>231</v>
+      </c>
+      <c r="D130">
+        <v>0</v>
+      </c>
+      <c r="E130">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131">
+        <v>39</v>
+      </c>
+      <c r="B131">
+        <v>0</v>
+      </c>
+      <c r="C131">
+        <v>241</v>
+      </c>
+      <c r="D131">
+        <v>0</v>
+      </c>
+      <c r="E131">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132">
+        <v>33</v>
+      </c>
+      <c r="B132">
+        <v>0</v>
+      </c>
+      <c r="C132">
+        <v>282</v>
+      </c>
+      <c r="D132">
+        <v>0</v>
+      </c>
+      <c r="E132">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133">
+        <v>28</v>
+      </c>
+      <c r="B133">
+        <v>1</v>
+      </c>
+      <c r="C133">
         <v>245</v>
       </c>
-      <c r="D113">
-        <v>1</v>
-      </c>
-      <c r="E113">
-        <v>506</v>
+      <c r="D133">
+        <v>0</v>
+      </c>
+      <c r="E133">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134">
+        <v>12</v>
+      </c>
+      <c r="B134">
+        <v>1</v>
+      </c>
+      <c r="C134">
+        <v>232</v>
+      </c>
+      <c r="D134">
+        <v>0</v>
+      </c>
+      <c r="E134">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135">
+        <v>10</v>
+      </c>
+      <c r="B135">
+        <v>0</v>
+      </c>
+      <c r="C135">
+        <v>262</v>
+      </c>
+      <c r="D135">
+        <v>0</v>
+      </c>
+      <c r="E135">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136">
+        <v>16</v>
+      </c>
+      <c r="B136">
+        <v>0</v>
+      </c>
+      <c r="C136">
+        <v>290</v>
+      </c>
+      <c r="D136">
+        <v>0</v>
+      </c>
+      <c r="E136">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137">
+        <v>16</v>
+      </c>
+      <c r="B137">
+        <v>0</v>
+      </c>
+      <c r="C137">
+        <v>234</v>
+      </c>
+      <c r="D137">
+        <v>0</v>
+      </c>
+      <c r="E137">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138">
+        <v>27</v>
+      </c>
+      <c r="B138">
+        <v>0</v>
+      </c>
+      <c r="C138">
+        <v>223</v>
+      </c>
+      <c r="D138">
+        <v>0</v>
+      </c>
+      <c r="E138">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139">
+        <v>15</v>
+      </c>
+      <c r="B139">
+        <v>0</v>
+      </c>
+      <c r="C139">
+        <v>219</v>
+      </c>
+      <c r="D139">
+        <v>0</v>
+      </c>
+      <c r="E139">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140">
+        <v>9</v>
+      </c>
+      <c r="B140">
+        <v>1</v>
+      </c>
+      <c r="C140">
+        <v>220</v>
+      </c>
+      <c r="D140">
+        <v>0</v>
+      </c>
+      <c r="E140">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141">
+        <v>23</v>
+      </c>
+      <c r="B141">
+        <v>0</v>
+      </c>
+      <c r="C141">
+        <v>224</v>
+      </c>
+      <c r="D141">
+        <v>0</v>
+      </c>
+      <c r="E141">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142">
+        <v>42</v>
+      </c>
+      <c r="B142">
+        <v>0</v>
+      </c>
+      <c r="C142">
+        <v>252</v>
+      </c>
+      <c r="D142">
+        <v>0</v>
+      </c>
+      <c r="E142">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="A143">
+        <v>20</v>
+      </c>
+      <c r="B143">
+        <v>0</v>
+      </c>
+      <c r="C143">
+        <v>232</v>
+      </c>
+      <c r="D143">
+        <v>0</v>
+      </c>
+      <c r="E143">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
+      <c r="A144">
+        <v>12</v>
+      </c>
+      <c r="B144">
+        <v>0</v>
+      </c>
+      <c r="C144">
+        <v>229</v>
+      </c>
+      <c r="D144">
+        <v>0</v>
+      </c>
+      <c r="E144">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
+      <c r="A145">
+        <v>34</v>
+      </c>
+      <c r="B145">
+        <v>0</v>
+      </c>
+      <c r="C145">
+        <v>304</v>
+      </c>
+      <c r="D145">
+        <v>0</v>
+      </c>
+      <c r="E145">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
+      <c r="A146">
+        <v>23</v>
+      </c>
+      <c r="B146">
+        <v>1</v>
+      </c>
+      <c r="C146">
+        <v>235</v>
+      </c>
+      <c r="D146">
+        <v>0</v>
+      </c>
+      <c r="E146">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5">
+      <c r="A147">
+        <v>44</v>
+      </c>
+      <c r="B147">
+        <v>0</v>
+      </c>
+      <c r="C147">
+        <v>234</v>
+      </c>
+      <c r="D147">
+        <v>0</v>
+      </c>
+      <c r="E147">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
+      <c r="A148">
+        <v>21</v>
+      </c>
+      <c r="B148">
+        <v>0</v>
+      </c>
+      <c r="C148">
+        <v>225</v>
+      </c>
+      <c r="D148">
+        <v>0</v>
+      </c>
+      <c r="E148">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
+      <c r="A149">
+        <v>29</v>
+      </c>
+      <c r="B149">
+        <v>1</v>
+      </c>
+      <c r="C149">
+        <v>219</v>
+      </c>
+      <c r="D149">
+        <v>0</v>
+      </c>
+      <c r="E149">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5">
+      <c r="A150">
+        <v>66</v>
+      </c>
+      <c r="B150">
+        <v>0</v>
+      </c>
+      <c r="C150">
+        <v>218</v>
+      </c>
+      <c r="D150">
+        <v>0</v>
+      </c>
+      <c r="E150">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5">
+      <c r="A151">
+        <v>29</v>
+      </c>
+      <c r="B151">
+        <v>0</v>
+      </c>
+      <c r="C151">
+        <v>223</v>
+      </c>
+      <c r="D151">
+        <v>0</v>
+      </c>
+      <c r="E151">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
+      <c r="A152">
+        <v>54</v>
+      </c>
+      <c r="B152">
+        <v>0</v>
+      </c>
+      <c r="C152">
+        <v>223</v>
+      </c>
+      <c r="D152">
+        <v>0</v>
+      </c>
+      <c r="E152">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
+      <c r="A153">
+        <v>36</v>
+      </c>
+      <c r="B153">
+        <v>0</v>
+      </c>
+      <c r="C153">
+        <v>238</v>
+      </c>
+      <c r="D153">
+        <v>1</v>
+      </c>
+      <c r="E153">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
+      <c r="A154">
+        <v>11</v>
+      </c>
+      <c r="B154">
+        <v>0</v>
+      </c>
+      <c r="C154">
+        <v>226</v>
+      </c>
+      <c r="D154">
+        <v>0</v>
+      </c>
+      <c r="E154">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5">
+      <c r="A155">
+        <v>11</v>
+      </c>
+      <c r="B155">
+        <v>0</v>
+      </c>
+      <c r="C155">
+        <v>245</v>
+      </c>
+      <c r="D155">
+        <v>1</v>
+      </c>
+      <c r="E155">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
+      <c r="A156">
+        <v>17</v>
+      </c>
+      <c r="B156">
+        <v>0</v>
+      </c>
+      <c r="C156">
+        <v>227</v>
+      </c>
+      <c r="D156">
+        <v>0</v>
+      </c>
+      <c r="E156">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
+      <c r="A157">
+        <v>20</v>
+      </c>
+      <c r="B157">
+        <v>0</v>
+      </c>
+      <c r="C157">
+        <v>251</v>
+      </c>
+      <c r="D157">
+        <v>0</v>
+      </c>
+      <c r="E157">
+        <v>524</v>
       </c>
     </row>
   </sheetData>

--- a/Server_time.xlsx
+++ b/Server_time.xlsx
@@ -360,7 +360,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E50"/>
+  <dimension ref="A1:E267"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -385,160 +385,160 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>5650</v>
+        <v>3885</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>177</v>
+        <v>148</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2">
-        <v>5827</v>
+        <v>4035</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>141</v>
+        <v>98</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>281</v>
+        <v>234</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>1551</v>
+        <v>1666</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1690</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>259</v>
+        <v>237</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>1291</v>
+        <v>1673</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1432</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>205</v>
+        <v>243</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>1486</v>
+        <v>1659</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>1628</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>262</v>
+        <v>239</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>365</v>
+        <v>1036</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
       <c r="C10">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>515</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>331</v>
+        <v>345</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -547,256 +547,256 @@
         <v>138</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>470</v>
+        <v>484</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>965</v>
+        <v>2058</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>1109</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>1637</v>
+        <v>920</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
       <c r="C14">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>1781</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>100</v>
+        <v>734</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>245</v>
+        <v>892</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>1626</v>
+        <v>123</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
       <c r="C16">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>1772</v>
+        <v>284</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>103</v>
+        <v>1205</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
       <c r="C17">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>248</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>1675</v>
+        <v>1178</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
       <c r="C18">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>1822</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>125</v>
+        <v>1886</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>273</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>2180</v>
+        <v>103</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20">
-        <v>145</v>
+        <v>184</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>2327</v>
+        <v>288</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>124</v>
+        <v>1605</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>282</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>994</v>
+        <v>111</v>
       </c>
       <c r="B22">
         <v>1</v>
       </c>
       <c r="C22">
-        <v>177</v>
+        <v>151</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>1172</v>
+        <v>263</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>91</v>
+        <v>672</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E23">
-        <v>254</v>
+        <v>823</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>2245</v>
+        <v>295</v>
       </c>
       <c r="B24">
         <v>0</v>
       </c>
       <c r="C24">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>2417</v>
+        <v>448</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>102</v>
+        <v>810</v>
       </c>
       <c r="B25">
         <v>0</v>
       </c>
       <c r="C25">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>256</v>
+        <v>959</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>1926</v>
+        <v>84</v>
       </c>
       <c r="B26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C26">
         <v>150</v>
@@ -805,134 +805,134 @@
         <v>0</v>
       </c>
       <c r="E26">
-        <v>2078</v>
+        <v>234</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>103</v>
+        <v>2077</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
       <c r="C27">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="D27">
         <v>0</v>
       </c>
       <c r="E27">
-        <v>254</v>
+        <v>2236</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>2365</v>
+        <v>121</v>
       </c>
       <c r="B28">
         <v>0</v>
       </c>
       <c r="C28">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="D28">
         <v>0</v>
       </c>
       <c r="E28">
-        <v>2520</v>
+        <v>287</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>112</v>
+        <v>1553</v>
       </c>
       <c r="B29">
         <v>0</v>
       </c>
       <c r="C29">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="D29">
         <v>0</v>
       </c>
       <c r="E29">
-        <v>277</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>1611</v>
+        <v>95</v>
       </c>
       <c r="B30">
         <v>0</v>
       </c>
       <c r="C30">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="D30">
         <v>0</v>
       </c>
       <c r="E30">
-        <v>1776</v>
+        <v>246</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>102</v>
+        <v>1843</v>
       </c>
       <c r="B31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C31">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="D31">
         <v>0</v>
       </c>
       <c r="E31">
-        <v>264</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>1634</v>
+        <v>103</v>
       </c>
       <c r="B32">
         <v>0</v>
       </c>
       <c r="C32">
-        <v>176</v>
+        <v>155</v>
       </c>
       <c r="D32">
         <v>0</v>
       </c>
       <c r="E32">
-        <v>1810</v>
+        <v>258</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>106</v>
+        <v>1646</v>
       </c>
       <c r="B33">
         <v>0</v>
       </c>
       <c r="C33">
-        <v>174</v>
+        <v>154</v>
       </c>
       <c r="D33">
         <v>0</v>
       </c>
       <c r="E33">
-        <v>280</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>2698</v>
+        <v>128</v>
       </c>
       <c r="B34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C34">
         <v>157</v>
@@ -941,165 +941,165 @@
         <v>0</v>
       </c>
       <c r="E34">
-        <v>2856</v>
+        <v>285</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>117</v>
+        <v>1272</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C35">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D35">
         <v>0</v>
       </c>
       <c r="E35">
-        <v>275</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>983</v>
+        <v>226</v>
       </c>
       <c r="B36">
         <v>0</v>
       </c>
       <c r="C36">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="D36">
         <v>0</v>
       </c>
       <c r="E36">
-        <v>1145</v>
+        <v>382</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>85</v>
+        <v>1066</v>
       </c>
       <c r="B37">
         <v>1</v>
       </c>
       <c r="C37">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D37">
         <v>0</v>
       </c>
       <c r="E37">
-        <v>244</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>1096</v>
+        <v>298</v>
       </c>
       <c r="B38">
         <v>0</v>
       </c>
       <c r="C38">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="D38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E38">
-        <v>1250</v>
+        <v>459</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <v>124</v>
+        <v>386</v>
       </c>
       <c r="B39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C39">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="D39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E39">
-        <v>293</v>
+        <v>543</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
-        <v>1144</v>
+        <v>369</v>
       </c>
       <c r="B40">
         <v>0</v>
       </c>
       <c r="C40">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="D40">
         <v>0</v>
       </c>
       <c r="E40">
-        <v>1305</v>
+        <v>542</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41">
-        <v>71</v>
+        <v>286</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C41">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D41">
         <v>0</v>
       </c>
       <c r="E41">
-        <v>235</v>
+        <v>453</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42">
-        <v>2158</v>
+        <v>308</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
       <c r="C42">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="D42">
         <v>0</v>
       </c>
       <c r="E42">
-        <v>2319</v>
+        <v>475</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43">
-        <v>106</v>
+        <v>651</v>
       </c>
       <c r="B43">
         <v>0</v>
       </c>
       <c r="C43">
-        <v>158</v>
+        <v>178</v>
       </c>
       <c r="D43">
         <v>0</v>
       </c>
       <c r="E43">
-        <v>264</v>
+        <v>829</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44">
-        <v>1451</v>
+        <v>67</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -1111,109 +1111,3798 @@
         <v>0</v>
       </c>
       <c r="E44">
-        <v>1627</v>
+        <v>243</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45">
-        <v>113</v>
+        <v>2179</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C45">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D45">
         <v>0</v>
       </c>
       <c r="E45">
-        <v>291</v>
+        <v>2353</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46">
-        <v>1771</v>
+        <v>102</v>
       </c>
       <c r="B46">
         <v>0</v>
       </c>
       <c r="C46">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D46">
         <v>0</v>
       </c>
       <c r="E46">
-        <v>1938</v>
+        <v>268</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47">
-        <v>106</v>
+        <v>1178</v>
       </c>
       <c r="B47">
         <v>0</v>
       </c>
       <c r="C47">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D47">
         <v>0</v>
       </c>
       <c r="E47">
-        <v>276</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48">
-        <v>1594</v>
+        <v>66</v>
       </c>
       <c r="B48">
         <v>1</v>
       </c>
       <c r="C48">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="D48">
         <v>0</v>
       </c>
       <c r="E48">
-        <v>1768</v>
+        <v>233</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49">
-        <v>70</v>
+        <v>2090</v>
       </c>
       <c r="B49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C49">
-        <v>185</v>
+        <v>165</v>
       </c>
       <c r="D49">
         <v>0</v>
       </c>
       <c r="E49">
-        <v>256</v>
+        <v>2255</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50">
-        <v>1617</v>
+        <v>103</v>
       </c>
       <c r="B50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C50">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="D50">
         <v>0</v>
       </c>
       <c r="E50">
-        <v>1780</v>
+        <v>274</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51">
+        <v>1610</v>
+      </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
+      <c r="C51">
+        <v>164</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>1775</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52">
+        <v>98</v>
+      </c>
+      <c r="B52">
+        <v>0</v>
+      </c>
+      <c r="C52">
+        <v>172</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53">
+        <v>1027</v>
+      </c>
+      <c r="B53">
+        <v>0</v>
+      </c>
+      <c r="C53">
+        <v>178</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54">
+        <v>274</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54">
+        <v>183</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55">
+        <v>348</v>
+      </c>
+      <c r="B55">
+        <v>1</v>
+      </c>
+      <c r="C55">
+        <v>169</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56">
+        <v>1462</v>
+      </c>
+      <c r="B56">
+        <v>0</v>
+      </c>
+      <c r="C56">
+        <v>182</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>1644</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57">
+        <v>97</v>
+      </c>
+      <c r="B57">
+        <v>1</v>
+      </c>
+      <c r="C57">
+        <v>180</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58">
+        <v>1585</v>
+      </c>
+      <c r="B58">
+        <v>1</v>
+      </c>
+      <c r="C58">
+        <v>187</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="E58">
+        <v>1774</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59">
+        <v>125</v>
+      </c>
+      <c r="B59">
+        <v>1</v>
+      </c>
+      <c r="C59">
+        <v>235</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="E59">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60">
+        <v>776</v>
+      </c>
+      <c r="B60">
+        <v>0</v>
+      </c>
+      <c r="C60">
+        <v>192</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61">
+        <v>273</v>
+      </c>
+      <c r="B61">
+        <v>0</v>
+      </c>
+      <c r="C61">
+        <v>218</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62">
+        <v>2104</v>
+      </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
+      <c r="C62">
+        <v>192</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <v>2297</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63">
+        <v>99</v>
+      </c>
+      <c r="B63">
+        <v>1</v>
+      </c>
+      <c r="C63">
+        <v>187</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64">
+        <v>1690</v>
+      </c>
+      <c r="B64">
+        <v>1</v>
+      </c>
+      <c r="C64">
+        <v>173</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <v>1864</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65">
+        <v>255</v>
+      </c>
+      <c r="B65">
+        <v>2</v>
+      </c>
+      <c r="C65">
+        <v>222</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66">
+        <v>906</v>
+      </c>
+      <c r="B66">
+        <v>0</v>
+      </c>
+      <c r="C66">
+        <v>204</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67">
+        <v>2195</v>
+      </c>
+      <c r="B67">
+        <v>0</v>
+      </c>
+      <c r="C67">
+        <v>177</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>2372</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68">
+        <v>102</v>
+      </c>
+      <c r="B68">
+        <v>0</v>
+      </c>
+      <c r="C68">
+        <v>177</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+      <c r="E68">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69">
+        <v>1591</v>
+      </c>
+      <c r="B69">
+        <v>0</v>
+      </c>
+      <c r="C69">
+        <v>180</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <v>1772</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70">
+        <v>122</v>
+      </c>
+      <c r="B70">
+        <v>0</v>
+      </c>
+      <c r="C70">
+        <v>176</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71">
+        <v>1074</v>
+      </c>
+      <c r="B71">
+        <v>0</v>
+      </c>
+      <c r="C71">
+        <v>183</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72">
+        <v>1197</v>
+      </c>
+      <c r="B72">
+        <v>0</v>
+      </c>
+      <c r="C72">
+        <v>187</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73">
+        <v>105</v>
+      </c>
+      <c r="B73">
+        <v>0</v>
+      </c>
+      <c r="C73">
+        <v>178</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74">
+        <v>1730</v>
+      </c>
+      <c r="B74">
+        <v>2</v>
+      </c>
+      <c r="C74">
+        <v>179</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <v>1911</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75">
+        <v>104</v>
+      </c>
+      <c r="B75">
+        <v>1</v>
+      </c>
+      <c r="C75">
+        <v>190</v>
+      </c>
+      <c r="D75">
+        <v>1</v>
+      </c>
+      <c r="E75">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76">
+        <v>1313</v>
+      </c>
+      <c r="B76">
+        <v>0</v>
+      </c>
+      <c r="C76">
+        <v>207</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77">
+        <v>68</v>
+      </c>
+      <c r="B77">
+        <v>0</v>
+      </c>
+      <c r="C77">
+        <v>189</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78">
+        <v>1846</v>
+      </c>
+      <c r="B78">
+        <v>0</v>
+      </c>
+      <c r="C78">
+        <v>220</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <v>2066</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79">
+        <v>128</v>
+      </c>
+      <c r="B79">
+        <v>0</v>
+      </c>
+      <c r="C79">
+        <v>206</v>
+      </c>
+      <c r="D79">
+        <v>1</v>
+      </c>
+      <c r="E79">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80">
+        <v>1595</v>
+      </c>
+      <c r="B80">
+        <v>0</v>
+      </c>
+      <c r="C80">
+        <v>179</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <v>1774</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81">
+        <v>107</v>
+      </c>
+      <c r="B81">
+        <v>0</v>
+      </c>
+      <c r="C81">
+        <v>182</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82">
+        <v>681</v>
+      </c>
+      <c r="B82">
+        <v>0</v>
+      </c>
+      <c r="C82">
+        <v>182</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="E82">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83">
+        <v>286</v>
+      </c>
+      <c r="B83">
+        <v>0</v>
+      </c>
+      <c r="C83">
+        <v>208</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+      <c r="E83">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84">
+        <v>326</v>
+      </c>
+      <c r="B84">
+        <v>0</v>
+      </c>
+      <c r="C84">
+        <v>197</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+      <c r="E84">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85">
+        <v>265</v>
+      </c>
+      <c r="B85">
+        <v>0</v>
+      </c>
+      <c r="C85">
+        <v>186</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="E85">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86">
+        <v>354</v>
+      </c>
+      <c r="B86">
+        <v>0</v>
+      </c>
+      <c r="C86">
+        <v>202</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="E86">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87">
+        <v>261</v>
+      </c>
+      <c r="B87">
+        <v>0</v>
+      </c>
+      <c r="C87">
+        <v>199</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+      <c r="E87">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88">
+        <v>334</v>
+      </c>
+      <c r="B88">
+        <v>0</v>
+      </c>
+      <c r="C88">
+        <v>198</v>
+      </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
+      <c r="E88">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89">
+        <v>271</v>
+      </c>
+      <c r="B89">
+        <v>0</v>
+      </c>
+      <c r="C89">
+        <v>184</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+      <c r="E89">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90">
+        <v>718</v>
+      </c>
+      <c r="B90">
+        <v>0</v>
+      </c>
+      <c r="C90">
+        <v>185</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="E90">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91">
+        <v>67</v>
+      </c>
+      <c r="B91">
+        <v>0</v>
+      </c>
+      <c r="C91">
+        <v>192</v>
+      </c>
+      <c r="D91">
+        <v>1</v>
+      </c>
+      <c r="E91">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92">
+        <v>694</v>
+      </c>
+      <c r="B92">
+        <v>0</v>
+      </c>
+      <c r="C92">
+        <v>204</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
+      <c r="E92">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93">
+        <v>266</v>
+      </c>
+      <c r="B93">
+        <v>0</v>
+      </c>
+      <c r="C93">
+        <v>186</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
+      <c r="E93">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94">
+        <v>363</v>
+      </c>
+      <c r="B94">
+        <v>0</v>
+      </c>
+      <c r="C94">
+        <v>210</v>
+      </c>
+      <c r="D94">
+        <v>0</v>
+      </c>
+      <c r="E94">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95">
+        <v>229</v>
+      </c>
+      <c r="B95">
+        <v>0</v>
+      </c>
+      <c r="C95">
+        <v>190</v>
+      </c>
+      <c r="D95">
+        <v>0</v>
+      </c>
+      <c r="E95">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96">
+        <v>338</v>
+      </c>
+      <c r="B96">
+        <v>0</v>
+      </c>
+      <c r="C96">
+        <v>190</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97">
+        <v>322</v>
+      </c>
+      <c r="B97">
+        <v>0</v>
+      </c>
+      <c r="C97">
+        <v>184</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+      <c r="E97">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98">
+        <v>316</v>
+      </c>
+      <c r="B98">
+        <v>0</v>
+      </c>
+      <c r="C98">
+        <v>190</v>
+      </c>
+      <c r="D98">
+        <v>0</v>
+      </c>
+      <c r="E98">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99">
+        <v>300</v>
+      </c>
+      <c r="B99">
+        <v>1</v>
+      </c>
+      <c r="C99">
+        <v>197</v>
+      </c>
+      <c r="D99">
+        <v>0</v>
+      </c>
+      <c r="E99">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100">
+        <v>304</v>
+      </c>
+      <c r="B100">
+        <v>2</v>
+      </c>
+      <c r="C100">
+        <v>189</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101">
+        <v>425</v>
+      </c>
+      <c r="B101">
+        <v>0</v>
+      </c>
+      <c r="C101">
+        <v>188</v>
+      </c>
+      <c r="D101">
+        <v>0</v>
+      </c>
+      <c r="E101">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102">
+        <v>204</v>
+      </c>
+      <c r="B102">
+        <v>1</v>
+      </c>
+      <c r="C102">
+        <v>206</v>
+      </c>
+      <c r="D102">
+        <v>1</v>
+      </c>
+      <c r="E102">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103">
+        <v>283</v>
+      </c>
+      <c r="B103">
+        <v>0</v>
+      </c>
+      <c r="C103">
+        <v>213</v>
+      </c>
+      <c r="D103">
+        <v>1</v>
+      </c>
+      <c r="E103">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104">
+        <v>284</v>
+      </c>
+      <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>195</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105">
+        <v>302</v>
+      </c>
+      <c r="B105">
+        <v>0</v>
+      </c>
+      <c r="C105">
+        <v>264</v>
+      </c>
+      <c r="D105">
+        <v>0</v>
+      </c>
+      <c r="E105">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106">
+        <v>248</v>
+      </c>
+      <c r="B106">
+        <v>0</v>
+      </c>
+      <c r="C106">
+        <v>302</v>
+      </c>
+      <c r="D106">
+        <v>0</v>
+      </c>
+      <c r="E106">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107">
+        <v>152</v>
+      </c>
+      <c r="B107">
+        <v>0</v>
+      </c>
+      <c r="C107">
+        <v>270</v>
+      </c>
+      <c r="D107">
+        <v>0</v>
+      </c>
+      <c r="E107">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108">
+        <v>743</v>
+      </c>
+      <c r="B108">
+        <v>0</v>
+      </c>
+      <c r="C108">
+        <v>192</v>
+      </c>
+      <c r="D108">
+        <v>0</v>
+      </c>
+      <c r="E108">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109">
+        <v>97</v>
+      </c>
+      <c r="B109">
+        <v>1</v>
+      </c>
+      <c r="C109">
+        <v>198</v>
+      </c>
+      <c r="D109">
+        <v>0</v>
+      </c>
+      <c r="E109">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110">
+        <v>1062</v>
+      </c>
+      <c r="B110">
+        <v>0</v>
+      </c>
+      <c r="C110">
+        <v>196</v>
+      </c>
+      <c r="D110">
+        <v>0</v>
+      </c>
+      <c r="E110">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111">
+        <v>1553</v>
+      </c>
+      <c r="B111">
+        <v>0</v>
+      </c>
+      <c r="C111">
+        <v>280</v>
+      </c>
+      <c r="D111">
+        <v>0</v>
+      </c>
+      <c r="E111">
+        <v>1834</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112">
+        <v>103</v>
+      </c>
+      <c r="B112">
+        <v>1</v>
+      </c>
+      <c r="C112">
+        <v>198</v>
+      </c>
+      <c r="D112">
+        <v>0</v>
+      </c>
+      <c r="E112">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113">
+        <v>635</v>
+      </c>
+      <c r="B113">
+        <v>0</v>
+      </c>
+      <c r="C113">
+        <v>212</v>
+      </c>
+      <c r="D113">
+        <v>0</v>
+      </c>
+      <c r="E113">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114">
+        <v>700</v>
+      </c>
+      <c r="B114">
+        <v>1</v>
+      </c>
+      <c r="C114">
+        <v>198</v>
+      </c>
+      <c r="D114">
+        <v>0</v>
+      </c>
+      <c r="E114">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115">
+        <v>104</v>
+      </c>
+      <c r="B115">
+        <v>0</v>
+      </c>
+      <c r="C115">
+        <v>219</v>
+      </c>
+      <c r="D115">
+        <v>1</v>
+      </c>
+      <c r="E115">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116">
+        <v>1428</v>
+      </c>
+      <c r="B116">
+        <v>0</v>
+      </c>
+      <c r="C116">
+        <v>205</v>
+      </c>
+      <c r="D116">
+        <v>1</v>
+      </c>
+      <c r="E116">
+        <v>1634</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117">
+        <v>67</v>
+      </c>
+      <c r="B117">
+        <v>0</v>
+      </c>
+      <c r="C117">
+        <v>205</v>
+      </c>
+      <c r="D117">
+        <v>0</v>
+      </c>
+      <c r="E117">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118">
+        <v>1141</v>
+      </c>
+      <c r="B118">
+        <v>1</v>
+      </c>
+      <c r="C118">
+        <v>208</v>
+      </c>
+      <c r="D118">
+        <v>0</v>
+      </c>
+      <c r="E118">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119">
+        <v>91</v>
+      </c>
+      <c r="B119">
+        <v>1</v>
+      </c>
+      <c r="C119">
+        <v>220</v>
+      </c>
+      <c r="D119">
+        <v>0</v>
+      </c>
+      <c r="E119">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120">
+        <v>1010</v>
+      </c>
+      <c r="B120">
+        <v>0</v>
+      </c>
+      <c r="C120">
+        <v>212</v>
+      </c>
+      <c r="D120">
+        <v>0</v>
+      </c>
+      <c r="E120">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121">
+        <v>240</v>
+      </c>
+      <c r="B121">
+        <v>0</v>
+      </c>
+      <c r="C121">
+        <v>210</v>
+      </c>
+      <c r="D121">
+        <v>0</v>
+      </c>
+      <c r="E121">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122">
+        <v>324</v>
+      </c>
+      <c r="B122">
+        <v>1</v>
+      </c>
+      <c r="C122">
+        <v>263</v>
+      </c>
+      <c r="D122">
+        <v>0</v>
+      </c>
+      <c r="E122">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123">
+        <v>261</v>
+      </c>
+      <c r="B123">
+        <v>0</v>
+      </c>
+      <c r="C123">
+        <v>274</v>
+      </c>
+      <c r="D123">
+        <v>0</v>
+      </c>
+      <c r="E123">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124">
+        <v>213</v>
+      </c>
+      <c r="B124">
+        <v>3</v>
+      </c>
+      <c r="C124">
+        <v>219</v>
+      </c>
+      <c r="D124">
+        <v>0</v>
+      </c>
+      <c r="E124">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125">
+        <v>566</v>
+      </c>
+      <c r="B125">
+        <v>1</v>
+      </c>
+      <c r="C125">
+        <v>211</v>
+      </c>
+      <c r="D125">
+        <v>0</v>
+      </c>
+      <c r="E125">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126">
+        <v>219</v>
+      </c>
+      <c r="B126">
+        <v>0</v>
+      </c>
+      <c r="C126">
+        <v>217</v>
+      </c>
+      <c r="D126">
+        <v>0</v>
+      </c>
+      <c r="E126">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127">
+        <v>1435</v>
+      </c>
+      <c r="B127">
+        <v>0</v>
+      </c>
+      <c r="C127">
+        <v>241</v>
+      </c>
+      <c r="D127">
+        <v>0</v>
+      </c>
+      <c r="E127">
+        <v>1676</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128">
+        <v>79</v>
+      </c>
+      <c r="B128">
+        <v>1</v>
+      </c>
+      <c r="C128">
+        <v>202</v>
+      </c>
+      <c r="D128">
+        <v>0</v>
+      </c>
+      <c r="E128">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129">
+        <v>1341</v>
+      </c>
+      <c r="B129">
+        <v>0</v>
+      </c>
+      <c r="C129">
+        <v>222</v>
+      </c>
+      <c r="D129">
+        <v>0</v>
+      </c>
+      <c r="E129">
+        <v>1564</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130">
+        <v>68</v>
+      </c>
+      <c r="B130">
+        <v>2</v>
+      </c>
+      <c r="C130">
+        <v>268</v>
+      </c>
+      <c r="D130">
+        <v>0</v>
+      </c>
+      <c r="E130">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131">
+        <v>695</v>
+      </c>
+      <c r="B131">
+        <v>0</v>
+      </c>
+      <c r="C131">
+        <v>207</v>
+      </c>
+      <c r="D131">
+        <v>0</v>
+      </c>
+      <c r="E131">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132">
+        <v>432</v>
+      </c>
+      <c r="B132">
+        <v>0</v>
+      </c>
+      <c r="C132">
+        <v>206</v>
+      </c>
+      <c r="D132">
+        <v>0</v>
+      </c>
+      <c r="E132">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133">
+        <v>174</v>
+      </c>
+      <c r="B133">
+        <v>0</v>
+      </c>
+      <c r="C133">
+        <v>210</v>
+      </c>
+      <c r="D133">
+        <v>0</v>
+      </c>
+      <c r="E133">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134">
+        <v>240</v>
+      </c>
+      <c r="B134">
+        <v>1</v>
+      </c>
+      <c r="C134">
+        <v>217</v>
+      </c>
+      <c r="D134">
+        <v>0</v>
+      </c>
+      <c r="E134">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135">
+        <v>311</v>
+      </c>
+      <c r="B135">
+        <v>1</v>
+      </c>
+      <c r="C135">
+        <v>221</v>
+      </c>
+      <c r="D135">
+        <v>0</v>
+      </c>
+      <c r="E135">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136">
+        <v>249</v>
+      </c>
+      <c r="B136">
+        <v>0</v>
+      </c>
+      <c r="C136">
+        <v>209</v>
+      </c>
+      <c r="D136">
+        <v>0</v>
+      </c>
+      <c r="E136">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137">
+        <v>367</v>
+      </c>
+      <c r="B137">
+        <v>1</v>
+      </c>
+      <c r="C137">
+        <v>224</v>
+      </c>
+      <c r="D137">
+        <v>0</v>
+      </c>
+      <c r="E137">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138">
+        <v>226</v>
+      </c>
+      <c r="B138">
+        <v>0</v>
+      </c>
+      <c r="C138">
+        <v>219</v>
+      </c>
+      <c r="D138">
+        <v>0</v>
+      </c>
+      <c r="E138">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139">
+        <v>246</v>
+      </c>
+      <c r="B139">
+        <v>1</v>
+      </c>
+      <c r="C139">
+        <v>220</v>
+      </c>
+      <c r="D139">
+        <v>0</v>
+      </c>
+      <c r="E139">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140">
+        <v>313</v>
+      </c>
+      <c r="B140">
+        <v>0</v>
+      </c>
+      <c r="C140">
+        <v>224</v>
+      </c>
+      <c r="D140">
+        <v>0</v>
+      </c>
+      <c r="E140">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141">
+        <v>279</v>
+      </c>
+      <c r="B141">
+        <v>0</v>
+      </c>
+      <c r="C141">
+        <v>225</v>
+      </c>
+      <c r="D141">
+        <v>0</v>
+      </c>
+      <c r="E141">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142">
+        <v>244</v>
+      </c>
+      <c r="B142">
+        <v>1</v>
+      </c>
+      <c r="C142">
+        <v>234</v>
+      </c>
+      <c r="D142">
+        <v>0</v>
+      </c>
+      <c r="E142">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="A143">
+        <v>290</v>
+      </c>
+      <c r="B143">
+        <v>0</v>
+      </c>
+      <c r="C143">
+        <v>356</v>
+      </c>
+      <c r="D143">
+        <v>0</v>
+      </c>
+      <c r="E143">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
+      <c r="A144">
+        <v>113</v>
+      </c>
+      <c r="B144">
+        <v>0</v>
+      </c>
+      <c r="C144">
+        <v>221</v>
+      </c>
+      <c r="D144">
+        <v>0</v>
+      </c>
+      <c r="E144">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
+      <c r="A145">
+        <v>325</v>
+      </c>
+      <c r="B145">
+        <v>1</v>
+      </c>
+      <c r="C145">
+        <v>219</v>
+      </c>
+      <c r="D145">
+        <v>0</v>
+      </c>
+      <c r="E145">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
+      <c r="A146">
+        <v>270</v>
+      </c>
+      <c r="B146">
+        <v>0</v>
+      </c>
+      <c r="C146">
+        <v>215</v>
+      </c>
+      <c r="D146">
+        <v>0</v>
+      </c>
+      <c r="E146">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5">
+      <c r="A147">
+        <v>248</v>
+      </c>
+      <c r="B147">
+        <v>1</v>
+      </c>
+      <c r="C147">
+        <v>266</v>
+      </c>
+      <c r="D147">
+        <v>0</v>
+      </c>
+      <c r="E147">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
+      <c r="A148">
+        <v>280</v>
+      </c>
+      <c r="B148">
+        <v>1</v>
+      </c>
+      <c r="C148">
+        <v>229</v>
+      </c>
+      <c r="D148">
+        <v>0</v>
+      </c>
+      <c r="E148">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
+      <c r="A149">
+        <v>258</v>
+      </c>
+      <c r="B149">
+        <v>1</v>
+      </c>
+      <c r="C149">
+        <v>250</v>
+      </c>
+      <c r="D149">
+        <v>0</v>
+      </c>
+      <c r="E149">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5">
+      <c r="A150">
+        <v>257</v>
+      </c>
+      <c r="B150">
+        <v>1</v>
+      </c>
+      <c r="C150">
+        <v>216</v>
+      </c>
+      <c r="D150">
+        <v>0</v>
+      </c>
+      <c r="E150">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5">
+      <c r="A151">
+        <v>365</v>
+      </c>
+      <c r="B151">
+        <v>0</v>
+      </c>
+      <c r="C151">
+        <v>238</v>
+      </c>
+      <c r="D151">
+        <v>0</v>
+      </c>
+      <c r="E151">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
+      <c r="A152">
+        <v>144</v>
+      </c>
+      <c r="B152">
+        <v>1</v>
+      </c>
+      <c r="C152">
+        <v>243</v>
+      </c>
+      <c r="D152">
+        <v>1</v>
+      </c>
+      <c r="E152">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
+      <c r="A153">
+        <v>285</v>
+      </c>
+      <c r="B153">
+        <v>1</v>
+      </c>
+      <c r="C153">
+        <v>332</v>
+      </c>
+      <c r="D153">
+        <v>0</v>
+      </c>
+      <c r="E153">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
+      <c r="A154">
+        <v>137</v>
+      </c>
+      <c r="B154">
+        <v>1</v>
+      </c>
+      <c r="C154">
+        <v>254</v>
+      </c>
+      <c r="D154">
+        <v>0</v>
+      </c>
+      <c r="E154">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5">
+      <c r="A155">
+        <v>276</v>
+      </c>
+      <c r="B155">
+        <v>0</v>
+      </c>
+      <c r="C155">
+        <v>286</v>
+      </c>
+      <c r="D155">
+        <v>0</v>
+      </c>
+      <c r="E155">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
+      <c r="A156">
+        <v>177</v>
+      </c>
+      <c r="B156">
+        <v>0</v>
+      </c>
+      <c r="C156">
+        <v>214</v>
+      </c>
+      <c r="D156">
+        <v>0</v>
+      </c>
+      <c r="E156">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
+      <c r="A157">
+        <v>347</v>
+      </c>
+      <c r="B157">
+        <v>0</v>
+      </c>
+      <c r="C157">
+        <v>218</v>
+      </c>
+      <c r="D157">
+        <v>1</v>
+      </c>
+      <c r="E157">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5">
+      <c r="A158">
+        <v>2251</v>
+      </c>
+      <c r="B158">
+        <v>1</v>
+      </c>
+      <c r="C158">
+        <v>246</v>
+      </c>
+      <c r="D158">
+        <v>0</v>
+      </c>
+      <c r="E158">
+        <v>2498</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5">
+      <c r="A159">
+        <v>106</v>
+      </c>
+      <c r="B159">
+        <v>1</v>
+      </c>
+      <c r="C159">
+        <v>252</v>
+      </c>
+      <c r="D159">
+        <v>0</v>
+      </c>
+      <c r="E159">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5">
+      <c r="A160">
+        <v>899</v>
+      </c>
+      <c r="B160">
+        <v>1</v>
+      </c>
+      <c r="C160">
+        <v>250</v>
+      </c>
+      <c r="D160">
+        <v>0</v>
+      </c>
+      <c r="E160">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5">
+      <c r="A161">
+        <v>211</v>
+      </c>
+      <c r="B161">
+        <v>1</v>
+      </c>
+      <c r="C161">
+        <v>253</v>
+      </c>
+      <c r="D161">
+        <v>0</v>
+      </c>
+      <c r="E161">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5">
+      <c r="A162">
+        <v>1133</v>
+      </c>
+      <c r="B162">
+        <v>0</v>
+      </c>
+      <c r="C162">
+        <v>243</v>
+      </c>
+      <c r="D162">
+        <v>0</v>
+      </c>
+      <c r="E162">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5">
+      <c r="A163">
+        <v>103</v>
+      </c>
+      <c r="B163">
+        <v>0</v>
+      </c>
+      <c r="C163">
+        <v>248</v>
+      </c>
+      <c r="D163">
+        <v>0</v>
+      </c>
+      <c r="E163">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5">
+      <c r="A164">
+        <v>1062</v>
+      </c>
+      <c r="B164">
+        <v>2</v>
+      </c>
+      <c r="C164">
+        <v>235</v>
+      </c>
+      <c r="D164">
+        <v>0</v>
+      </c>
+      <c r="E164">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5">
+      <c r="A165">
+        <v>250</v>
+      </c>
+      <c r="B165">
+        <v>1</v>
+      </c>
+      <c r="C165">
+        <v>265</v>
+      </c>
+      <c r="D165">
+        <v>0</v>
+      </c>
+      <c r="E165">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5">
+      <c r="A166">
+        <v>204</v>
+      </c>
+      <c r="B166">
+        <v>0</v>
+      </c>
+      <c r="C166">
+        <v>223</v>
+      </c>
+      <c r="D166">
+        <v>0</v>
+      </c>
+      <c r="E166">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5">
+      <c r="A167">
+        <v>309</v>
+      </c>
+      <c r="B167">
+        <v>0</v>
+      </c>
+      <c r="C167">
+        <v>229</v>
+      </c>
+      <c r="D167">
+        <v>0</v>
+      </c>
+      <c r="E167">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5">
+      <c r="A168">
+        <v>274</v>
+      </c>
+      <c r="B168">
+        <v>0</v>
+      </c>
+      <c r="C168">
+        <v>228</v>
+      </c>
+      <c r="D168">
+        <v>0</v>
+      </c>
+      <c r="E168">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5">
+      <c r="A169">
+        <v>1482</v>
+      </c>
+      <c r="B169">
+        <v>0</v>
+      </c>
+      <c r="C169">
+        <v>225</v>
+      </c>
+      <c r="D169">
+        <v>0</v>
+      </c>
+      <c r="E169">
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5">
+      <c r="A170">
+        <v>124</v>
+      </c>
+      <c r="B170">
+        <v>0</v>
+      </c>
+      <c r="C170">
+        <v>227</v>
+      </c>
+      <c r="D170">
+        <v>0</v>
+      </c>
+      <c r="E170">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5">
+      <c r="A171">
+        <v>1960</v>
+      </c>
+      <c r="B171">
+        <v>1</v>
+      </c>
+      <c r="C171">
+        <v>240</v>
+      </c>
+      <c r="D171">
+        <v>0</v>
+      </c>
+      <c r="E171">
+        <v>2201</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5">
+      <c r="A172">
+        <v>105</v>
+      </c>
+      <c r="B172">
+        <v>0</v>
+      </c>
+      <c r="C172">
+        <v>226</v>
+      </c>
+      <c r="D172">
+        <v>0</v>
+      </c>
+      <c r="E172">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5">
+      <c r="A173">
+        <v>1560</v>
+      </c>
+      <c r="B173">
+        <v>0</v>
+      </c>
+      <c r="C173">
+        <v>238</v>
+      </c>
+      <c r="D173">
+        <v>1</v>
+      </c>
+      <c r="E173">
+        <v>1799</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5">
+      <c r="A174">
+        <v>96</v>
+      </c>
+      <c r="B174">
+        <v>1</v>
+      </c>
+      <c r="C174">
+        <v>279</v>
+      </c>
+      <c r="D174">
+        <v>0</v>
+      </c>
+      <c r="E174">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5">
+      <c r="A175">
+        <v>2374</v>
+      </c>
+      <c r="B175">
+        <v>3</v>
+      </c>
+      <c r="C175">
+        <v>234</v>
+      </c>
+      <c r="D175">
+        <v>0</v>
+      </c>
+      <c r="E175">
+        <v>2611</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5">
+      <c r="A176">
+        <v>108</v>
+      </c>
+      <c r="B176">
+        <v>0</v>
+      </c>
+      <c r="C176">
+        <v>236</v>
+      </c>
+      <c r="D176">
+        <v>0</v>
+      </c>
+      <c r="E176">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5">
+      <c r="A177">
+        <v>1950</v>
+      </c>
+      <c r="B177">
+        <v>0</v>
+      </c>
+      <c r="C177">
+        <v>228</v>
+      </c>
+      <c r="D177">
+        <v>0</v>
+      </c>
+      <c r="E177">
+        <v>2178</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5">
+      <c r="A178">
+        <v>122</v>
+      </c>
+      <c r="B178">
+        <v>0</v>
+      </c>
+      <c r="C178">
+        <v>245</v>
+      </c>
+      <c r="D178">
+        <v>0</v>
+      </c>
+      <c r="E178">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5">
+      <c r="A179">
+        <v>1993</v>
+      </c>
+      <c r="B179">
+        <v>1</v>
+      </c>
+      <c r="C179">
+        <v>245</v>
+      </c>
+      <c r="D179">
+        <v>0</v>
+      </c>
+      <c r="E179">
+        <v>2239</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5">
+      <c r="A180">
+        <v>105</v>
+      </c>
+      <c r="B180">
+        <v>0</v>
+      </c>
+      <c r="C180">
+        <v>239</v>
+      </c>
+      <c r="D180">
+        <v>0</v>
+      </c>
+      <c r="E180">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5">
+      <c r="A181">
+        <v>1310</v>
+      </c>
+      <c r="B181">
+        <v>1</v>
+      </c>
+      <c r="C181">
+        <v>228</v>
+      </c>
+      <c r="D181">
+        <v>0</v>
+      </c>
+      <c r="E181">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5">
+      <c r="A182">
+        <v>121</v>
+      </c>
+      <c r="B182">
+        <v>1</v>
+      </c>
+      <c r="C182">
+        <v>256</v>
+      </c>
+      <c r="D182">
+        <v>1</v>
+      </c>
+      <c r="E182">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5">
+      <c r="A183">
+        <v>1384</v>
+      </c>
+      <c r="B183">
+        <v>0</v>
+      </c>
+      <c r="C183">
+        <v>300</v>
+      </c>
+      <c r="D183">
+        <v>0</v>
+      </c>
+      <c r="E183">
+        <v>1684</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5">
+      <c r="A184">
+        <v>131</v>
+      </c>
+      <c r="B184">
+        <v>1</v>
+      </c>
+      <c r="C184">
+        <v>230</v>
+      </c>
+      <c r="D184">
+        <v>0</v>
+      </c>
+      <c r="E184">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5">
+      <c r="A185">
+        <v>952</v>
+      </c>
+      <c r="B185">
+        <v>1</v>
+      </c>
+      <c r="C185">
+        <v>232</v>
+      </c>
+      <c r="D185">
+        <v>0</v>
+      </c>
+      <c r="E185">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5">
+      <c r="A186">
+        <v>233</v>
+      </c>
+      <c r="B186">
+        <v>1</v>
+      </c>
+      <c r="C186">
+        <v>228</v>
+      </c>
+      <c r="D186">
+        <v>1</v>
+      </c>
+      <c r="E186">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5">
+      <c r="A187">
+        <v>1597</v>
+      </c>
+      <c r="B187">
+        <v>0</v>
+      </c>
+      <c r="C187">
+        <v>234</v>
+      </c>
+      <c r="D187">
+        <v>0</v>
+      </c>
+      <c r="E187">
+        <v>1831</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5">
+      <c r="A188">
+        <v>109</v>
+      </c>
+      <c r="B188">
+        <v>0</v>
+      </c>
+      <c r="C188">
+        <v>232</v>
+      </c>
+      <c r="D188">
+        <v>0</v>
+      </c>
+      <c r="E188">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5">
+      <c r="A189">
+        <v>1445</v>
+      </c>
+      <c r="B189">
+        <v>1</v>
+      </c>
+      <c r="C189">
+        <v>287</v>
+      </c>
+      <c r="D189">
+        <v>0</v>
+      </c>
+      <c r="E189">
+        <v>1733</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5">
+      <c r="A190">
+        <v>102</v>
+      </c>
+      <c r="B190">
+        <v>0</v>
+      </c>
+      <c r="C190">
+        <v>261</v>
+      </c>
+      <c r="D190">
+        <v>0</v>
+      </c>
+      <c r="E190">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5">
+      <c r="A191">
+        <v>1729</v>
+      </c>
+      <c r="B191">
+        <v>1</v>
+      </c>
+      <c r="C191">
+        <v>232</v>
+      </c>
+      <c r="D191">
+        <v>0</v>
+      </c>
+      <c r="E191">
+        <v>1962</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5">
+      <c r="A192">
+        <v>106</v>
+      </c>
+      <c r="B192">
+        <v>0</v>
+      </c>
+      <c r="C192">
+        <v>247</v>
+      </c>
+      <c r="D192">
+        <v>0</v>
+      </c>
+      <c r="E192">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5">
+      <c r="A193">
+        <v>1124</v>
+      </c>
+      <c r="B193">
+        <v>0</v>
+      </c>
+      <c r="C193">
+        <v>240</v>
+      </c>
+      <c r="D193">
+        <v>0</v>
+      </c>
+      <c r="E193">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5">
+      <c r="A194">
+        <v>105</v>
+      </c>
+      <c r="B194">
+        <v>1</v>
+      </c>
+      <c r="C194">
+        <v>240</v>
+      </c>
+      <c r="D194">
+        <v>0</v>
+      </c>
+      <c r="E194">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5">
+      <c r="A195">
+        <v>1270</v>
+      </c>
+      <c r="B195">
+        <v>1</v>
+      </c>
+      <c r="C195">
+        <v>241</v>
+      </c>
+      <c r="D195">
+        <v>0</v>
+      </c>
+      <c r="E195">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5">
+      <c r="A196">
+        <v>64</v>
+      </c>
+      <c r="B196">
+        <v>0</v>
+      </c>
+      <c r="C196">
+        <v>242</v>
+      </c>
+      <c r="D196">
+        <v>0</v>
+      </c>
+      <c r="E196">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5">
+      <c r="A197">
+        <v>1516</v>
+      </c>
+      <c r="B197">
+        <v>0</v>
+      </c>
+      <c r="C197">
+        <v>253</v>
+      </c>
+      <c r="D197">
+        <v>0</v>
+      </c>
+      <c r="E197">
+        <v>1769</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5">
+      <c r="A198">
+        <v>123</v>
+      </c>
+      <c r="B198">
+        <v>0</v>
+      </c>
+      <c r="C198">
+        <v>263</v>
+      </c>
+      <c r="D198">
+        <v>0</v>
+      </c>
+      <c r="E198">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5">
+      <c r="A199">
+        <v>1412</v>
+      </c>
+      <c r="B199">
+        <v>0</v>
+      </c>
+      <c r="C199">
+        <v>248</v>
+      </c>
+      <c r="D199">
+        <v>0</v>
+      </c>
+      <c r="E199">
+        <v>1660</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5">
+      <c r="A200">
+        <v>120</v>
+      </c>
+      <c r="B200">
+        <v>0</v>
+      </c>
+      <c r="C200">
+        <v>247</v>
+      </c>
+      <c r="D200">
+        <v>0</v>
+      </c>
+      <c r="E200">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5">
+      <c r="A201">
+        <v>2033</v>
+      </c>
+      <c r="B201">
+        <v>1</v>
+      </c>
+      <c r="C201">
+        <v>243</v>
+      </c>
+      <c r="D201">
+        <v>0</v>
+      </c>
+      <c r="E201">
+        <v>2277</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5">
+      <c r="A202">
+        <v>243</v>
+      </c>
+      <c r="B202">
+        <v>2</v>
+      </c>
+      <c r="C202">
+        <v>301</v>
+      </c>
+      <c r="D202">
+        <v>0</v>
+      </c>
+      <c r="E202">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5">
+      <c r="A203">
+        <v>1419</v>
+      </c>
+      <c r="B203">
+        <v>0</v>
+      </c>
+      <c r="C203">
+        <v>243</v>
+      </c>
+      <c r="D203">
+        <v>1</v>
+      </c>
+      <c r="E203">
+        <v>1663</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5">
+      <c r="A204">
+        <v>99</v>
+      </c>
+      <c r="B204">
+        <v>0</v>
+      </c>
+      <c r="C204">
+        <v>244</v>
+      </c>
+      <c r="D204">
+        <v>0</v>
+      </c>
+      <c r="E204">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5">
+      <c r="A205">
+        <v>1034</v>
+      </c>
+      <c r="B205">
+        <v>0</v>
+      </c>
+      <c r="C205">
+        <v>246</v>
+      </c>
+      <c r="D205">
+        <v>0</v>
+      </c>
+      <c r="E205">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5">
+      <c r="A206">
+        <v>66</v>
+      </c>
+      <c r="B206">
+        <v>0</v>
+      </c>
+      <c r="C206">
+        <v>243</v>
+      </c>
+      <c r="D206">
+        <v>0</v>
+      </c>
+      <c r="E206">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5">
+      <c r="A207">
+        <v>1777</v>
+      </c>
+      <c r="B207">
+        <v>2</v>
+      </c>
+      <c r="C207">
+        <v>253</v>
+      </c>
+      <c r="D207">
+        <v>0</v>
+      </c>
+      <c r="E207">
+        <v>2032</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5">
+      <c r="A208">
+        <v>150</v>
+      </c>
+      <c r="B208">
+        <v>0</v>
+      </c>
+      <c r="C208">
+        <v>286</v>
+      </c>
+      <c r="D208">
+        <v>0</v>
+      </c>
+      <c r="E208">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5">
+      <c r="A209">
+        <v>625</v>
+      </c>
+      <c r="B209">
+        <v>0</v>
+      </c>
+      <c r="C209">
+        <v>267</v>
+      </c>
+      <c r="D209">
+        <v>0</v>
+      </c>
+      <c r="E209">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5">
+      <c r="A210">
+        <v>212</v>
+      </c>
+      <c r="B210">
+        <v>0</v>
+      </c>
+      <c r="C210">
+        <v>293</v>
+      </c>
+      <c r="D210">
+        <v>0</v>
+      </c>
+      <c r="E210">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5">
+      <c r="A211">
+        <v>221</v>
+      </c>
+      <c r="B211">
+        <v>0</v>
+      </c>
+      <c r="C211">
+        <v>291</v>
+      </c>
+      <c r="D211">
+        <v>0</v>
+      </c>
+      <c r="E211">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5">
+      <c r="A212">
+        <v>271</v>
+      </c>
+      <c r="B212">
+        <v>0</v>
+      </c>
+      <c r="C212">
+        <v>301</v>
+      </c>
+      <c r="D212">
+        <v>0</v>
+      </c>
+      <c r="E212">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5">
+      <c r="A213">
+        <v>249</v>
+      </c>
+      <c r="B213">
+        <v>0</v>
+      </c>
+      <c r="C213">
+        <v>277</v>
+      </c>
+      <c r="D213">
+        <v>0</v>
+      </c>
+      <c r="E213">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5">
+      <c r="A214">
+        <v>2408</v>
+      </c>
+      <c r="B214">
+        <v>0</v>
+      </c>
+      <c r="C214">
+        <v>280</v>
+      </c>
+      <c r="D214">
+        <v>0</v>
+      </c>
+      <c r="E214">
+        <v>2688</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5">
+      <c r="A215">
+        <v>100</v>
+      </c>
+      <c r="B215">
+        <v>1</v>
+      </c>
+      <c r="C215">
+        <v>252</v>
+      </c>
+      <c r="D215">
+        <v>1</v>
+      </c>
+      <c r="E215">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5">
+      <c r="A216">
+        <v>1443</v>
+      </c>
+      <c r="B216">
+        <v>0</v>
+      </c>
+      <c r="C216">
+        <v>254</v>
+      </c>
+      <c r="D216">
+        <v>0</v>
+      </c>
+      <c r="E216">
+        <v>1697</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5">
+      <c r="A217">
+        <v>70</v>
+      </c>
+      <c r="B217">
+        <v>1</v>
+      </c>
+      <c r="C217">
+        <v>267</v>
+      </c>
+      <c r="D217">
+        <v>0</v>
+      </c>
+      <c r="E217">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5">
+      <c r="A218">
+        <v>2481</v>
+      </c>
+      <c r="B218">
+        <v>2</v>
+      </c>
+      <c r="C218">
+        <v>245</v>
+      </c>
+      <c r="D218">
+        <v>1</v>
+      </c>
+      <c r="E218">
+        <v>2729</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5">
+      <c r="A219">
+        <v>119</v>
+      </c>
+      <c r="B219">
+        <v>0</v>
+      </c>
+      <c r="C219">
+        <v>258</v>
+      </c>
+      <c r="D219">
+        <v>0</v>
+      </c>
+      <c r="E219">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5">
+      <c r="A220">
+        <v>2443</v>
+      </c>
+      <c r="B220">
+        <v>0</v>
+      </c>
+      <c r="C220">
+        <v>247</v>
+      </c>
+      <c r="D220">
+        <v>0</v>
+      </c>
+      <c r="E220">
+        <v>2690</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5">
+      <c r="A221">
+        <v>243</v>
+      </c>
+      <c r="B221">
+        <v>0</v>
+      </c>
+      <c r="C221">
+        <v>254</v>
+      </c>
+      <c r="D221">
+        <v>1</v>
+      </c>
+      <c r="E221">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5">
+      <c r="A222">
+        <v>903</v>
+      </c>
+      <c r="B222">
+        <v>0</v>
+      </c>
+      <c r="C222">
+        <v>268</v>
+      </c>
+      <c r="D222">
+        <v>1</v>
+      </c>
+      <c r="E222">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5">
+      <c r="A223">
+        <v>122</v>
+      </c>
+      <c r="B223">
+        <v>2</v>
+      </c>
+      <c r="C223">
+        <v>312</v>
+      </c>
+      <c r="D223">
+        <v>0</v>
+      </c>
+      <c r="E223">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5">
+      <c r="A224">
+        <v>1818</v>
+      </c>
+      <c r="B224">
+        <v>1</v>
+      </c>
+      <c r="C224">
+        <v>249</v>
+      </c>
+      <c r="D224">
+        <v>0</v>
+      </c>
+      <c r="E224">
+        <v>2068</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5">
+      <c r="A225">
+        <v>191</v>
+      </c>
+      <c r="B225">
+        <v>1</v>
+      </c>
+      <c r="C225">
+        <v>251</v>
+      </c>
+      <c r="D225">
+        <v>0</v>
+      </c>
+      <c r="E225">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5">
+      <c r="A226">
+        <v>1041</v>
+      </c>
+      <c r="B226">
+        <v>0</v>
+      </c>
+      <c r="C226">
+        <v>256</v>
+      </c>
+      <c r="D226">
+        <v>0</v>
+      </c>
+      <c r="E226">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5">
+      <c r="A227">
+        <v>88</v>
+      </c>
+      <c r="B227">
+        <v>0</v>
+      </c>
+      <c r="C227">
+        <v>255</v>
+      </c>
+      <c r="D227">
+        <v>0</v>
+      </c>
+      <c r="E227">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5">
+      <c r="A228">
+        <v>1685</v>
+      </c>
+      <c r="B228">
+        <v>0</v>
+      </c>
+      <c r="C228">
+        <v>255</v>
+      </c>
+      <c r="D228">
+        <v>0</v>
+      </c>
+      <c r="E228">
+        <v>1940</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5">
+      <c r="A229">
+        <v>106</v>
+      </c>
+      <c r="B229">
+        <v>0</v>
+      </c>
+      <c r="C229">
+        <v>273</v>
+      </c>
+      <c r="D229">
+        <v>1</v>
+      </c>
+      <c r="E229">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5">
+      <c r="A230">
+        <v>659</v>
+      </c>
+      <c r="B230">
+        <v>0</v>
+      </c>
+      <c r="C230">
+        <v>264</v>
+      </c>
+      <c r="D230">
+        <v>0</v>
+      </c>
+      <c r="E230">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5">
+      <c r="A231">
+        <v>201</v>
+      </c>
+      <c r="B231">
+        <v>0</v>
+      </c>
+      <c r="C231">
+        <v>272</v>
+      </c>
+      <c r="D231">
+        <v>0</v>
+      </c>
+      <c r="E231">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5">
+      <c r="A232">
+        <v>2204</v>
+      </c>
+      <c r="B232">
+        <v>0</v>
+      </c>
+      <c r="C232">
+        <v>250</v>
+      </c>
+      <c r="D232">
+        <v>1</v>
+      </c>
+      <c r="E232">
+        <v>2455</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5">
+      <c r="A233">
+        <v>120</v>
+      </c>
+      <c r="B233">
+        <v>0</v>
+      </c>
+      <c r="C233">
+        <v>259</v>
+      </c>
+      <c r="D233">
+        <v>0</v>
+      </c>
+      <c r="E233">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5">
+      <c r="A234">
+        <v>968</v>
+      </c>
+      <c r="B234">
+        <v>0</v>
+      </c>
+      <c r="C234">
+        <v>262</v>
+      </c>
+      <c r="D234">
+        <v>0</v>
+      </c>
+      <c r="E234">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5">
+      <c r="A235">
+        <v>253</v>
+      </c>
+      <c r="B235">
+        <v>1</v>
+      </c>
+      <c r="C235">
+        <v>277</v>
+      </c>
+      <c r="D235">
+        <v>0</v>
+      </c>
+      <c r="E235">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5">
+      <c r="A236">
+        <v>222</v>
+      </c>
+      <c r="B236">
+        <v>0</v>
+      </c>
+      <c r="C236">
+        <v>256</v>
+      </c>
+      <c r="D236">
+        <v>0</v>
+      </c>
+      <c r="E236">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5">
+      <c r="A237">
+        <v>189</v>
+      </c>
+      <c r="B237">
+        <v>1</v>
+      </c>
+      <c r="C237">
+        <v>263</v>
+      </c>
+      <c r="D237">
+        <v>0</v>
+      </c>
+      <c r="E237">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5">
+      <c r="A238">
+        <v>201</v>
+      </c>
+      <c r="B238">
+        <v>0</v>
+      </c>
+      <c r="C238">
+        <v>275</v>
+      </c>
+      <c r="D238">
+        <v>0</v>
+      </c>
+      <c r="E238">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5">
+      <c r="A239">
+        <v>1140</v>
+      </c>
+      <c r="B239">
+        <v>1</v>
+      </c>
+      <c r="C239">
+        <v>255</v>
+      </c>
+      <c r="D239">
+        <v>0</v>
+      </c>
+      <c r="E239">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5">
+      <c r="A240">
+        <v>134</v>
+      </c>
+      <c r="B240">
+        <v>0</v>
+      </c>
+      <c r="C240">
+        <v>263</v>
+      </c>
+      <c r="D240">
+        <v>0</v>
+      </c>
+      <c r="E240">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5">
+      <c r="A241">
+        <v>1661</v>
+      </c>
+      <c r="B241">
+        <v>2</v>
+      </c>
+      <c r="C241">
+        <v>265</v>
+      </c>
+      <c r="D241">
+        <v>0</v>
+      </c>
+      <c r="E241">
+        <v>1928</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5">
+      <c r="A242">
+        <v>103</v>
+      </c>
+      <c r="B242">
+        <v>0</v>
+      </c>
+      <c r="C242">
+        <v>316</v>
+      </c>
+      <c r="D242">
+        <v>0</v>
+      </c>
+      <c r="E242">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5">
+      <c r="A243">
+        <v>1659</v>
+      </c>
+      <c r="B243">
+        <v>1</v>
+      </c>
+      <c r="C243">
+        <v>257</v>
+      </c>
+      <c r="D243">
+        <v>0</v>
+      </c>
+      <c r="E243">
+        <v>1917</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5">
+      <c r="A244">
+        <v>214</v>
+      </c>
+      <c r="B244">
+        <v>0</v>
+      </c>
+      <c r="C244">
+        <v>261</v>
+      </c>
+      <c r="D244">
+        <v>0</v>
+      </c>
+      <c r="E244">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5">
+      <c r="A245">
+        <v>1189</v>
+      </c>
+      <c r="B245">
+        <v>1</v>
+      </c>
+      <c r="C245">
+        <v>263</v>
+      </c>
+      <c r="D245">
+        <v>1</v>
+      </c>
+      <c r="E245">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5">
+      <c r="A246">
+        <v>183</v>
+      </c>
+      <c r="B246">
+        <v>0</v>
+      </c>
+      <c r="C246">
+        <v>269</v>
+      </c>
+      <c r="D246">
+        <v>0</v>
+      </c>
+      <c r="E246">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5">
+      <c r="A247">
+        <v>1947</v>
+      </c>
+      <c r="B247">
+        <v>0</v>
+      </c>
+      <c r="C247">
+        <v>270</v>
+      </c>
+      <c r="D247">
+        <v>0</v>
+      </c>
+      <c r="E247">
+        <v>2217</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5">
+      <c r="A248">
+        <v>144</v>
+      </c>
+      <c r="B248">
+        <v>0</v>
+      </c>
+      <c r="C248">
+        <v>297</v>
+      </c>
+      <c r="D248">
+        <v>1</v>
+      </c>
+      <c r="E248">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5">
+      <c r="A249">
+        <v>1566</v>
+      </c>
+      <c r="B249">
+        <v>1</v>
+      </c>
+      <c r="C249">
+        <v>262</v>
+      </c>
+      <c r="D249">
+        <v>0</v>
+      </c>
+      <c r="E249">
+        <v>1829</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5">
+      <c r="A250">
+        <v>2583</v>
+      </c>
+      <c r="B250">
+        <v>1</v>
+      </c>
+      <c r="C250">
+        <v>312</v>
+      </c>
+      <c r="D250">
+        <v>0</v>
+      </c>
+      <c r="E250">
+        <v>2896</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5">
+      <c r="A251">
+        <v>3166</v>
+      </c>
+      <c r="B251">
+        <v>0</v>
+      </c>
+      <c r="C251">
+        <v>276</v>
+      </c>
+      <c r="D251">
+        <v>0</v>
+      </c>
+      <c r="E251">
+        <v>3442</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5">
+      <c r="A252">
+        <v>361</v>
+      </c>
+      <c r="B252">
+        <v>1</v>
+      </c>
+      <c r="C252">
+        <v>276</v>
+      </c>
+      <c r="D252">
+        <v>1</v>
+      </c>
+      <c r="E252">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5">
+      <c r="A253">
+        <v>1785</v>
+      </c>
+      <c r="B253">
+        <v>1</v>
+      </c>
+      <c r="C253">
+        <v>280</v>
+      </c>
+      <c r="D253">
+        <v>1</v>
+      </c>
+      <c r="E253">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5">
+      <c r="A254">
+        <v>135</v>
+      </c>
+      <c r="B254">
+        <v>0</v>
+      </c>
+      <c r="C254">
+        <v>274</v>
+      </c>
+      <c r="D254">
+        <v>0</v>
+      </c>
+      <c r="E254">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5">
+      <c r="A255">
+        <v>1272</v>
+      </c>
+      <c r="B255">
+        <v>0</v>
+      </c>
+      <c r="C255">
+        <v>273</v>
+      </c>
+      <c r="D255">
+        <v>0</v>
+      </c>
+      <c r="E255">
+        <v>1545</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5">
+      <c r="A256">
+        <v>74</v>
+      </c>
+      <c r="B256">
+        <v>0</v>
+      </c>
+      <c r="C256">
+        <v>269</v>
+      </c>
+      <c r="D256">
+        <v>0</v>
+      </c>
+      <c r="E256">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5">
+      <c r="A257">
+        <v>1541</v>
+      </c>
+      <c r="B257">
+        <v>0</v>
+      </c>
+      <c r="C257">
+        <v>323</v>
+      </c>
+      <c r="D257">
+        <v>0</v>
+      </c>
+      <c r="E257">
+        <v>1866</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5">
+      <c r="A258">
+        <v>246</v>
+      </c>
+      <c r="B258">
+        <v>0</v>
+      </c>
+      <c r="C258">
+        <v>305</v>
+      </c>
+      <c r="D258">
+        <v>1</v>
+      </c>
+      <c r="E258">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5">
+      <c r="A259">
+        <v>1209</v>
+      </c>
+      <c r="B259">
+        <v>0</v>
+      </c>
+      <c r="C259">
+        <v>290</v>
+      </c>
+      <c r="D259">
+        <v>0</v>
+      </c>
+      <c r="E259">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5">
+      <c r="A260">
+        <v>91</v>
+      </c>
+      <c r="B260">
+        <v>0</v>
+      </c>
+      <c r="C260">
+        <v>269</v>
+      </c>
+      <c r="D260">
+        <v>0</v>
+      </c>
+      <c r="E260">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5">
+      <c r="A261">
+        <v>1802</v>
+      </c>
+      <c r="B261">
+        <v>0</v>
+      </c>
+      <c r="C261">
+        <v>311</v>
+      </c>
+      <c r="D261">
+        <v>0</v>
+      </c>
+      <c r="E261">
+        <v>2113</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5">
+      <c r="A262">
+        <v>119</v>
+      </c>
+      <c r="B262">
+        <v>0</v>
+      </c>
+      <c r="C262">
+        <v>271</v>
+      </c>
+      <c r="D262">
+        <v>0</v>
+      </c>
+      <c r="E262">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5">
+      <c r="A263">
+        <v>1952</v>
+      </c>
+      <c r="B263">
+        <v>2</v>
+      </c>
+      <c r="C263">
+        <v>336</v>
+      </c>
+      <c r="D263">
+        <v>0</v>
+      </c>
+      <c r="E263">
+        <v>2290</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5">
+      <c r="A264">
+        <v>154</v>
+      </c>
+      <c r="B264">
+        <v>1</v>
+      </c>
+      <c r="C264">
+        <v>276</v>
+      </c>
+      <c r="D264">
+        <v>0</v>
+      </c>
+      <c r="E264">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5">
+      <c r="A265">
+        <v>1912</v>
+      </c>
+      <c r="B265">
+        <v>0</v>
+      </c>
+      <c r="C265">
+        <v>289</v>
+      </c>
+      <c r="D265">
+        <v>0</v>
+      </c>
+      <c r="E265">
+        <v>2201</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5">
+      <c r="A266">
+        <v>107</v>
+      </c>
+      <c r="B266">
+        <v>0</v>
+      </c>
+      <c r="C266">
+        <v>287</v>
+      </c>
+      <c r="D266">
+        <v>0</v>
+      </c>
+      <c r="E266">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5">
+      <c r="A267">
+        <v>1307</v>
+      </c>
+      <c r="B267">
+        <v>1</v>
+      </c>
+      <c r="C267">
+        <v>311</v>
+      </c>
+      <c r="D267">
+        <v>1</v>
+      </c>
+      <c r="E267">
+        <v>1620</v>
       </c>
     </row>
   </sheetData>

--- a/Server_time.xlsx
+++ b/Server_time.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="167">
   <si>
     <t>Receve image</t>
   </si>
@@ -35,6 +35,486 @@
   </si>
   <si>
     <t>End time</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:37:57.862619</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:38:02.095376</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:38:02.115257</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:38:02.358998</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:38:02.359160</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:38:02.879427</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:38:02.879550</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:38:04.203140</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:38:04.203251</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:38:04.410708</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:38:04.410902</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:38:06.438697</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:38:06.438802</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:38:06.629467</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:38:06.629566</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:38:07.375004</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:38:07.375110</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:38:09.526480</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:38:09.526699</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:38:09.742587</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:38:09.742678</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:38:11.288102</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:38:11.288194</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:38:11.479653</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:38:11.479745</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:38:13.623573</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:38:13.623676</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:38:13.836034</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:38:13.836130</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:38:15.056086</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:38:15.056179</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:38:15.380432</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:38:15.380524</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:38:16.063853</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:38:16.063946</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:38:16.383620</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:38:16.383713</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:38:17.070910</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:38:17.071002</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:38:17.383566</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:38:17.383660</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:38:18.071885</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:38:18.071977</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:38:18.386171</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:38:18.386262</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:38:19.261195</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:38:19.261315</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:38:19.467382</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:38:19.467473</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:38:21.285063</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:38:21.285156</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:38:21.513530</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:38:21.513622</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:38:23.427777</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:38:23.427870</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:38:23.629569</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:38:23.629663</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:38:25.917158</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:38:25.917319</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:38:26.142926</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:38:26.143019</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:38:27.959064</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:38:27.959157</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:38:28.184500</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:38:28.184592</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:38:29.577451</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:38:29.577545</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:38:29.897124</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:38:29.897218</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:38:30.438586</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:38:30.438679</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:38:32.067891</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:38:32.067998</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:38:32.275414</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:38:32.275508</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:38:33.699528</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:38:33.699619</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:38:33.905795</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:38:33.905888</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:38:35.640329</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:38:35.640421</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:38:35.847166</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:38:35.847257</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:38:37.139609</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:38:37.139722</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:38:37.398449</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:38:37.398543</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:38:39.229884</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:38:39.229978</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:38:39.450166</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:38:39.450283</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:38:41.283948</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:38:41.284042</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:38:41.501646</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:38:41.501740</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:38:43.333723</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:38:43.333831</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:38:43.552229</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:38:43.552322</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:38:45.375202</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:38:45.375295</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:38:45.595848</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:38:45.595941</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:38:47.426319</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:38:47.426412</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:38:47.641912</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:38:47.642009</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:38:49.477134</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:38:49.477242</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:38:49.697937</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:38:49.698032</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:38:51.525187</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:38:51.525280</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:38:51.745388</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:38:51.745481</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:38:53.583961</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:38:53.584054</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:38:53.813935</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:38:53.814029</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:38:55.626114</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:38:55.626226</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:38:55.848131</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:38:55.848228</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:38:57.082645</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:38:57.082738</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:38:57.406663</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:38:57.406756</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:38:57.907095</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:38:57.907188</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:38:59.720136</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:38:59.720229</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:38:59.951703</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:38:59.951796</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:39:01.832544</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:39:01.832653</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:39:02.234106</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:39:02.234198</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:39:03.825332</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:39:03.825444</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:39:04.059181</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:39:04.059273</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:39:05.876259</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:39:05.876352</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:39:06.115949</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:39:06.116042</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:39:07.924151</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:39:07.924259</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:39:08.176205</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:39:08.176298</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:39:09.987296</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:39:09.987390</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:39:10.240807</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:39:10.240920</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:39:11.439546</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:39:11.439674</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:39:11.954731</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:39:11.954936</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:39:12.424536</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:39:12.424630</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:39:12.937224</t>
   </si>
 </sst>
 </file>
@@ -366,7 +846,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -397,79 +877,79 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>3689</v>
+        <v>4084</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="C2">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>3828</v>
-      </c>
-      <c r="F2">
-        <v>43242.83610883039</v>
-      </c>
-      <c r="G2">
-        <v>43242.8361531383</v>
+        <v>4232</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>40</v>
+        <v>102</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>177</v>
-      </c>
-      <c r="F3">
-        <v>43242.8361531393</v>
-      </c>
-      <c r="G3">
-        <v>43242.83615518926</v>
+        <v>244</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>824</v>
+        <v>368</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>975</v>
-      </c>
-      <c r="F4">
-        <v>43242.83615519002</v>
-      </c>
-      <c r="G4">
-        <v>43242.83616647378</v>
+        <v>520</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>297</v>
+        <v>1181</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5">
         <v>140</v>
@@ -478,657 +958,1761 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>438</v>
-      </c>
-      <c r="F5">
-        <v>43242.83616647463</v>
-      </c>
-      <c r="G5">
-        <v>43242.83617154179</v>
+        <v>1323</v>
+      </c>
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>446</v>
+        <v>54</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>585</v>
-      </c>
-      <c r="F6">
-        <v>43242.83617154324</v>
-      </c>
-      <c r="G6">
-        <v>43242.83617830827</v>
+        <v>208</v>
+      </c>
+      <c r="F6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>350</v>
+        <v>1890</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>497</v>
-      </c>
-      <c r="F7">
-        <v>43242.83617830903</v>
-      </c>
-      <c r="G7">
-        <v>43242.83618406325</v>
+        <v>2028</v>
+      </c>
+      <c r="F7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>291</v>
+        <v>52</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
       <c r="C8">
-        <v>158</v>
+        <v>138</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>450</v>
-      </c>
-      <c r="F8">
-        <v>43242.83618406401</v>
-      </c>
-      <c r="G8">
-        <v>43242.8361892657</v>
+        <v>190</v>
+      </c>
+      <c r="F8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>328</v>
+        <v>607</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
       <c r="C9">
-        <v>202</v>
+        <v>138</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>530</v>
-      </c>
-      <c r="F9">
-        <v>43242.83618926643</v>
-      </c>
-      <c r="G9">
-        <v>43242.83619540617</v>
+        <v>745</v>
+      </c>
+      <c r="F9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>1348</v>
+        <v>1995</v>
       </c>
       <c r="B10">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C10">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>1504</v>
-      </c>
-      <c r="F10">
-        <v>43242.83619540692</v>
-      </c>
-      <c r="G10">
-        <v>43242.83621281714</v>
+        <v>2151</v>
+      </c>
+      <c r="F10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="C11">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11">
-        <v>214</v>
-      </c>
-      <c r="F11">
-        <v>43242.83621281805</v>
-      </c>
-      <c r="G11">
-        <v>43242.83621529506</v>
+        <v>216</v>
+      </c>
+      <c r="F11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
-        <v>578</v>
+        <v>1408</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12">
-        <v>162</v>
+        <v>136</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>740</v>
-      </c>
-      <c r="F12">
-        <v>43242.83621529605</v>
-      </c>
-      <c r="G12">
-        <v>43242.83622386708</v>
+        <v>1545</v>
+      </c>
+      <c r="F12" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13">
-        <v>973</v>
+        <v>50</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
       <c r="C13">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>1122</v>
-      </c>
-      <c r="F13">
-        <v>43242.83622386784</v>
-      </c>
-      <c r="G13">
-        <v>43242.83623685275</v>
+        <v>192</v>
+      </c>
+      <c r="F13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14">
-        <v>55</v>
+        <v>1994</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
       <c r="C14">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
       <c r="E14">
-        <v>212</v>
-      </c>
-      <c r="F14">
-        <v>43242.83623685383</v>
-      </c>
-      <c r="G14">
-        <v>43242.8362393005</v>
+        <v>2144</v>
+      </c>
+      <c r="F14" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15">
-        <v>1671</v>
+        <v>53</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
       <c r="C15">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>1847</v>
-      </c>
-      <c r="F15">
-        <v>43242.83623930284</v>
-      </c>
-      <c r="G15">
-        <v>43242.83626067829</v>
+        <v>212</v>
+      </c>
+      <c r="F15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G15" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16">
-        <v>179</v>
+        <v>1074</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
       <c r="C16">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>352</v>
-      </c>
-      <c r="F16">
-        <v>43242.83626069209</v>
-      </c>
-      <c r="G16">
-        <v>43242.83626476428</v>
+        <v>1220</v>
+      </c>
+      <c r="F16" t="s">
+        <v>35</v>
+      </c>
+      <c r="G16" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17">
-        <v>802</v>
+        <v>182</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17">
-        <v>165</v>
+        <v>141</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17">
-        <v>968</v>
-      </c>
-      <c r="F17">
-        <v>43242.83626476584</v>
-      </c>
-      <c r="G17">
-        <v>43242.8362759676</v>
+        <v>324</v>
+      </c>
+      <c r="F17" t="s">
+        <v>37</v>
+      </c>
+      <c r="G17" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18">
-        <v>658</v>
+        <v>539</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
       <c r="C18">
-        <v>205</v>
+        <v>144</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>863</v>
-      </c>
-      <c r="F18">
-        <v>43242.83627596888</v>
-      </c>
-      <c r="G18">
-        <v>43242.83628596552</v>
+        <v>683</v>
+      </c>
+      <c r="F18" t="s">
+        <v>39</v>
+      </c>
+      <c r="G18" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19">
-        <v>50</v>
+        <v>173</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
       <c r="C19">
-        <v>192</v>
+        <v>146</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>243</v>
-      </c>
-      <c r="F19">
-        <v>43242.83628596631</v>
-      </c>
-      <c r="G19">
-        <v>43242.83628876984</v>
+        <v>320</v>
+      </c>
+      <c r="F19" t="s">
+        <v>41</v>
+      </c>
+      <c r="G19" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20">
-        <v>728</v>
+        <v>542</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>893</v>
-      </c>
-      <c r="F20">
-        <v>43242.83628877094</v>
-      </c>
-      <c r="G20">
-        <v>43242.83629911036</v>
+        <v>687</v>
+      </c>
+      <c r="F20" t="s">
+        <v>43</v>
+      </c>
+      <c r="G20" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21">
-        <v>658</v>
+        <v>166</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21">
-        <v>832</v>
-      </c>
-      <c r="F21">
-        <v>43242.8362991111</v>
-      </c>
-      <c r="G21">
-        <v>43242.83630873649</v>
+        <v>313</v>
+      </c>
+      <c r="F21" t="s">
+        <v>45</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22">
-        <v>53</v>
+        <v>537</v>
       </c>
       <c r="B22">
         <v>0</v>
       </c>
       <c r="C22">
-        <v>181</v>
+        <v>151</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>234</v>
-      </c>
-      <c r="F22">
-        <v>43242.83630873723</v>
-      </c>
-      <c r="G22">
-        <v>43242.83631144361</v>
+        <v>688</v>
+      </c>
+      <c r="F22" t="s">
+        <v>47</v>
+      </c>
+      <c r="G22" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23">
-        <v>853</v>
+        <v>165</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23">
-        <v>189</v>
+        <v>148</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>1042</v>
-      </c>
-      <c r="F23">
-        <v>43242.83631144452</v>
-      </c>
-      <c r="G23">
-        <v>43242.83632350567</v>
+        <v>314</v>
+      </c>
+      <c r="F23" t="s">
+        <v>49</v>
+      </c>
+      <c r="G23" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24">
-        <v>242</v>
+        <v>725</v>
       </c>
       <c r="B24">
         <v>0</v>
       </c>
       <c r="C24">
-        <v>171</v>
+        <v>150</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24">
-        <v>414</v>
-      </c>
-      <c r="F24">
-        <v>43242.83632350672</v>
-      </c>
-      <c r="G24">
-        <v>43242.83632829315</v>
+        <v>875</v>
+      </c>
+      <c r="F24" t="s">
+        <v>51</v>
+      </c>
+      <c r="G24" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25">
-        <v>736</v>
+        <v>56</v>
       </c>
       <c r="B25">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C25">
-        <v>176</v>
+        <v>149</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>915</v>
-      </c>
-      <c r="F25">
-        <v>43242.83632829388</v>
-      </c>
-      <c r="G25">
-        <v>43242.83633888848</v>
+        <v>206</v>
+      </c>
+      <c r="F25" t="s">
+        <v>53</v>
+      </c>
+      <c r="G25" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26">
-        <v>48</v>
+        <v>1666</v>
       </c>
       <c r="B26">
         <v>0</v>
       </c>
       <c r="C26">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="D26">
         <v>0</v>
       </c>
       <c r="E26">
-        <v>211</v>
-      </c>
-      <c r="F26">
-        <v>43242.83633889034</v>
-      </c>
-      <c r="G26">
-        <v>43242.83634133073</v>
+        <v>1818</v>
+      </c>
+      <c r="F26" t="s">
+        <v>55</v>
+      </c>
+      <c r="G26" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27">
-        <v>1547</v>
+        <v>54</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C27">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27">
-        <v>1704</v>
-      </c>
-      <c r="F27">
-        <v>43242.83634133146</v>
-      </c>
-      <c r="G27">
-        <v>43242.8363610563</v>
+        <v>229</v>
+      </c>
+      <c r="F27" t="s">
+        <v>57</v>
+      </c>
+      <c r="G27" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28">
-        <v>54</v>
+        <v>1759</v>
       </c>
       <c r="B28">
         <v>0</v>
       </c>
       <c r="C28">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D28">
         <v>0</v>
       </c>
       <c r="E28">
-        <v>215</v>
-      </c>
-      <c r="F28">
-        <v>43242.8363610571</v>
-      </c>
-      <c r="G28">
-        <v>43242.83636354253</v>
+        <v>1914</v>
+      </c>
+      <c r="F28" t="s">
+        <v>59</v>
+      </c>
+      <c r="G28" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29">
-        <v>767</v>
+        <v>49</v>
       </c>
       <c r="B29">
         <v>0</v>
       </c>
       <c r="C29">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29">
-        <v>932</v>
-      </c>
-      <c r="F29">
-        <v>43242.83636354326</v>
-      </c>
-      <c r="G29">
-        <v>43242.83637432679</v>
+        <v>202</v>
+      </c>
+      <c r="F29" t="s">
+        <v>61</v>
+      </c>
+      <c r="G29" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30">
-        <v>1132</v>
+        <v>2131</v>
       </c>
       <c r="B30">
         <v>0</v>
       </c>
       <c r="C30">
-        <v>199</v>
+        <v>156</v>
       </c>
       <c r="D30">
         <v>0</v>
       </c>
       <c r="E30">
-        <v>1332</v>
-      </c>
-      <c r="F30">
-        <v>43242.83637432755</v>
-      </c>
-      <c r="G30">
-        <v>43242.83638974075</v>
+        <v>2287</v>
+      </c>
+      <c r="F30" t="s">
+        <v>63</v>
+      </c>
+      <c r="G30" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31">
-        <v>122</v>
+        <v>52</v>
       </c>
       <c r="B31">
         <v>0</v>
       </c>
       <c r="C31">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D31">
         <v>0</v>
       </c>
       <c r="E31">
-        <v>294</v>
-      </c>
-      <c r="F31">
-        <v>43242.83638974303</v>
-      </c>
-      <c r="G31">
-        <v>43242.83639315352</v>
+        <v>226</v>
+      </c>
+      <c r="F31" t="s">
+        <v>65</v>
+      </c>
+      <c r="G31" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32">
-        <v>1208</v>
+        <v>1658</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C32">
-        <v>180</v>
+        <v>157</v>
       </c>
       <c r="D32">
         <v>0</v>
       </c>
       <c r="E32">
-        <v>1388</v>
-      </c>
-      <c r="F32">
-        <v>43242.83639318356</v>
-      </c>
-      <c r="G32">
-        <v>43242.83640925207</v>
+        <v>1816</v>
+      </c>
+      <c r="F32" t="s">
+        <v>67</v>
+      </c>
+      <c r="G32" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33">
-        <v>740</v>
+        <v>71</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C33">
+        <v>153</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>225</v>
+      </c>
+      <c r="F33" t="s">
+        <v>69</v>
+      </c>
+      <c r="G33" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34">
+        <v>1239</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>152</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>1392</v>
+      </c>
+      <c r="F34" t="s">
+        <v>71</v>
+      </c>
+      <c r="G34" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35">
+        <v>162</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>157</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>319</v>
+      </c>
+      <c r="F35" t="s">
+        <v>73</v>
+      </c>
+      <c r="G35" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36">
+        <v>389</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>152</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>542</v>
+      </c>
+      <c r="F36" t="s">
+        <v>75</v>
+      </c>
+      <c r="G36" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37">
+        <v>1471</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>158</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>1629</v>
+      </c>
+      <c r="F37" t="s">
+        <v>77</v>
+      </c>
+      <c r="G37" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38">
+        <v>49</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>157</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>207</v>
+      </c>
+      <c r="F38" t="s">
+        <v>79</v>
+      </c>
+      <c r="G38" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39">
+        <v>1264</v>
+      </c>
+      <c r="B39">
+        <v>3</v>
+      </c>
+      <c r="C39">
+        <v>156</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>1424</v>
+      </c>
+      <c r="F39" t="s">
+        <v>81</v>
+      </c>
+      <c r="G39" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40">
+        <v>48</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>158</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>206</v>
+      </c>
+      <c r="F40" t="s">
+        <v>83</v>
+      </c>
+      <c r="G40" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41">
+        <v>1565</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>168</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>1734</v>
+      </c>
+      <c r="F41" t="s">
+        <v>85</v>
+      </c>
+      <c r="G41" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42">
+        <v>48</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>159</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>207</v>
+      </c>
+      <c r="F42" t="s">
+        <v>87</v>
+      </c>
+      <c r="G42" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43">
+        <v>1133</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>159</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>1293</v>
+      </c>
+      <c r="F43" t="s">
+        <v>89</v>
+      </c>
+      <c r="G43" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44">
+        <v>97</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <v>161</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>258</v>
+      </c>
+      <c r="F44" t="s">
+        <v>91</v>
+      </c>
+      <c r="G44" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45">
+        <v>1671</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45">
+        <v>159</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>1831</v>
+      </c>
+      <c r="F45" t="s">
+        <v>93</v>
+      </c>
+      <c r="G45" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46">
+        <v>58</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <v>162</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>220</v>
+      </c>
+      <c r="F46" t="s">
+        <v>95</v>
+      </c>
+      <c r="G46" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47">
+        <v>1670</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <v>164</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>1834</v>
+      </c>
+      <c r="F47" t="s">
+        <v>97</v>
+      </c>
+      <c r="G47" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48">
+        <v>54</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+      <c r="C48">
+        <v>163</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>218</v>
+      </c>
+      <c r="F48" t="s">
+        <v>99</v>
+      </c>
+      <c r="G48" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49">
+        <v>1669</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+      <c r="C49">
+        <v>163</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>1832</v>
+      </c>
+      <c r="F49" t="s">
+        <v>101</v>
+      </c>
+      <c r="G49" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50">
+        <v>53</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="C50">
+        <v>165</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>218</v>
+      </c>
+      <c r="F50" t="s">
+        <v>103</v>
+      </c>
+      <c r="G50" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51">
+        <v>1659</v>
+      </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
+      <c r="C51">
+        <v>164</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>1823</v>
+      </c>
+      <c r="F51" t="s">
+        <v>105</v>
+      </c>
+      <c r="G51" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52">
+        <v>54</v>
+      </c>
+      <c r="B52">
+        <v>0</v>
+      </c>
+      <c r="C52">
+        <v>167</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>221</v>
+      </c>
+      <c r="F52" t="s">
+        <v>107</v>
+      </c>
+      <c r="G52" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53">
+        <v>1665</v>
+      </c>
+      <c r="B53">
+        <v>0</v>
+      </c>
+      <c r="C53">
+        <v>165</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>1830</v>
+      </c>
+      <c r="F53" t="s">
+        <v>109</v>
+      </c>
+      <c r="G53" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54">
+        <v>52</v>
+      </c>
+      <c r="B54">
+        <v>0</v>
+      </c>
+      <c r="C54">
+        <v>164</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>216</v>
+      </c>
+      <c r="F54" t="s">
+        <v>111</v>
+      </c>
+      <c r="G54" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55">
+        <v>1669</v>
+      </c>
+      <c r="B55">
+        <v>0</v>
+      </c>
+      <c r="C55">
+        <v>166</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>1835</v>
+      </c>
+      <c r="F55" t="s">
+        <v>113</v>
+      </c>
+      <c r="G55" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56">
+        <v>52</v>
+      </c>
+      <c r="B56">
+        <v>0</v>
+      </c>
+      <c r="C56">
         <v>169</v>
       </c>
-      <c r="D33">
-        <v>0</v>
-      </c>
-      <c r="E33">
-        <v>910</v>
-      </c>
-      <c r="F33">
-        <v>43242.83640925378</v>
-      </c>
-      <c r="G33">
-        <v>43242.83641979568</v>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>221</v>
+      </c>
+      <c r="F56" t="s">
+        <v>115</v>
+      </c>
+      <c r="G56" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57">
+        <v>1663</v>
+      </c>
+      <c r="B57">
+        <v>0</v>
+      </c>
+      <c r="C57">
+        <v>164</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>1827</v>
+      </c>
+      <c r="F57" t="s">
+        <v>117</v>
+      </c>
+      <c r="G57" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58">
+        <v>54</v>
+      </c>
+      <c r="B58">
+        <v>0</v>
+      </c>
+      <c r="C58">
+        <v>166</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>220</v>
+      </c>
+      <c r="F58" t="s">
+        <v>119</v>
+      </c>
+      <c r="G58" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59">
+        <v>1664</v>
+      </c>
+      <c r="B59">
+        <v>1</v>
+      </c>
+      <c r="C59">
+        <v>173</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>1839</v>
+      </c>
+      <c r="F59" t="s">
+        <v>121</v>
+      </c>
+      <c r="G59" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60">
+        <v>53</v>
+      </c>
+      <c r="B60">
+        <v>0</v>
+      </c>
+      <c r="C60">
+        <v>177</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>230</v>
+      </c>
+      <c r="F60" t="s">
+        <v>123</v>
+      </c>
+      <c r="G60" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61">
+        <v>1646</v>
+      </c>
+      <c r="B61">
+        <v>1</v>
+      </c>
+      <c r="C61">
+        <v>165</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>1812</v>
+      </c>
+      <c r="F61" t="s">
+        <v>125</v>
+      </c>
+      <c r="G61" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62">
+        <v>51</v>
+      </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
+      <c r="C62">
+        <v>170</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <v>222</v>
+      </c>
+      <c r="F62" t="s">
+        <v>127</v>
+      </c>
+      <c r="G62" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63">
+        <v>1056</v>
+      </c>
+      <c r="B63">
+        <v>2</v>
+      </c>
+      <c r="C63">
+        <v>177</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <v>1235</v>
+      </c>
+      <c r="F63" t="s">
+        <v>129</v>
+      </c>
+      <c r="G63" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64">
+        <v>154</v>
+      </c>
+      <c r="B64">
+        <v>1</v>
+      </c>
+      <c r="C64">
+        <v>169</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <v>324</v>
+      </c>
+      <c r="F64" t="s">
+        <v>131</v>
+      </c>
+      <c r="G64" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65">
+        <v>330</v>
+      </c>
+      <c r="B65">
+        <v>0</v>
+      </c>
+      <c r="C65">
+        <v>170</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <v>500</v>
+      </c>
+      <c r="F65" t="s">
+        <v>133</v>
+      </c>
+      <c r="G65" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66">
+        <v>1644</v>
+      </c>
+      <c r="B66">
+        <v>0</v>
+      </c>
+      <c r="C66">
+        <v>169</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>1813</v>
+      </c>
+      <c r="F66" t="s">
+        <v>135</v>
+      </c>
+      <c r="G66" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67">
+        <v>57</v>
+      </c>
+      <c r="B67">
+        <v>0</v>
+      </c>
+      <c r="C67">
+        <v>175</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>232</v>
+      </c>
+      <c r="F67" t="s">
+        <v>137</v>
+      </c>
+      <c r="G67" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68">
+        <v>1711</v>
+      </c>
+      <c r="B68">
+        <v>0</v>
+      </c>
+      <c r="C68">
+        <v>169</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+      <c r="E68">
+        <v>1881</v>
+      </c>
+      <c r="F68" t="s">
+        <v>139</v>
+      </c>
+      <c r="G68" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69">
+        <v>228</v>
+      </c>
+      <c r="B69">
+        <v>2</v>
+      </c>
+      <c r="C69">
+        <v>171</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <v>401</v>
+      </c>
+      <c r="F69" t="s">
+        <v>141</v>
+      </c>
+      <c r="G69" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70">
+        <v>1416</v>
+      </c>
+      <c r="B70">
+        <v>1</v>
+      </c>
+      <c r="C70">
+        <v>174</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>1591</v>
+      </c>
+      <c r="F70" t="s">
+        <v>143</v>
+      </c>
+      <c r="G70" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71">
+        <v>53</v>
+      </c>
+      <c r="B71">
+        <v>0</v>
+      </c>
+      <c r="C71">
+        <v>181</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <v>234</v>
+      </c>
+      <c r="F71" t="s">
+        <v>145</v>
+      </c>
+      <c r="G71" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72">
+        <v>1633</v>
+      </c>
+      <c r="B72">
+        <v>0</v>
+      </c>
+      <c r="C72">
+        <v>184</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <v>1817</v>
+      </c>
+      <c r="F72" t="s">
+        <v>147</v>
+      </c>
+      <c r="G72" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73">
+        <v>53</v>
+      </c>
+      <c r="B73">
+        <v>1</v>
+      </c>
+      <c r="C73">
+        <v>186</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <v>240</v>
+      </c>
+      <c r="F73" t="s">
+        <v>149</v>
+      </c>
+      <c r="G73" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74">
+        <v>1625</v>
+      </c>
+      <c r="B74">
+        <v>2</v>
+      </c>
+      <c r="C74">
+        <v>181</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <v>1808</v>
+      </c>
+      <c r="F74" t="s">
+        <v>151</v>
+      </c>
+      <c r="G74" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75">
+        <v>55</v>
+      </c>
+      <c r="B75">
+        <v>0</v>
+      </c>
+      <c r="C75">
+        <v>197</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <v>252</v>
+      </c>
+      <c r="F75" t="s">
+        <v>153</v>
+      </c>
+      <c r="G75" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76">
+        <v>1616</v>
+      </c>
+      <c r="B76">
+        <v>1</v>
+      </c>
+      <c r="C76">
+        <v>194</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>1811</v>
+      </c>
+      <c r="F76" t="s">
+        <v>155</v>
+      </c>
+      <c r="G76" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77">
+        <v>50</v>
+      </c>
+      <c r="B77">
+        <v>1</v>
+      </c>
+      <c r="C77">
+        <v>203</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <v>254</v>
+      </c>
+      <c r="F77" t="s">
+        <v>157</v>
+      </c>
+      <c r="G77" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78">
+        <v>996</v>
+      </c>
+      <c r="B78">
+        <v>1</v>
+      </c>
+      <c r="C78">
+        <v>201</v>
+      </c>
+      <c r="D78">
+        <v>1</v>
+      </c>
+      <c r="E78">
+        <v>1199</v>
+      </c>
+      <c r="F78" t="s">
+        <v>159</v>
+      </c>
+      <c r="G78" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79">
+        <v>297</v>
+      </c>
+      <c r="B79">
+        <v>0</v>
+      </c>
+      <c r="C79">
+        <v>217</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <v>515</v>
+      </c>
+      <c r="F79" t="s">
+        <v>161</v>
+      </c>
+      <c r="G79" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80">
+        <v>273</v>
+      </c>
+      <c r="B80">
+        <v>1</v>
+      </c>
+      <c r="C80">
+        <v>195</v>
+      </c>
+      <c r="D80">
+        <v>1</v>
+      </c>
+      <c r="E80">
+        <v>470</v>
+      </c>
+      <c r="F80" t="s">
+        <v>163</v>
+      </c>
+      <c r="G80" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81">
+        <v>312</v>
+      </c>
+      <c r="B81">
+        <v>1</v>
+      </c>
+      <c r="C81">
+        <v>199</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <v>512</v>
+      </c>
+      <c r="F81" t="s">
+        <v>165</v>
+      </c>
+      <c r="G81" t="s">
+        <v>166</v>
       </c>
     </row>
   </sheetData>

--- a/Server_time.xlsx
+++ b/Server_time.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="307">
   <si>
     <t>Receve image</t>
   </si>
@@ -37,484 +37,904 @@
     <t>End time</t>
   </si>
   <si>
-    <t>2018-05-22 20:37:57.862619</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:38:02.095376</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:38:02.115257</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:38:02.358998</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:38:02.359160</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:38:02.879427</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:38:02.879550</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:38:04.203140</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:38:04.203251</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:38:04.410708</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:38:04.410902</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:38:06.438697</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:38:06.438802</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:38:06.629467</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:38:06.629566</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:38:07.375004</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:38:07.375110</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:38:09.526480</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:38:09.526699</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:38:09.742587</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:38:09.742678</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:38:11.288102</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:38:11.288194</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:38:11.479653</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:38:11.479745</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:38:13.623573</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:38:13.623676</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:38:13.836034</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:38:13.836130</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:38:15.056086</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:38:15.056179</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:38:15.380432</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:38:15.380524</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:38:16.063853</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:38:16.063946</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:38:16.383620</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:38:16.383713</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:38:17.070910</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:38:17.071002</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:38:17.383566</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:38:17.383660</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:38:18.071885</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:38:18.071977</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:38:18.386171</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:38:18.386262</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:38:19.261195</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:38:19.261315</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:38:19.467382</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:38:19.467473</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:38:21.285063</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:38:21.285156</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:38:21.513530</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:38:21.513622</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:38:23.427777</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:38:23.427870</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:38:23.629569</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:38:23.629663</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:38:25.917158</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:38:25.917319</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:38:26.142926</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:38:26.143019</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:38:27.959064</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:38:27.959157</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:38:28.184500</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:38:28.184592</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:38:29.577451</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:38:29.577545</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:38:29.897124</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:38:29.897218</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:38:30.438586</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:38:30.438679</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:38:32.067891</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:38:32.067998</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:38:32.275414</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:38:32.275508</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:38:33.699528</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:38:33.699619</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:38:33.905795</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:38:33.905888</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:38:35.640329</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:38:35.640421</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:38:35.847166</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:38:35.847257</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:38:37.139609</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:38:37.139722</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:38:37.398449</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:38:37.398543</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:38:39.229884</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:38:39.229978</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:38:39.450166</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:38:39.450283</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:38:41.283948</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:38:41.284042</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:38:41.501646</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:38:41.501740</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:38:43.333723</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:38:43.333831</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:38:43.552229</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:38:43.552322</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:38:45.375202</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:38:45.375295</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:38:45.595848</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:38:45.595941</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:38:47.426319</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:38:47.426412</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:38:47.641912</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:38:47.642009</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:38:49.477134</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:38:49.477242</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:38:49.697937</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:38:49.698032</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:38:51.525187</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:38:51.525280</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:38:51.745388</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:38:51.745481</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:38:53.583961</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:38:53.584054</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:38:53.813935</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:38:53.814029</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:38:55.626114</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:38:55.626226</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:38:55.848131</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:38:55.848228</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:38:57.082645</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:38:57.082738</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:38:57.406663</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:38:57.406756</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:38:57.907095</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:38:57.907188</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:38:59.720136</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:38:59.720229</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:38:59.951703</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:38:59.951796</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:39:01.832544</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:39:01.832653</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:39:02.234106</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:39:02.234198</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:39:03.825332</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:39:03.825444</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:39:04.059181</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:39:04.059273</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:39:05.876259</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:39:05.876352</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:39:06.115949</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:39:06.116042</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:39:07.924151</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:39:07.924259</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:39:08.176205</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:39:08.176298</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:39:09.987296</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:39:09.987390</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:39:10.240807</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:39:10.240920</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:39:11.439546</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:39:11.439674</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:39:11.954731</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:39:11.954936</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:39:12.424536</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:39:12.424630</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:39:12.937224</t>
+    <t>2018-05-22 20:48:07.891421</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:11.630767</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:11.630899</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:11.824704</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:11.824808</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:12.052865</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:12.053686</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:12.252861</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:12.252948</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:12.484593</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:12.484696</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:12.684641</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:12.684726</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:12.917935</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:12.918020</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:13.109561</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:13.109650</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:13.353557</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:13.353647</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:13.553242</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:13.553333</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:13.773305</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:13.773396</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:13.973418</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:13.973509</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:14.200551</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:14.200642</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:14.403055</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:14.403146</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:14.617800</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:14.617891</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:14.816823</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:14.816921</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:15.023661</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:15.023752</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:15.246136</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:15.246226</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:15.495307</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:15.495397</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:15.699253</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:15.699347</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:15.937034</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:15.937124</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:16.139083</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:16.139174</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:16.367848</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:16.367938</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:16.567826</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:16.567916</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:16.872353</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:16.885160</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:17.098998</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:17.099212</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:17.365800</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:17.365898</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:17.587320</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:17.587409</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:17.828646</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:17.828754</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:18.044775</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:18.044867</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:18.290974</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:18.291064</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:18.502329</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:18.502435</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:18.742073</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:18.742291</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:18.955352</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:18.955443</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:19.208539</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:19.208631</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:19.420359</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:19.420450</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:19.689946</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:19.690035</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:19.912070</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:19.912161</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:20.157421</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:20.157582</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:20.371162</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:20.371322</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:20.618702</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:20.618840</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:20.832262</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:20.832397</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:21.095623</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:21.095814</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:21.322905</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:21.322995</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:21.574550</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:21.574641</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:21.793098</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:21.793190</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:22.032803</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:22.032908</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:22.255065</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:22.255154</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:22.516913</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:22.517002</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:22.771834</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:22.772060</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:23.029688</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:23.029778</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:23.282561</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:23.282651</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:23.558961</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:23.559091</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:23.817163</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:23.817287</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:24.075819</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:24.075909</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:24.306135</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:24.306224</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:24.598944</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:24.599035</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:25.026474</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:25.026564</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:25.276966</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:25.277058</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:25.514323</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:25.514411</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:25.817746</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:25.817890</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:26.056278</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:26.056409</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:26.324499</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:26.324592</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:26.547907</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:26.547999</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:26.850460</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:26.850597</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:27.070963</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:27.071106</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:27.343778</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:27.343868</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:27.581466</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:27.581559</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:27.855965</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:27.856055</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:28.089836</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:28.089927</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:28.339916</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:28.340019</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:28.572840</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:28.572932</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:28.858040</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:28.858164</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:29.111088</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:29.111177</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:29.558586</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:29.558716</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:29.822811</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:29.822924</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:30.331003</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:30.331144</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:30.604424</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:30.604551</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:30.892029</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:30.892119</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:31.131243</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:31.131335</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:31.443450</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:31.443543</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:31.687388</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:31.687480</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:32.019613</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:32.019705</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:32.254732</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:32.254836</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:32.518354</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:32.518443</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:32.757886</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:32.757974</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:33.022179</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:33.022270</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:33.309602</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:33.309706</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:33.586927</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:33.587019</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:33.856485</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:33.856576</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:34.138914</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:34.139008</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:34.421614</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:34.421706</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:34.683295</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:34.683389</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:35.199531</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:35.199636</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:35.486774</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:35.486866</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:35.833112</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:35.833235</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:36.125624</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:36.125714</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:36.410368</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:36.410457</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:36.735537</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:36.735639</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:37.018528</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:37.018619</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:37.261804</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:37.261928</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:37.621640</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:37.621753</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:37.922717</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:37.922864</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:38.199274</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:38.199363</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:38.499435</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:38.499526</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:38.813635</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:38.813726</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:39.160469</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:39.160574</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:39.552831</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:39.552956</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:39.817596</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:39.817687</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:40.178893</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:40.178985</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:40.503284</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:40.503373</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:40.788867</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:40.788958</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:41.273052</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:41.273145</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:41.600618</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:41.600750</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:41.882350</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:41.882440</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:42.199183</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:42.199277</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:42.461637</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:42.461758</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:42.799118</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:42.799213</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:43.121836</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:43.121949</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:43.436483</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:43.436574</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:43.710721</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:43.710812</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:43.999587</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:43.999679</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:44.258675</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:44.258766</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:44.750887</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:44.751005</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:45.069741</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:45.069834</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:45.359836</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:45.359927</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:45.712254</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:45.712344</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:46.045479</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:46.045577</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:46.356032</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:46.356162</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:46.653118</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:46.653208</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:46.929034</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:46.929126</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:47.243696</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:47.243788</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:47.519049</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:47.519154</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:47.807322</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:47.807415</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:48.112693</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:48.112877</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:48.408896</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:48.408988</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:48.737379</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:48.737468</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:49.036963</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:49.037094</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:49.337515</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:49.337606</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:49.599058</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:49.599148</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:49.910493</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:49.910586</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:50.180797</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:50.180886</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:50.469731</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:50.469884</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:50.727201</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:50.727293</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:51.029059</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:51.029150</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:51.298827</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:51.298917</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:51.616358</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:51.616544</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:51.909205</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:51.909295</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:52.222172</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:52.222265</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:48:52.541490</t>
   </si>
 </sst>
 </file>
@@ -846,7 +1266,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G81"/>
+  <dimension ref="A1:G151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -877,19 +1297,19 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>4084</v>
+        <v>3600</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>4232</v>
+        <v>3740</v>
       </c>
       <c r="F2" t="s">
         <v>7</v>
@@ -900,19 +1320,19 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>102</v>
+        <v>59</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>244</v>
+        <v>194</v>
       </c>
       <c r="F3" t="s">
         <v>9</v>
@@ -923,19 +1343,19 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>368</v>
+        <v>84</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>520</v>
+        <v>228</v>
       </c>
       <c r="F4" t="s">
         <v>11</v>
@@ -946,19 +1366,19 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>1181</v>
+        <v>55</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1323</v>
+        <v>199</v>
       </c>
       <c r="F5" t="s">
         <v>13</v>
@@ -969,19 +1389,19 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>54</v>
+        <v>89</v>
       </c>
       <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>142</v>
+      </c>
+      <c r="D6">
         <v>1</v>
       </c>
-      <c r="C6">
-        <v>153</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
       <c r="E6">
-        <v>208</v>
+        <v>232</v>
       </c>
       <c r="F6" t="s">
         <v>15</v>
@@ -992,19 +1412,19 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>1890</v>
+        <v>54</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>2028</v>
+        <v>200</v>
       </c>
       <c r="F7" t="s">
         <v>17</v>
@@ -1015,19 +1435,19 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
       <c r="C8">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>190</v>
+        <v>233</v>
       </c>
       <c r="F8" t="s">
         <v>19</v>
@@ -1038,19 +1458,19 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>607</v>
+        <v>50</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
       <c r="C9">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9">
-        <v>745</v>
+        <v>192</v>
       </c>
       <c r="F9" t="s">
         <v>21</v>
@@ -1061,19 +1481,19 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>1995</v>
+        <v>100</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10">
-        <v>2151</v>
+        <v>244</v>
       </c>
       <c r="F10" t="s">
         <v>23</v>
@@ -1084,19 +1504,19 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="C11">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>216</v>
+        <v>199</v>
       </c>
       <c r="F11" t="s">
         <v>25</v>
@@ -1107,19 +1527,19 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
-        <v>1408</v>
+        <v>76</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>1545</v>
+        <v>220</v>
       </c>
       <c r="F12" t="s">
         <v>27</v>
@@ -1130,7 +1550,7 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -1142,7 +1562,7 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="F13" t="s">
         <v>29</v>
@@ -1153,19 +1573,19 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14">
-        <v>1994</v>
+        <v>84</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
       <c r="C14">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
       <c r="E14">
-        <v>2144</v>
+        <v>227</v>
       </c>
       <c r="F14" t="s">
         <v>31</v>
@@ -1176,19 +1596,19 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
       <c r="C15">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="F15" t="s">
         <v>33</v>
@@ -1199,19 +1619,19 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16">
-        <v>1074</v>
+        <v>55</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>1220</v>
+        <v>215</v>
       </c>
       <c r="F16" t="s">
         <v>35</v>
@@ -1222,19 +1642,19 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17">
-        <v>182</v>
+        <v>51</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>324</v>
+        <v>199</v>
       </c>
       <c r="F17" t="s">
         <v>37</v>
@@ -1245,19 +1665,19 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18">
-        <v>539</v>
+        <v>62</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
       <c r="C18">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>683</v>
+        <v>207</v>
       </c>
       <c r="F18" t="s">
         <v>39</v>
@@ -1268,19 +1688,19 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19">
-        <v>173</v>
+        <v>55</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C19">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>320</v>
+        <v>222</v>
       </c>
       <c r="F19" t="s">
         <v>41</v>
@@ -1291,19 +1711,19 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20">
-        <v>542</v>
+        <v>89</v>
       </c>
       <c r="B20">
         <v>0</v>
       </c>
       <c r="C20">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>687</v>
+        <v>249</v>
       </c>
       <c r="F20" t="s">
         <v>43</v>
@@ -1314,19 +1734,19 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21">
-        <v>166</v>
+        <v>56</v>
       </c>
       <c r="B21">
         <v>0</v>
       </c>
       <c r="C21">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21">
-        <v>313</v>
+        <v>204</v>
       </c>
       <c r="F21" t="s">
         <v>45</v>
@@ -1337,19 +1757,19 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22">
-        <v>537</v>
+        <v>89</v>
       </c>
       <c r="B22">
         <v>0</v>
       </c>
       <c r="C22">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>688</v>
+        <v>238</v>
       </c>
       <c r="F22" t="s">
         <v>47</v>
@@ -1360,19 +1780,19 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23">
-        <v>165</v>
+        <v>52</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>314</v>
+        <v>202</v>
       </c>
       <c r="F23" t="s">
         <v>49</v>
@@ -1383,19 +1803,19 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24">
-        <v>725</v>
+        <v>80</v>
       </c>
       <c r="B24">
         <v>0</v>
       </c>
       <c r="C24">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>875</v>
+        <v>229</v>
       </c>
       <c r="F24" t="s">
         <v>51</v>
@@ -1406,7 +1826,7 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -1418,7 +1838,7 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="F25" t="s">
         <v>53</v>
@@ -1429,19 +1849,19 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26">
-        <v>1666</v>
+        <v>93</v>
       </c>
       <c r="B26">
         <v>0</v>
       </c>
       <c r="C26">
-        <v>151</v>
+        <v>211</v>
       </c>
       <c r="D26">
         <v>0</v>
       </c>
       <c r="E26">
-        <v>1818</v>
+        <v>304</v>
       </c>
       <c r="F26" t="s">
         <v>55</v>
@@ -1452,19 +1872,19 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
       <c r="C27">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="F27" t="s">
         <v>57</v>
@@ -1475,19 +1895,19 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28">
-        <v>1759</v>
+        <v>91</v>
       </c>
       <c r="B28">
         <v>0</v>
       </c>
       <c r="C28">
-        <v>155</v>
+        <v>175</v>
       </c>
       <c r="D28">
         <v>0</v>
       </c>
       <c r="E28">
-        <v>1914</v>
+        <v>267</v>
       </c>
       <c r="F28" t="s">
         <v>59</v>
@@ -1498,19 +1918,19 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="B29">
         <v>0</v>
       </c>
       <c r="C29">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="D29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="F29" t="s">
         <v>61</v>
@@ -1521,19 +1941,19 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30">
-        <v>2131</v>
+        <v>83</v>
       </c>
       <c r="B30">
         <v>0</v>
       </c>
       <c r="C30">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D30">
         <v>0</v>
       </c>
       <c r="E30">
-        <v>2287</v>
+        <v>242</v>
       </c>
       <c r="F30" t="s">
         <v>63</v>
@@ -1544,19 +1964,19 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="B31">
         <v>0</v>
       </c>
       <c r="C31">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="D31">
         <v>0</v>
       </c>
       <c r="E31">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="F31" t="s">
         <v>65</v>
@@ -1567,19 +1987,19 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32">
-        <v>1658</v>
+        <v>94</v>
       </c>
       <c r="B32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C32">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D32">
         <v>0</v>
       </c>
       <c r="E32">
-        <v>1816</v>
+        <v>246</v>
       </c>
       <c r="F32" t="s">
         <v>67</v>
@@ -1590,10 +2010,10 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="B33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C33">
         <v>153</v>
@@ -1602,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="E33">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="F33" t="s">
         <v>69</v>
@@ -1613,19 +2033,19 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34">
-        <v>1239</v>
+        <v>87</v>
       </c>
       <c r="B34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C34">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D34">
         <v>0</v>
       </c>
       <c r="E34">
-        <v>1392</v>
+        <v>240</v>
       </c>
       <c r="F34" t="s">
         <v>71</v>
@@ -1636,19 +2056,19 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35">
-        <v>162</v>
+        <v>57</v>
       </c>
       <c r="B35">
         <v>0</v>
       </c>
       <c r="C35">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D35">
         <v>0</v>
       </c>
       <c r="E35">
-        <v>319</v>
+        <v>213</v>
       </c>
       <c r="F35" t="s">
         <v>73</v>
@@ -1659,19 +2079,19 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36">
-        <v>389</v>
+        <v>97</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C36">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D36">
         <v>1</v>
       </c>
       <c r="E36">
-        <v>542</v>
+        <v>254</v>
       </c>
       <c r="F36" t="s">
         <v>75</v>
@@ -1682,19 +2102,19 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37">
-        <v>1471</v>
+        <v>51</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
       <c r="C37">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D37">
         <v>0</v>
       </c>
       <c r="E37">
-        <v>1629</v>
+        <v>211</v>
       </c>
       <c r="F37" t="s">
         <v>77</v>
@@ -1705,19 +2125,19 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38">
-        <v>49</v>
+        <v>112</v>
       </c>
       <c r="B38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C38">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D38">
         <v>0</v>
       </c>
       <c r="E38">
-        <v>207</v>
+        <v>270</v>
       </c>
       <c r="F38" t="s">
         <v>79</v>
@@ -1728,19 +2148,19 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39">
-        <v>1264</v>
+        <v>64</v>
       </c>
       <c r="B39">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C39">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E39">
-        <v>1424</v>
+        <v>222</v>
       </c>
       <c r="F39" t="s">
         <v>81</v>
@@ -1751,10 +2171,10 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40">
-        <v>48</v>
+        <v>86</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C40">
         <v>158</v>
@@ -1763,7 +2183,7 @@
         <v>0</v>
       </c>
       <c r="E40">
-        <v>206</v>
+        <v>245</v>
       </c>
       <c r="F40" t="s">
         <v>83</v>
@@ -1774,19 +2194,19 @@
     </row>
     <row r="41" spans="1:7">
       <c r="A41">
-        <v>1565</v>
+        <v>51</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C41">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="D41">
         <v>0</v>
       </c>
       <c r="E41">
-        <v>1734</v>
+        <v>213</v>
       </c>
       <c r="F41" t="s">
         <v>85</v>
@@ -1797,10 +2217,10 @@
     </row>
     <row r="42" spans="1:7">
       <c r="A42">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="B42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C42">
         <v>159</v>
@@ -1809,7 +2229,7 @@
         <v>0</v>
       </c>
       <c r="E42">
-        <v>207</v>
+        <v>248</v>
       </c>
       <c r="F42" t="s">
         <v>87</v>
@@ -1820,19 +2240,19 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43">
-        <v>1133</v>
+        <v>52</v>
       </c>
       <c r="B43">
         <v>0</v>
       </c>
       <c r="C43">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D43">
         <v>0</v>
       </c>
       <c r="E43">
-        <v>1293</v>
+        <v>213</v>
       </c>
       <c r="F43" t="s">
         <v>89</v>
@@ -1843,19 +2263,19 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B44">
         <v>0</v>
       </c>
       <c r="C44">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="D44">
         <v>0</v>
       </c>
       <c r="E44">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="F44" t="s">
         <v>91</v>
@@ -1866,19 +2286,19 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45">
-        <v>1671</v>
+        <v>62</v>
       </c>
       <c r="B45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C45">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="D45">
         <v>0</v>
       </c>
       <c r="E45">
-        <v>1831</v>
+        <v>227</v>
       </c>
       <c r="F45" t="s">
         <v>93</v>
@@ -1889,19 +2309,19 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46">
-        <v>58</v>
+        <v>87</v>
       </c>
       <c r="B46">
         <v>0</v>
       </c>
       <c r="C46">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E46">
-        <v>220</v>
+        <v>252</v>
       </c>
       <c r="F46" t="s">
         <v>95</v>
@@ -1912,7 +2332,7 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47">
-        <v>1670</v>
+        <v>54</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -1924,7 +2344,7 @@
         <v>0</v>
       </c>
       <c r="E47">
-        <v>1834</v>
+        <v>218</v>
       </c>
       <c r="F47" t="s">
         <v>97</v>
@@ -1935,19 +2355,19 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="B48">
         <v>0</v>
       </c>
       <c r="C48">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D48">
         <v>0</v>
       </c>
       <c r="E48">
-        <v>218</v>
+        <v>240</v>
       </c>
       <c r="F48" t="s">
         <v>99</v>
@@ -1958,19 +2378,19 @@
     </row>
     <row r="49" spans="1:7">
       <c r="A49">
-        <v>1669</v>
+        <v>58</v>
       </c>
       <c r="B49">
         <v>0</v>
       </c>
       <c r="C49">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D49">
         <v>0</v>
       </c>
       <c r="E49">
-        <v>1832</v>
+        <v>222</v>
       </c>
       <c r="F49" t="s">
         <v>101</v>
@@ -1981,19 +2401,19 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50">
-        <v>53</v>
+        <v>94</v>
       </c>
       <c r="B50">
         <v>0</v>
       </c>
       <c r="C50">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D50">
         <v>0</v>
       </c>
       <c r="E50">
-        <v>218</v>
+        <v>262</v>
       </c>
       <c r="F50" t="s">
         <v>103</v>
@@ -2004,19 +2424,19 @@
     </row>
     <row r="51" spans="1:7">
       <c r="A51">
-        <v>1659</v>
+        <v>65</v>
       </c>
       <c r="B51">
         <v>0</v>
       </c>
       <c r="C51">
-        <v>164</v>
+        <v>190</v>
       </c>
       <c r="D51">
         <v>0</v>
       </c>
       <c r="E51">
-        <v>1823</v>
+        <v>255</v>
       </c>
       <c r="F51" t="s">
         <v>105</v>
@@ -2027,19 +2447,19 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52">
-        <v>54</v>
+        <v>87</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
       <c r="C52">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="D52">
         <v>0</v>
       </c>
       <c r="E52">
-        <v>221</v>
+        <v>258</v>
       </c>
       <c r="F52" t="s">
         <v>107</v>
@@ -2050,19 +2470,19 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53">
-        <v>1665</v>
+        <v>59</v>
       </c>
       <c r="B53">
         <v>0</v>
       </c>
       <c r="C53">
-        <v>165</v>
+        <v>193</v>
       </c>
       <c r="D53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E53">
-        <v>1830</v>
+        <v>253</v>
       </c>
       <c r="F53" t="s">
         <v>109</v>
@@ -2073,19 +2493,19 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="B54">
         <v>0</v>
       </c>
       <c r="C54">
-        <v>164</v>
+        <v>190</v>
       </c>
       <c r="D54">
         <v>0</v>
       </c>
       <c r="E54">
-        <v>216</v>
+        <v>276</v>
       </c>
       <c r="F54" t="s">
         <v>111</v>
@@ -2096,19 +2516,19 @@
     </row>
     <row r="55" spans="1:7">
       <c r="A55">
-        <v>1669</v>
+        <v>60</v>
       </c>
       <c r="B55">
         <v>0</v>
       </c>
       <c r="C55">
-        <v>166</v>
+        <v>198</v>
       </c>
       <c r="D55">
         <v>0</v>
       </c>
       <c r="E55">
-        <v>1835</v>
+        <v>258</v>
       </c>
       <c r="F55" t="s">
         <v>113</v>
@@ -2119,19 +2539,19 @@
     </row>
     <row r="56" spans="1:7">
       <c r="A56">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="B56">
         <v>0</v>
       </c>
       <c r="C56">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="D56">
         <v>0</v>
       </c>
       <c r="E56">
-        <v>221</v>
+        <v>259</v>
       </c>
       <c r="F56" t="s">
         <v>115</v>
@@ -2142,19 +2562,19 @@
     </row>
     <row r="57" spans="1:7">
       <c r="A57">
-        <v>1663</v>
+        <v>63</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
       <c r="C57">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D57">
         <v>0</v>
       </c>
       <c r="E57">
-        <v>1827</v>
+        <v>230</v>
       </c>
       <c r="F57" t="s">
         <v>117</v>
@@ -2165,19 +2585,19 @@
     </row>
     <row r="58" spans="1:7">
       <c r="A58">
-        <v>54</v>
+        <v>93</v>
       </c>
       <c r="B58">
         <v>0</v>
       </c>
       <c r="C58">
-        <v>166</v>
+        <v>200</v>
       </c>
       <c r="D58">
         <v>0</v>
       </c>
       <c r="E58">
-        <v>220</v>
+        <v>293</v>
       </c>
       <c r="F58" t="s">
         <v>119</v>
@@ -2188,19 +2608,19 @@
     </row>
     <row r="59" spans="1:7">
       <c r="A59">
-        <v>1664</v>
+        <v>240</v>
       </c>
       <c r="B59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C59">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="D59">
         <v>0</v>
       </c>
       <c r="E59">
-        <v>1839</v>
+        <v>427</v>
       </c>
       <c r="F59" t="s">
         <v>121</v>
@@ -2211,19 +2631,19 @@
     </row>
     <row r="60" spans="1:7">
       <c r="A60">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="B60">
         <v>0</v>
       </c>
       <c r="C60">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="D60">
         <v>0</v>
       </c>
       <c r="E60">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="F60" t="s">
         <v>123</v>
@@ -2234,19 +2654,19 @@
     </row>
     <row r="61" spans="1:7">
       <c r="A61">
-        <v>1646</v>
+        <v>52</v>
       </c>
       <c r="B61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C61">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="D61">
         <v>0</v>
       </c>
       <c r="E61">
-        <v>1812</v>
+        <v>237</v>
       </c>
       <c r="F61" t="s">
         <v>125</v>
@@ -2257,19 +2677,19 @@
     </row>
     <row r="62" spans="1:7">
       <c r="A62">
-        <v>51</v>
+        <v>85</v>
       </c>
       <c r="B62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C62">
-        <v>170</v>
+        <v>219</v>
       </c>
       <c r="D62">
         <v>0</v>
       </c>
       <c r="E62">
-        <v>222</v>
+        <v>304</v>
       </c>
       <c r="F62" t="s">
         <v>127</v>
@@ -2280,19 +2700,19 @@
     </row>
     <row r="63" spans="1:7">
       <c r="A63">
-        <v>1056</v>
+        <v>62</v>
       </c>
       <c r="B63">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C63">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D63">
         <v>0</v>
       </c>
       <c r="E63">
-        <v>1235</v>
+        <v>238</v>
       </c>
       <c r="F63" t="s">
         <v>129</v>
@@ -2303,19 +2723,19 @@
     </row>
     <row r="64" spans="1:7">
       <c r="A64">
-        <v>154</v>
+        <v>83</v>
       </c>
       <c r="B64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C64">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="D64">
         <v>0</v>
       </c>
       <c r="E64">
-        <v>324</v>
+        <v>268</v>
       </c>
       <c r="F64" t="s">
         <v>131</v>
@@ -2326,19 +2746,19 @@
     </row>
     <row r="65" spans="1:7">
       <c r="A65">
-        <v>330</v>
+        <v>54</v>
       </c>
       <c r="B65">
         <v>0</v>
       </c>
       <c r="C65">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D65">
         <v>0</v>
       </c>
       <c r="E65">
-        <v>500</v>
+        <v>223</v>
       </c>
       <c r="F65" t="s">
         <v>133</v>
@@ -2349,19 +2769,19 @@
     </row>
     <row r="66" spans="1:7">
       <c r="A66">
-        <v>1644</v>
+        <v>95</v>
       </c>
       <c r="B66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C66">
-        <v>169</v>
+        <v>206</v>
       </c>
       <c r="D66">
         <v>0</v>
       </c>
       <c r="E66">
-        <v>1813</v>
+        <v>302</v>
       </c>
       <c r="F66" t="s">
         <v>135</v>
@@ -2372,19 +2792,19 @@
     </row>
     <row r="67" spans="1:7">
       <c r="A67">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="B67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C67">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D67">
         <v>0</v>
       </c>
       <c r="E67">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="F67" t="s">
         <v>137</v>
@@ -2395,19 +2815,19 @@
     </row>
     <row r="68" spans="1:7">
       <c r="A68">
-        <v>1711</v>
+        <v>100</v>
       </c>
       <c r="B68">
         <v>0</v>
       </c>
       <c r="C68">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="D68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E68">
-        <v>1881</v>
+        <v>273</v>
       </c>
       <c r="F68" t="s">
         <v>139</v>
@@ -2418,19 +2838,19 @@
     </row>
     <row r="69" spans="1:7">
       <c r="A69">
-        <v>228</v>
+        <v>65</v>
       </c>
       <c r="B69">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C69">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D69">
         <v>0</v>
       </c>
       <c r="E69">
-        <v>401</v>
+        <v>237</v>
       </c>
       <c r="F69" t="s">
         <v>141</v>
@@ -2441,19 +2861,19 @@
     </row>
     <row r="70" spans="1:7">
       <c r="A70">
-        <v>1416</v>
+        <v>97</v>
       </c>
       <c r="B70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C70">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D70">
         <v>0</v>
       </c>
       <c r="E70">
-        <v>1591</v>
+        <v>274</v>
       </c>
       <c r="F70" t="s">
         <v>143</v>
@@ -2470,7 +2890,7 @@
         <v>0</v>
       </c>
       <c r="C71">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D71">
         <v>0</v>
@@ -2487,19 +2907,19 @@
     </row>
     <row r="72" spans="1:7">
       <c r="A72">
-        <v>1633</v>
+        <v>79</v>
       </c>
       <c r="B72">
         <v>0</v>
       </c>
       <c r="C72">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="D72">
         <v>0</v>
       </c>
       <c r="E72">
-        <v>1817</v>
+        <v>250</v>
       </c>
       <c r="F72" t="s">
         <v>147</v>
@@ -2510,19 +2930,19 @@
     </row>
     <row r="73" spans="1:7">
       <c r="A73">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C73">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="D73">
         <v>0</v>
       </c>
       <c r="E73">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="F73" t="s">
         <v>149</v>
@@ -2533,19 +2953,19 @@
     </row>
     <row r="74" spans="1:7">
       <c r="A74">
-        <v>1625</v>
+        <v>96</v>
       </c>
       <c r="B74">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C74">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="D74">
         <v>0</v>
       </c>
       <c r="E74">
-        <v>1808</v>
+        <v>285</v>
       </c>
       <c r="F74" t="s">
         <v>151</v>
@@ -2556,19 +2976,19 @@
     </row>
     <row r="75" spans="1:7">
       <c r="A75">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B75">
         <v>0</v>
       </c>
       <c r="C75">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="D75">
         <v>0</v>
       </c>
       <c r="E75">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F75" t="s">
         <v>153</v>
@@ -2579,19 +2999,19 @@
     </row>
     <row r="76" spans="1:7">
       <c r="A76">
-        <v>1616</v>
+        <v>239</v>
       </c>
       <c r="B76">
+        <v>0</v>
+      </c>
+      <c r="C76">
+        <v>208</v>
+      </c>
+      <c r="D76">
         <v>1</v>
       </c>
-      <c r="C76">
-        <v>194</v>
-      </c>
-      <c r="D76">
-        <v>0</v>
-      </c>
       <c r="E76">
-        <v>1811</v>
+        <v>448</v>
       </c>
       <c r="F76" t="s">
         <v>155</v>
@@ -2602,10 +3022,10 @@
     </row>
     <row r="77" spans="1:7">
       <c r="A77">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="B77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C77">
         <v>203</v>
@@ -2614,7 +3034,7 @@
         <v>0</v>
       </c>
       <c r="E77">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="F77" t="s">
         <v>157</v>
@@ -2625,19 +3045,19 @@
     </row>
     <row r="78" spans="1:7">
       <c r="A78">
-        <v>996</v>
+        <v>306</v>
       </c>
       <c r="B78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C78">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E78">
-        <v>1199</v>
+        <v>508</v>
       </c>
       <c r="F78" t="s">
         <v>159</v>
@@ -2648,19 +3068,19 @@
     </row>
     <row r="79" spans="1:7">
       <c r="A79">
-        <v>297</v>
+        <v>48</v>
       </c>
       <c r="B79">
         <v>0</v>
       </c>
       <c r="C79">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="D79">
         <v>0</v>
       </c>
       <c r="E79">
-        <v>515</v>
+        <v>273</v>
       </c>
       <c r="F79" t="s">
         <v>161</v>
@@ -2671,19 +3091,19 @@
     </row>
     <row r="80" spans="1:7">
       <c r="A80">
-        <v>273</v>
+        <v>94</v>
       </c>
       <c r="B80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C80">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E80">
-        <v>470</v>
+        <v>287</v>
       </c>
       <c r="F80" t="s">
         <v>163</v>
@@ -2694,25 +3114,1635 @@
     </row>
     <row r="81" spans="1:7">
       <c r="A81">
-        <v>312</v>
+        <v>57</v>
       </c>
       <c r="B81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C81">
-        <v>199</v>
+        <v>182</v>
       </c>
       <c r="D81">
         <v>0</v>
       </c>
       <c r="E81">
-        <v>512</v>
+        <v>239</v>
       </c>
       <c r="F81" t="s">
         <v>165</v>
       </c>
       <c r="G81" t="s">
         <v>166</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82">
+        <v>89</v>
+      </c>
+      <c r="B82">
+        <v>0</v>
+      </c>
+      <c r="C82">
+        <v>223</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="E82">
+        <v>312</v>
+      </c>
+      <c r="F82" t="s">
+        <v>167</v>
+      </c>
+      <c r="G82" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83">
+        <v>54</v>
+      </c>
+      <c r="B83">
+        <v>1</v>
+      </c>
+      <c r="C83">
+        <v>188</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+      <c r="E83">
+        <v>243</v>
+      </c>
+      <c r="F83" t="s">
+        <v>169</v>
+      </c>
+      <c r="G83" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84">
+        <v>84</v>
+      </c>
+      <c r="B84">
+        <v>0</v>
+      </c>
+      <c r="C84">
+        <v>247</v>
+      </c>
+      <c r="D84">
+        <v>1</v>
+      </c>
+      <c r="E84">
+        <v>333</v>
+      </c>
+      <c r="F84" t="s">
+        <v>171</v>
+      </c>
+      <c r="G84" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85">
+        <v>49</v>
+      </c>
+      <c r="B85">
+        <v>0</v>
+      </c>
+      <c r="C85">
+        <v>186</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="E85">
+        <v>235</v>
+      </c>
+      <c r="F85" t="s">
+        <v>173</v>
+      </c>
+      <c r="G85" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86">
+        <v>84</v>
+      </c>
+      <c r="B86">
+        <v>0</v>
+      </c>
+      <c r="C86">
+        <v>179</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="E86">
+        <v>263</v>
+      </c>
+      <c r="F86" t="s">
+        <v>175</v>
+      </c>
+      <c r="G86" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87">
+        <v>61</v>
+      </c>
+      <c r="B87">
+        <v>0</v>
+      </c>
+      <c r="C87">
+        <v>179</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+      <c r="E87">
+        <v>240</v>
+      </c>
+      <c r="F87" t="s">
+        <v>177</v>
+      </c>
+      <c r="G87" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88">
+        <v>82</v>
+      </c>
+      <c r="B88">
+        <v>0</v>
+      </c>
+      <c r="C88">
+        <v>182</v>
+      </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
+      <c r="E88">
+        <v>264</v>
+      </c>
+      <c r="F88" t="s">
+        <v>179</v>
+      </c>
+      <c r="G88" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89">
+        <v>59</v>
+      </c>
+      <c r="B89">
+        <v>0</v>
+      </c>
+      <c r="C89">
+        <v>228</v>
+      </c>
+      <c r="D89">
+        <v>1</v>
+      </c>
+      <c r="E89">
+        <v>288</v>
+      </c>
+      <c r="F89" t="s">
+        <v>181</v>
+      </c>
+      <c r="G89" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90">
+        <v>62</v>
+      </c>
+      <c r="B90">
+        <v>0</v>
+      </c>
+      <c r="C90">
+        <v>215</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="E90">
+        <v>277</v>
+      </c>
+      <c r="F90" t="s">
+        <v>183</v>
+      </c>
+      <c r="G90" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91">
+        <v>82</v>
+      </c>
+      <c r="B91">
+        <v>0</v>
+      </c>
+      <c r="C91">
+        <v>187</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+      <c r="E91">
+        <v>269</v>
+      </c>
+      <c r="F91" t="s">
+        <v>185</v>
+      </c>
+      <c r="G91" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92">
+        <v>52</v>
+      </c>
+      <c r="B92">
+        <v>0</v>
+      </c>
+      <c r="C92">
+        <v>230</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
+      <c r="E92">
+        <v>282</v>
+      </c>
+      <c r="F92" t="s">
+        <v>187</v>
+      </c>
+      <c r="G92" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93">
+        <v>90</v>
+      </c>
+      <c r="B93">
+        <v>1</v>
+      </c>
+      <c r="C93">
+        <v>191</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
+      <c r="E93">
+        <v>283</v>
+      </c>
+      <c r="F93" t="s">
+        <v>189</v>
+      </c>
+      <c r="G93" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94">
+        <v>58</v>
+      </c>
+      <c r="B94">
+        <v>0</v>
+      </c>
+      <c r="C94">
+        <v>203</v>
+      </c>
+      <c r="D94">
+        <v>0</v>
+      </c>
+      <c r="E94">
+        <v>261</v>
+      </c>
+      <c r="F94" t="s">
+        <v>191</v>
+      </c>
+      <c r="G94" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95">
+        <v>255</v>
+      </c>
+      <c r="B95">
+        <v>0</v>
+      </c>
+      <c r="C95">
+        <v>261</v>
+      </c>
+      <c r="D95">
+        <v>1</v>
+      </c>
+      <c r="E95">
+        <v>517</v>
+      </c>
+      <c r="F95" t="s">
+        <v>193</v>
+      </c>
+      <c r="G95" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96">
+        <v>61</v>
+      </c>
+      <c r="B96">
+        <v>0</v>
+      </c>
+      <c r="C96">
+        <v>226</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>287</v>
+      </c>
+      <c r="F96" t="s">
+        <v>195</v>
+      </c>
+      <c r="G96" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97">
+        <v>92</v>
+      </c>
+      <c r="B97">
+        <v>0</v>
+      </c>
+      <c r="C97">
+        <v>254</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+      <c r="E97">
+        <v>346</v>
+      </c>
+      <c r="F97" t="s">
+        <v>197</v>
+      </c>
+      <c r="G97" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98">
+        <v>65</v>
+      </c>
+      <c r="B98">
+        <v>0</v>
+      </c>
+      <c r="C98">
+        <v>226</v>
+      </c>
+      <c r="D98">
+        <v>0</v>
+      </c>
+      <c r="E98">
+        <v>293</v>
+      </c>
+      <c r="F98" t="s">
+        <v>199</v>
+      </c>
+      <c r="G98" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99">
+        <v>96</v>
+      </c>
+      <c r="B99">
+        <v>0</v>
+      </c>
+      <c r="C99">
+        <v>188</v>
+      </c>
+      <c r="D99">
+        <v>0</v>
+      </c>
+      <c r="E99">
+        <v>284</v>
+      </c>
+      <c r="F99" t="s">
+        <v>201</v>
+      </c>
+      <c r="G99" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="A100">
+        <v>59</v>
+      </c>
+      <c r="B100">
+        <v>0</v>
+      </c>
+      <c r="C100">
+        <v>266</v>
+      </c>
+      <c r="D100">
+        <v>1</v>
+      </c>
+      <c r="E100">
+        <v>326</v>
+      </c>
+      <c r="F100" t="s">
+        <v>203</v>
+      </c>
+      <c r="G100" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101">
+        <v>93</v>
+      </c>
+      <c r="B101">
+        <v>0</v>
+      </c>
+      <c r="C101">
+        <v>189</v>
+      </c>
+      <c r="D101">
+        <v>1</v>
+      </c>
+      <c r="E101">
+        <v>283</v>
+      </c>
+      <c r="F101" t="s">
+        <v>205</v>
+      </c>
+      <c r="G101" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
+      <c r="A102">
+        <v>50</v>
+      </c>
+      <c r="B102">
+        <v>0</v>
+      </c>
+      <c r="C102">
+        <v>193</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>243</v>
+      </c>
+      <c r="F102" t="s">
+        <v>207</v>
+      </c>
+      <c r="G102" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
+      <c r="A103">
+        <v>98</v>
+      </c>
+      <c r="B103">
+        <v>0</v>
+      </c>
+      <c r="C103">
+        <v>261</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>360</v>
+      </c>
+      <c r="F103" t="s">
+        <v>209</v>
+      </c>
+      <c r="G103" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104">
+        <v>57</v>
+      </c>
+      <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>243</v>
+      </c>
+      <c r="D104">
+        <v>1</v>
+      </c>
+      <c r="E104">
+        <v>301</v>
+      </c>
+      <c r="F104" t="s">
+        <v>211</v>
+      </c>
+      <c r="G104" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105">
+        <v>86</v>
+      </c>
+      <c r="B105">
+        <v>0</v>
+      </c>
+      <c r="C105">
+        <v>190</v>
+      </c>
+      <c r="D105">
+        <v>0</v>
+      </c>
+      <c r="E105">
+        <v>276</v>
+      </c>
+      <c r="F105" t="s">
+        <v>213</v>
+      </c>
+      <c r="G105" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
+      <c r="A106">
+        <v>55</v>
+      </c>
+      <c r="B106">
+        <v>0</v>
+      </c>
+      <c r="C106">
+        <v>245</v>
+      </c>
+      <c r="D106">
+        <v>0</v>
+      </c>
+      <c r="E106">
+        <v>300</v>
+      </c>
+      <c r="F106" t="s">
+        <v>215</v>
+      </c>
+      <c r="G106" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107">
+        <v>89</v>
+      </c>
+      <c r="B107">
+        <v>0</v>
+      </c>
+      <c r="C107">
+        <v>223</v>
+      </c>
+      <c r="D107">
+        <v>1</v>
+      </c>
+      <c r="E107">
+        <v>314</v>
+      </c>
+      <c r="F107" t="s">
+        <v>217</v>
+      </c>
+      <c r="G107" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
+      <c r="A108">
+        <v>65</v>
+      </c>
+      <c r="B108">
+        <v>0</v>
+      </c>
+      <c r="C108">
+        <v>281</v>
+      </c>
+      <c r="D108">
+        <v>0</v>
+      </c>
+      <c r="E108">
+        <v>346</v>
+      </c>
+      <c r="F108" t="s">
+        <v>219</v>
+      </c>
+      <c r="G108" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
+      <c r="A109">
+        <v>89</v>
+      </c>
+      <c r="B109">
+        <v>0</v>
+      </c>
+      <c r="C109">
+        <v>302</v>
+      </c>
+      <c r="D109">
+        <v>0</v>
+      </c>
+      <c r="E109">
+        <v>392</v>
+      </c>
+      <c r="F109" t="s">
+        <v>221</v>
+      </c>
+      <c r="G109" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
+      <c r="A110">
+        <v>56</v>
+      </c>
+      <c r="B110">
+        <v>0</v>
+      </c>
+      <c r="C110">
+        <v>208</v>
+      </c>
+      <c r="D110">
+        <v>1</v>
+      </c>
+      <c r="E110">
+        <v>265</v>
+      </c>
+      <c r="F110" t="s">
+        <v>223</v>
+      </c>
+      <c r="G110" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111">
+        <v>101</v>
+      </c>
+      <c r="B111">
+        <v>0</v>
+      </c>
+      <c r="C111">
+        <v>260</v>
+      </c>
+      <c r="D111">
+        <v>0</v>
+      </c>
+      <c r="E111">
+        <v>361</v>
+      </c>
+      <c r="F111" t="s">
+        <v>225</v>
+      </c>
+      <c r="G111" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
+      <c r="A112">
+        <v>52</v>
+      </c>
+      <c r="B112">
+        <v>0</v>
+      </c>
+      <c r="C112">
+        <v>272</v>
+      </c>
+      <c r="D112">
+        <v>0</v>
+      </c>
+      <c r="E112">
+        <v>324</v>
+      </c>
+      <c r="F112" t="s">
+        <v>227</v>
+      </c>
+      <c r="G112" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
+      <c r="A113">
+        <v>86</v>
+      </c>
+      <c r="B113">
+        <v>0</v>
+      </c>
+      <c r="C113">
+        <v>200</v>
+      </c>
+      <c r="D113">
+        <v>0</v>
+      </c>
+      <c r="E113">
+        <v>286</v>
+      </c>
+      <c r="F113" t="s">
+        <v>229</v>
+      </c>
+      <c r="G113" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
+      <c r="A114">
+        <v>250</v>
+      </c>
+      <c r="B114">
+        <v>0</v>
+      </c>
+      <c r="C114">
+        <v>234</v>
+      </c>
+      <c r="D114">
+        <v>0</v>
+      </c>
+      <c r="E114">
+        <v>484</v>
+      </c>
+      <c r="F114" t="s">
+        <v>231</v>
+      </c>
+      <c r="G114" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
+      <c r="A115">
+        <v>96</v>
+      </c>
+      <c r="B115">
+        <v>0</v>
+      </c>
+      <c r="C115">
+        <v>230</v>
+      </c>
+      <c r="D115">
+        <v>1</v>
+      </c>
+      <c r="E115">
+        <v>328</v>
+      </c>
+      <c r="F115" t="s">
+        <v>233</v>
+      </c>
+      <c r="G115" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
+      <c r="A116">
+        <v>58</v>
+      </c>
+      <c r="B116">
+        <v>0</v>
+      </c>
+      <c r="C116">
+        <v>223</v>
+      </c>
+      <c r="D116">
+        <v>0</v>
+      </c>
+      <c r="E116">
+        <v>281</v>
+      </c>
+      <c r="F116" t="s">
+        <v>235</v>
+      </c>
+      <c r="G116" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
+      <c r="A117">
+        <v>90</v>
+      </c>
+      <c r="B117">
+        <v>0</v>
+      </c>
+      <c r="C117">
+        <v>227</v>
+      </c>
+      <c r="D117">
+        <v>0</v>
+      </c>
+      <c r="E117">
+        <v>317</v>
+      </c>
+      <c r="F117" t="s">
+        <v>237</v>
+      </c>
+      <c r="G117" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
+      <c r="A118">
+        <v>62</v>
+      </c>
+      <c r="B118">
+        <v>0</v>
+      </c>
+      <c r="C118">
+        <v>199</v>
+      </c>
+      <c r="D118">
+        <v>0</v>
+      </c>
+      <c r="E118">
+        <v>263</v>
+      </c>
+      <c r="F118" t="s">
+        <v>239</v>
+      </c>
+      <c r="G118" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
+      <c r="A119">
+        <v>97</v>
+      </c>
+      <c r="B119">
+        <v>0</v>
+      </c>
+      <c r="C119">
+        <v>240</v>
+      </c>
+      <c r="D119">
+        <v>0</v>
+      </c>
+      <c r="E119">
+        <v>337</v>
+      </c>
+      <c r="F119" t="s">
+        <v>241</v>
+      </c>
+      <c r="G119" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
+      <c r="A120">
+        <v>50</v>
+      </c>
+      <c r="B120">
+        <v>0</v>
+      </c>
+      <c r="C120">
+        <v>272</v>
+      </c>
+      <c r="D120">
+        <v>0</v>
+      </c>
+      <c r="E120">
+        <v>323</v>
+      </c>
+      <c r="F120" t="s">
+        <v>243</v>
+      </c>
+      <c r="G120" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
+      <c r="A121">
+        <v>78</v>
+      </c>
+      <c r="B121">
+        <v>1</v>
+      </c>
+      <c r="C121">
+        <v>235</v>
+      </c>
+      <c r="D121">
+        <v>0</v>
+      </c>
+      <c r="E121">
+        <v>314</v>
+      </c>
+      <c r="F121" t="s">
+        <v>245</v>
+      </c>
+      <c r="G121" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
+      <c r="A122">
+        <v>54</v>
+      </c>
+      <c r="B122">
+        <v>1</v>
+      </c>
+      <c r="C122">
+        <v>218</v>
+      </c>
+      <c r="D122">
+        <v>1</v>
+      </c>
+      <c r="E122">
+        <v>274</v>
+      </c>
+      <c r="F122" t="s">
+        <v>247</v>
+      </c>
+      <c r="G122" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
+      <c r="A123">
+        <v>89</v>
+      </c>
+      <c r="B123">
+        <v>0</v>
+      </c>
+      <c r="C123">
+        <v>198</v>
+      </c>
+      <c r="D123">
+        <v>1</v>
+      </c>
+      <c r="E123">
+        <v>289</v>
+      </c>
+      <c r="F123" t="s">
+        <v>249</v>
+      </c>
+      <c r="G123" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
+      <c r="A124">
+        <v>58</v>
+      </c>
+      <c r="B124">
+        <v>1</v>
+      </c>
+      <c r="C124">
+        <v>200</v>
+      </c>
+      <c r="D124">
+        <v>0</v>
+      </c>
+      <c r="E124">
+        <v>259</v>
+      </c>
+      <c r="F124" t="s">
+        <v>251</v>
+      </c>
+      <c r="G124" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7">
+      <c r="A125">
+        <v>260</v>
+      </c>
+      <c r="B125">
+        <v>1</v>
+      </c>
+      <c r="C125">
+        <v>231</v>
+      </c>
+      <c r="D125">
+        <v>0</v>
+      </c>
+      <c r="E125">
+        <v>492</v>
+      </c>
+      <c r="F125" t="s">
+        <v>253</v>
+      </c>
+      <c r="G125" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7">
+      <c r="A126">
+        <v>58</v>
+      </c>
+      <c r="B126">
+        <v>0</v>
+      </c>
+      <c r="C126">
+        <v>260</v>
+      </c>
+      <c r="D126">
+        <v>1</v>
+      </c>
+      <c r="E126">
+        <v>319</v>
+      </c>
+      <c r="F126" t="s">
+        <v>255</v>
+      </c>
+      <c r="G126" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7">
+      <c r="A127">
+        <v>89</v>
+      </c>
+      <c r="B127">
+        <v>0</v>
+      </c>
+      <c r="C127">
+        <v>201</v>
+      </c>
+      <c r="D127">
+        <v>0</v>
+      </c>
+      <c r="E127">
+        <v>290</v>
+      </c>
+      <c r="F127" t="s">
+        <v>257</v>
+      </c>
+      <c r="G127" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7">
+      <c r="A128">
+        <v>132</v>
+      </c>
+      <c r="B128">
+        <v>0</v>
+      </c>
+      <c r="C128">
+        <v>220</v>
+      </c>
+      <c r="D128">
+        <v>0</v>
+      </c>
+      <c r="E128">
+        <v>352</v>
+      </c>
+      <c r="F128" t="s">
+        <v>259</v>
+      </c>
+      <c r="G128" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7">
+      <c r="A129">
+        <v>77</v>
+      </c>
+      <c r="B129">
+        <v>1</v>
+      </c>
+      <c r="C129">
+        <v>255</v>
+      </c>
+      <c r="D129">
+        <v>0</v>
+      </c>
+      <c r="E129">
+        <v>333</v>
+      </c>
+      <c r="F129" t="s">
+        <v>261</v>
+      </c>
+      <c r="G129" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7">
+      <c r="A130">
+        <v>54</v>
+      </c>
+      <c r="B130">
+        <v>0</v>
+      </c>
+      <c r="C130">
+        <v>256</v>
+      </c>
+      <c r="D130">
+        <v>0</v>
+      </c>
+      <c r="E130">
+        <v>310</v>
+      </c>
+      <c r="F130" t="s">
+        <v>263</v>
+      </c>
+      <c r="G130" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7">
+      <c r="A131">
+        <v>84</v>
+      </c>
+      <c r="B131">
+        <v>0</v>
+      </c>
+      <c r="C131">
+        <v>213</v>
+      </c>
+      <c r="D131">
+        <v>0</v>
+      </c>
+      <c r="E131">
+        <v>297</v>
+      </c>
+      <c r="F131" t="s">
+        <v>265</v>
+      </c>
+      <c r="G131" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7">
+      <c r="A132">
+        <v>56</v>
+      </c>
+      <c r="B132">
+        <v>0</v>
+      </c>
+      <c r="C132">
+        <v>220</v>
+      </c>
+      <c r="D132">
+        <v>0</v>
+      </c>
+      <c r="E132">
+        <v>276</v>
+      </c>
+      <c r="F132" t="s">
+        <v>267</v>
+      </c>
+      <c r="G132" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7">
+      <c r="A133">
+        <v>90</v>
+      </c>
+      <c r="B133">
+        <v>0</v>
+      </c>
+      <c r="C133">
+        <v>225</v>
+      </c>
+      <c r="D133">
+        <v>0</v>
+      </c>
+      <c r="E133">
+        <v>315</v>
+      </c>
+      <c r="F133" t="s">
+        <v>269</v>
+      </c>
+      <c r="G133" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7">
+      <c r="A134">
+        <v>55</v>
+      </c>
+      <c r="B134">
+        <v>1</v>
+      </c>
+      <c r="C134">
+        <v>219</v>
+      </c>
+      <c r="D134">
+        <v>0</v>
+      </c>
+      <c r="E134">
+        <v>275</v>
+      </c>
+      <c r="F134" t="s">
+        <v>271</v>
+      </c>
+      <c r="G134" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7">
+      <c r="A135">
+        <v>80</v>
+      </c>
+      <c r="B135">
+        <v>0</v>
+      </c>
+      <c r="C135">
+        <v>208</v>
+      </c>
+      <c r="D135">
+        <v>0</v>
+      </c>
+      <c r="E135">
+        <v>288</v>
+      </c>
+      <c r="F135" t="s">
+        <v>273</v>
+      </c>
+      <c r="G135" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7">
+      <c r="A136">
+        <v>52</v>
+      </c>
+      <c r="B136">
+        <v>0</v>
+      </c>
+      <c r="C136">
+        <v>254</v>
+      </c>
+      <c r="D136">
+        <v>0</v>
+      </c>
+      <c r="E136">
+        <v>306</v>
+      </c>
+      <c r="F136" t="s">
+        <v>275</v>
+      </c>
+      <c r="G136" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7">
+      <c r="A137">
+        <v>56</v>
+      </c>
+      <c r="B137">
+        <v>0</v>
+      </c>
+      <c r="C137">
+        <v>240</v>
+      </c>
+      <c r="D137">
+        <v>0</v>
+      </c>
+      <c r="E137">
+        <v>296</v>
+      </c>
+      <c r="F137" t="s">
+        <v>277</v>
+      </c>
+      <c r="G137" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7">
+      <c r="A138">
+        <v>90</v>
+      </c>
+      <c r="B138">
+        <v>0</v>
+      </c>
+      <c r="C138">
+        <v>238</v>
+      </c>
+      <c r="D138">
+        <v>0</v>
+      </c>
+      <c r="E138">
+        <v>328</v>
+      </c>
+      <c r="F138" t="s">
+        <v>279</v>
+      </c>
+      <c r="G138" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7">
+      <c r="A139">
+        <v>67</v>
+      </c>
+      <c r="B139">
+        <v>0</v>
+      </c>
+      <c r="C139">
+        <v>232</v>
+      </c>
+      <c r="D139">
+        <v>0</v>
+      </c>
+      <c r="E139">
+        <v>300</v>
+      </c>
+      <c r="F139" t="s">
+        <v>281</v>
+      </c>
+      <c r="G139" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7">
+      <c r="A140">
+        <v>53</v>
+      </c>
+      <c r="B140">
+        <v>0</v>
+      </c>
+      <c r="C140">
+        <v>247</v>
+      </c>
+      <c r="D140">
+        <v>0</v>
+      </c>
+      <c r="E140">
+        <v>301</v>
+      </c>
+      <c r="F140" t="s">
+        <v>283</v>
+      </c>
+      <c r="G140" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7">
+      <c r="A141">
+        <v>51</v>
+      </c>
+      <c r="B141">
+        <v>1</v>
+      </c>
+      <c r="C141">
+        <v>209</v>
+      </c>
+      <c r="D141">
+        <v>0</v>
+      </c>
+      <c r="E141">
+        <v>261</v>
+      </c>
+      <c r="F141" t="s">
+        <v>285</v>
+      </c>
+      <c r="G141" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7">
+      <c r="A142">
+        <v>80</v>
+      </c>
+      <c r="B142">
+        <v>0</v>
+      </c>
+      <c r="C142">
+        <v>231</v>
+      </c>
+      <c r="D142">
+        <v>0</v>
+      </c>
+      <c r="E142">
+        <v>311</v>
+      </c>
+      <c r="F142" t="s">
+        <v>287</v>
+      </c>
+      <c r="G142" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7">
+      <c r="A143">
+        <v>58</v>
+      </c>
+      <c r="B143">
+        <v>0</v>
+      </c>
+      <c r="C143">
+        <v>211</v>
+      </c>
+      <c r="D143">
+        <v>1</v>
+      </c>
+      <c r="E143">
+        <v>270</v>
+      </c>
+      <c r="F143" t="s">
+        <v>289</v>
+      </c>
+      <c r="G143" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7">
+      <c r="A144">
+        <v>78</v>
+      </c>
+      <c r="B144">
+        <v>0</v>
+      </c>
+      <c r="C144">
+        <v>210</v>
+      </c>
+      <c r="D144">
+        <v>1</v>
+      </c>
+      <c r="E144">
+        <v>289</v>
+      </c>
+      <c r="F144" t="s">
+        <v>291</v>
+      </c>
+      <c r="G144" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7">
+      <c r="A145">
+        <v>49</v>
+      </c>
+      <c r="B145">
+        <v>0</v>
+      </c>
+      <c r="C145">
+        <v>208</v>
+      </c>
+      <c r="D145">
+        <v>0</v>
+      </c>
+      <c r="E145">
+        <v>257</v>
+      </c>
+      <c r="F145" t="s">
+        <v>293</v>
+      </c>
+      <c r="G145" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7">
+      <c r="A146">
+        <v>91</v>
+      </c>
+      <c r="B146">
+        <v>0</v>
+      </c>
+      <c r="C146">
+        <v>211</v>
+      </c>
+      <c r="D146">
+        <v>0</v>
+      </c>
+      <c r="E146">
+        <v>302</v>
+      </c>
+      <c r="F146" t="s">
+        <v>295</v>
+      </c>
+      <c r="G146" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7">
+      <c r="A147">
+        <v>60</v>
+      </c>
+      <c r="B147">
+        <v>0</v>
+      </c>
+      <c r="C147">
+        <v>210</v>
+      </c>
+      <c r="D147">
+        <v>0</v>
+      </c>
+      <c r="E147">
+        <v>270</v>
+      </c>
+      <c r="F147" t="s">
+        <v>297</v>
+      </c>
+      <c r="G147" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7">
+      <c r="A148">
+        <v>101</v>
+      </c>
+      <c r="B148">
+        <v>0</v>
+      </c>
+      <c r="C148">
+        <v>216</v>
+      </c>
+      <c r="D148">
+        <v>0</v>
+      </c>
+      <c r="E148">
+        <v>317</v>
+      </c>
+      <c r="F148" t="s">
+        <v>299</v>
+      </c>
+      <c r="G148" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7">
+      <c r="A149">
+        <v>62</v>
+      </c>
+      <c r="B149">
+        <v>0</v>
+      </c>
+      <c r="C149">
+        <v>230</v>
+      </c>
+      <c r="D149">
+        <v>0</v>
+      </c>
+      <c r="E149">
+        <v>292</v>
+      </c>
+      <c r="F149" t="s">
+        <v>301</v>
+      </c>
+      <c r="G149" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7">
+      <c r="A150">
+        <v>100</v>
+      </c>
+      <c r="B150">
+        <v>0</v>
+      </c>
+      <c r="C150">
+        <v>213</v>
+      </c>
+      <c r="D150">
+        <v>0</v>
+      </c>
+      <c r="E150">
+        <v>313</v>
+      </c>
+      <c r="F150" t="s">
+        <v>303</v>
+      </c>
+      <c r="G150" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7">
+      <c r="A151">
+        <v>57</v>
+      </c>
+      <c r="B151">
+        <v>0</v>
+      </c>
+      <c r="C151">
+        <v>262</v>
+      </c>
+      <c r="D151">
+        <v>0</v>
+      </c>
+      <c r="E151">
+        <v>319</v>
+      </c>
+      <c r="F151" t="s">
+        <v>305</v>
+      </c>
+      <c r="G151" t="s">
+        <v>306</v>
       </c>
     </row>
   </sheetData>

--- a/Server_time.xlsx
+++ b/Server_time.xlsx
@@ -37,904 +37,904 @@
     <t>End time</t>
   </si>
   <si>
-    <t>2018-05-22 20:48:07.891421</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:11.630767</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:11.630899</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:11.824704</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:11.824808</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:12.052865</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:12.053686</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:12.252861</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:12.252948</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:12.484593</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:12.484696</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:12.684641</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:12.684726</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:12.917935</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:12.918020</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:13.109561</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:13.109650</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:13.353557</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:13.353647</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:13.553242</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:13.553333</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:13.773305</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:13.773396</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:13.973418</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:13.973509</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:14.200551</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:14.200642</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:14.403055</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:14.403146</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:14.617800</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:14.617891</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:14.816823</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:14.816921</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:15.023661</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:15.023752</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:15.246136</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:15.246226</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:15.495307</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:15.495397</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:15.699253</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:15.699347</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:15.937034</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:15.937124</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:16.139083</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:16.139174</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:16.367848</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:16.367938</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:16.567826</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:16.567916</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:16.872353</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:16.885160</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:17.098998</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:17.099212</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:17.365800</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:17.365898</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:17.587320</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:17.587409</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:17.828646</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:17.828754</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:18.044775</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:18.044867</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:18.290974</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:18.291064</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:18.502329</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:18.502435</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:18.742073</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:18.742291</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:18.955352</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:18.955443</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:19.208539</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:19.208631</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:19.420359</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:19.420450</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:19.689946</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:19.690035</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:19.912070</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:19.912161</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:20.157421</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:20.157582</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:20.371162</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:20.371322</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:20.618702</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:20.618840</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:20.832262</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:20.832397</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:21.095623</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:21.095814</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:21.322905</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:21.322995</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:21.574550</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:21.574641</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:21.793098</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:21.793190</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:22.032803</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:22.032908</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:22.255065</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:22.255154</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:22.516913</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:22.517002</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:22.771834</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:22.772060</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:23.029688</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:23.029778</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:23.282561</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:23.282651</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:23.558961</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:23.559091</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:23.817163</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:23.817287</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:24.075819</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:24.075909</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:24.306135</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:24.306224</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:24.598944</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:24.599035</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:25.026474</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:25.026564</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:25.276966</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:25.277058</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:25.514323</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:25.514411</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:25.817746</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:25.817890</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:26.056278</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:26.056409</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:26.324499</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:26.324592</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:26.547907</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:26.547999</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:26.850460</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:26.850597</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:27.070963</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:27.071106</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:27.343778</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:27.343868</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:27.581466</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:27.581559</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:27.855965</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:27.856055</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:28.089836</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:28.089927</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:28.339916</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:28.340019</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:28.572840</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:28.572932</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:28.858040</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:28.858164</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:29.111088</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:29.111177</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:29.558586</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:29.558716</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:29.822811</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:29.822924</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:30.331003</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:30.331144</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:30.604424</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:30.604551</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:30.892029</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:30.892119</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:31.131243</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:31.131335</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:31.443450</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:31.443543</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:31.687388</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:31.687480</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:32.019613</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:32.019705</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:32.254732</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:32.254836</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:32.518354</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:32.518443</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:32.757886</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:32.757974</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:33.022179</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:33.022270</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:33.309602</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:33.309706</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:33.586927</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:33.587019</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:33.856485</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:33.856576</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:34.138914</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:34.139008</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:34.421614</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:34.421706</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:34.683295</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:34.683389</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:35.199531</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:35.199636</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:35.486774</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:35.486866</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:35.833112</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:35.833235</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:36.125624</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:36.125714</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:36.410368</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:36.410457</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:36.735537</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:36.735639</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:37.018528</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:37.018619</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:37.261804</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:37.261928</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:37.621640</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:37.621753</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:37.922717</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:37.922864</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:38.199274</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:38.199363</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:38.499435</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:38.499526</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:38.813635</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:38.813726</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:39.160469</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:39.160574</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:39.552831</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:39.552956</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:39.817596</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:39.817687</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:40.178893</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:40.178985</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:40.503284</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:40.503373</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:40.788867</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:40.788958</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:41.273052</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:41.273145</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:41.600618</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:41.600750</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:41.882350</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:41.882440</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:42.199183</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:42.199277</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:42.461637</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:42.461758</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:42.799118</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:42.799213</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:43.121836</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:43.121949</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:43.436483</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:43.436574</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:43.710721</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:43.710812</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:43.999587</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:43.999679</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:44.258675</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:44.258766</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:44.750887</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:44.751005</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:45.069741</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:45.069834</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:45.359836</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:45.359927</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:45.712254</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:45.712344</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:46.045479</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:46.045577</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:46.356032</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:46.356162</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:46.653118</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:46.653208</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:46.929034</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:46.929126</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:47.243696</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:47.243788</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:47.519049</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:47.519154</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:47.807322</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:47.807415</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:48.112693</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:48.112877</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:48.408896</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:48.408988</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:48.737379</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:48.737468</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:49.036963</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:49.037094</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:49.337515</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:49.337606</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:49.599058</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:49.599148</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:49.910493</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:49.910586</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:50.180797</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:50.180886</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:50.469731</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:50.469884</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:50.727201</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:50.727293</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:51.029059</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:51.029150</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:51.298827</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:51.298917</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:51.616358</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:51.616544</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:51.909205</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:51.909295</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:52.222172</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:52.222265</t>
-  </si>
-  <si>
-    <t>2018-05-22 20:48:52.541490</t>
+    <t>2018-05-22 20:52:17.909484</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:21.491730</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:21.491844</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:21.692983</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:21.693076</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:21.895529</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:21.895621</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:22.107071</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:22.107164</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:22.351329</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:22.351421</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:22.563158</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:22.563250</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:22.795577</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:22.795669</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:22.999392</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:22.999590</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:23.229541</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:23.229633</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:23.453709</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:23.453855</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:23.688782</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:23.688876</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:23.892653</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:23.892760</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:24.146540</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:24.146632</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:24.363695</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:24.363785</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:24.593644</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:24.593735</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:24.813220</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:24.813311</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:25.057063</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:25.057155</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:25.267949</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:25.268041</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:25.507574</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:25.507665</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:25.706901</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:25.707071</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:25.916465</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:25.916556</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:26.125614</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:26.125705</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:26.335943</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:26.336034</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:26.561730</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:26.561836</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:26.768195</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:26.768287</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:26.999685</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:26.999778</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:27.215289</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:27.215376</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:27.477578</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:27.477669</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:27.713512</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:27.713604</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:27.978003</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:27.978093</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:28.203006</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:28.203103</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:28.425899</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:28.425991</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:28.699453</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:28.699563</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:28.929330</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:28.929494</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:29.166783</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:29.166873</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:29.391566</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:29.391656</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:29.658145</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:29.658235</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:29.922437</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:29.922527</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:30.232135</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:30.232226</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:30.466960</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:30.467051</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:30.731753</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:30.731844</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:30.969653</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:30.969744</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:31.211328</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:31.211417</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:31.474530</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:31.474623</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:31.713067</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:31.713169</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:31.968074</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:31.968164</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:32.186827</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:32.186917</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:32.436602</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:32.436694</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:32.658859</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:32.658952</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:32.871014</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:32.871108</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:33.148020</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:33.148111</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:33.390071</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:33.390162</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:33.641930</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:33.642063</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:33.891143</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:33.891233</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:34.160422</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:34.160520</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:34.398331</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:34.398427</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:34.648370</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:34.648462</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:34.875752</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:34.875845</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:35.143086</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:35.143178</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:35.406862</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:35.406955</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:35.659162</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:35.659255</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:35.905329</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:35.905424</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:36.163228</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:36.163321</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:36.400013</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:36.400106</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:36.631327</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:36.631418</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:36.885528</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:36.885637</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:37.133462</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:37.133555</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:37.391770</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:37.391860</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:37.630678</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:37.630770</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:37.912693</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:37.912798</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:38.148505</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:38.148595</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:38.411291</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:38.411384</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:38.673758</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:38.673848</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:39.108500</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:39.108595</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:39.391791</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:39.391934</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:39.673358</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:39.673450</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:39.916075</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:39.916168</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:40.186834</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:40.186931</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:40.430025</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:40.430116</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:40.693234</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:40.693325</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:40.926354</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:40.926446</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:41.189838</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:41.189934</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:41.430562</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:41.430656</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:41.710676</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:41.710766</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:41.979958</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:41.980104</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:42.239668</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:42.239760</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:42.516079</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:42.516172</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:42.771051</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:42.771156</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:43.025072</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:43.025163</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:43.315483</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:43.315576</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:43.574314</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:43.574406</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:43.844599</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:43.844692</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:44.101366</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:44.101456</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:44.368672</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:44.368771</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:44.657601</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:44.657692</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:46.156862</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:46.156985</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:46.431721</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:46.431814</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:46.678024</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:46.678117</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:46.947879</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:46.947971</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:47.196429</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:47.196536</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:47.477419</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:47.477509</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:47.795090</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:47.795182</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:48.075826</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:48.075983</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:48.379473</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:48.379565</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:48.633279</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:48.633369</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:48.916281</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:48.916373</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:49.166910</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:49.167002</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:49.494376</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:49.494466</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:49.761193</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:49.761284</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:50.012390</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:50.012498</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:50.305030</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:50.305119</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:50.565744</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:50.565836</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:50.847111</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:50.847204</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:51.107896</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:51.107989</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:51.451222</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:51.451316</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:51.714546</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:51.714636</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:52.041683</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:52.041779</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:52.335578</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:52.335684</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:52.603264</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:52.603398</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:53.067789</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:53.067881</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:53.327641</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:53.327732</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:53.619313</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:53.619405</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:54.145440</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:54.145534</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:54.430336</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:54.430421</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:54.962023</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:54.962118</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:55.247236</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:55.247328</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:55.511805</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:55.511898</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:55.885118</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:55.885242</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:56.162598</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:56.162690</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:56.460056</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:56.460148</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:56.746945</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:56.747036</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:57.053218</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:57.053310</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:57.328907</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:57.329038</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:57.644551</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:57.644678</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:57.927328</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:57.927459</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:58.237591</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:58.237682</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:58.532381</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:58.532475</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:58.837356</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:58.837448</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:59.182633</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:59.182723</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:59.500588</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:59.500680</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:59.770248</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:52:59.770340</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:53:00.073906</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:53:00.073998</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:53:00.340222</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:53:00.340346</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:53:00.645614</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:53:00.645707</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:53:00.910860</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:53:00.910952</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:53:01.211152</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:53:01.211243</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:53:01.511300</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:53:01.511394</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:53:01.904794</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:53:01.904888</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:53:02.332727</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:53:02.332890</t>
+  </si>
+  <si>
+    <t>2018-05-22 20:53:02.650315</t>
   </si>
 </sst>
 </file>
@@ -1297,19 +1297,19 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>3600</v>
+        <v>3442</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>3740</v>
+        <v>3583</v>
       </c>
       <c r="F2" t="s">
         <v>7</v>
@@ -1320,7 +1320,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1332,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="F3" t="s">
         <v>9</v>
@@ -1343,19 +1343,19 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
       <c r="C4">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4">
-        <v>228</v>
+        <v>203</v>
       </c>
       <c r="F4" t="s">
         <v>11</v>
@@ -1366,19 +1366,19 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="C5">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="F5" t="s">
         <v>13</v>
@@ -1389,19 +1389,19 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="F6" t="s">
         <v>15</v>
@@ -1412,19 +1412,19 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="F7" t="s">
         <v>17</v>
@@ -1441,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8">
         <v>233</v>
@@ -1458,19 +1458,19 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
       <c r="C9">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="F9" t="s">
         <v>21</v>
@@ -1481,19 +1481,19 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="E10">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="F10" t="s">
         <v>23</v>
@@ -1504,19 +1504,19 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="C11">
-        <v>143</v>
+        <v>165</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>199</v>
+        <v>224</v>
       </c>
       <c r="F11" t="s">
         <v>25</v>
@@ -1527,19 +1527,19 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="C12">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>220</v>
+        <v>235</v>
       </c>
       <c r="F12" t="s">
         <v>27</v>
@@ -1550,19 +1550,19 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
       <c r="C13">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="F13" t="s">
         <v>29</v>
@@ -1573,19 +1573,19 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
       <c r="E14">
-        <v>227</v>
+        <v>254</v>
       </c>
       <c r="F14" t="s">
         <v>31</v>
@@ -1596,19 +1596,19 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>202</v>
+        <v>217</v>
       </c>
       <c r="F15" t="s">
         <v>33</v>
@@ -1619,19 +1619,19 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="F16" t="s">
         <v>35</v>
@@ -1642,19 +1642,19 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>199</v>
+        <v>219</v>
       </c>
       <c r="F17" t="s">
         <v>37</v>
@@ -1665,19 +1665,19 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>207</v>
+        <v>244</v>
       </c>
       <c r="F18" t="s">
         <v>39</v>
@@ -1688,19 +1688,19 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="B19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C19">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="F19" t="s">
         <v>41</v>
@@ -1711,19 +1711,19 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B20">
         <v>0</v>
       </c>
       <c r="C20">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="F20" t="s">
         <v>43</v>
@@ -1734,19 +1734,19 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="F21" t="s">
         <v>45</v>
@@ -1757,19 +1757,19 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22">
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="B22">
         <v>0</v>
       </c>
       <c r="C22">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>238</v>
+        <v>209</v>
       </c>
       <c r="F22" t="s">
         <v>47</v>
@@ -1783,16 +1783,16 @@
         <v>52</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="F23" t="s">
         <v>49</v>
@@ -1803,19 +1803,19 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="B24">
         <v>0</v>
       </c>
       <c r="C24">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>229</v>
+        <v>210</v>
       </c>
       <c r="F24" t="s">
         <v>51</v>
@@ -1826,19 +1826,19 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C25">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>200</v>
+        <v>226</v>
       </c>
       <c r="F25" t="s">
         <v>53</v>
@@ -1849,19 +1849,19 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26">
-        <v>93</v>
+        <v>57</v>
       </c>
       <c r="B26">
         <v>0</v>
       </c>
       <c r="C26">
-        <v>211</v>
+        <v>149</v>
       </c>
       <c r="D26">
         <v>0</v>
       </c>
       <c r="E26">
-        <v>304</v>
+        <v>206</v>
       </c>
       <c r="F26" t="s">
         <v>55</v>
@@ -1872,19 +1872,19 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
       <c r="C27">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="D27">
         <v>0</v>
       </c>
       <c r="E27">
-        <v>214</v>
+        <v>232</v>
       </c>
       <c r="F27" t="s">
         <v>57</v>
@@ -1895,19 +1895,19 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28">
-        <v>91</v>
+        <v>59</v>
       </c>
       <c r="B28">
         <v>0</v>
       </c>
       <c r="C28">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="D28">
         <v>0</v>
       </c>
       <c r="E28">
-        <v>267</v>
+        <v>215</v>
       </c>
       <c r="F28" t="s">
         <v>59</v>
@@ -1918,19 +1918,19 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C29">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29">
-        <v>221</v>
+        <v>263</v>
       </c>
       <c r="F29" t="s">
         <v>61</v>
@@ -1941,19 +1941,19 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30">
-        <v>83</v>
+        <v>51</v>
       </c>
       <c r="B30">
         <v>0</v>
       </c>
       <c r="C30">
-        <v>159</v>
+        <v>184</v>
       </c>
       <c r="D30">
         <v>0</v>
       </c>
       <c r="E30">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="F30" t="s">
         <v>63</v>
@@ -1964,19 +1964,19 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="B31">
         <v>0</v>
       </c>
       <c r="C31">
-        <v>155</v>
+        <v>179</v>
       </c>
       <c r="D31">
         <v>0</v>
       </c>
       <c r="E31">
-        <v>216</v>
+        <v>264</v>
       </c>
       <c r="F31" t="s">
         <v>65</v>
@@ -1987,19 +1987,19 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="B32">
         <v>0</v>
       </c>
       <c r="C32">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="D32">
         <v>0</v>
       </c>
       <c r="E32">
-        <v>246</v>
+        <v>225</v>
       </c>
       <c r="F32" t="s">
         <v>67</v>
@@ -2010,19 +2010,19 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="B33">
         <v>0</v>
       </c>
       <c r="C33">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="D33">
         <v>0</v>
       </c>
       <c r="E33">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="F33" t="s">
         <v>69</v>
@@ -2033,19 +2033,19 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B34">
         <v>0</v>
       </c>
       <c r="C34">
-        <v>153</v>
+        <v>189</v>
       </c>
       <c r="D34">
         <v>0</v>
       </c>
       <c r="E34">
-        <v>240</v>
+        <v>273</v>
       </c>
       <c r="F34" t="s">
         <v>71</v>
@@ -2056,19 +2056,19 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B35">
         <v>0</v>
       </c>
       <c r="C35">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="D35">
         <v>0</v>
       </c>
       <c r="E35">
-        <v>213</v>
+        <v>229</v>
       </c>
       <c r="F35" t="s">
         <v>73</v>
@@ -2079,19 +2079,19 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="B36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C36">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E36">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="F36" t="s">
         <v>75</v>
@@ -2102,7 +2102,7 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -2111,10 +2111,10 @@
         <v>160</v>
       </c>
       <c r="D37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E37">
-        <v>211</v>
+        <v>225</v>
       </c>
       <c r="F37" t="s">
         <v>77</v>
@@ -2125,19 +2125,19 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38">
-        <v>112</v>
+        <v>77</v>
       </c>
       <c r="B38">
         <v>0</v>
       </c>
       <c r="C38">
-        <v>158</v>
+        <v>189</v>
       </c>
       <c r="D38">
         <v>0</v>
       </c>
       <c r="E38">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="F38" t="s">
         <v>79</v>
@@ -2148,19 +2148,19 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C39">
-        <v>158</v>
+        <v>202</v>
       </c>
       <c r="D39">
         <v>0</v>
       </c>
       <c r="E39">
-        <v>222</v>
+        <v>264</v>
       </c>
       <c r="F39" t="s">
         <v>81</v>
@@ -2171,19 +2171,19 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40">
-        <v>86</v>
+        <v>129</v>
       </c>
       <c r="B40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C40">
-        <v>158</v>
+        <v>180</v>
       </c>
       <c r="D40">
         <v>0</v>
       </c>
       <c r="E40">
-        <v>245</v>
+        <v>309</v>
       </c>
       <c r="F40" t="s">
         <v>83</v>
@@ -2194,19 +2194,19 @@
     </row>
     <row r="41" spans="1:7">
       <c r="A41">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B41">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C41">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="D41">
         <v>0</v>
       </c>
       <c r="E41">
-        <v>213</v>
+        <v>235</v>
       </c>
       <c r="F41" t="s">
         <v>85</v>
@@ -2217,19 +2217,19 @@
     </row>
     <row r="42" spans="1:7">
       <c r="A42">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C42">
-        <v>159</v>
+        <v>181</v>
       </c>
       <c r="D42">
         <v>0</v>
       </c>
       <c r="E42">
-        <v>248</v>
+        <v>265</v>
       </c>
       <c r="F42" t="s">
         <v>87</v>
@@ -2240,19 +2240,19 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C43">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="D43">
         <v>0</v>
       </c>
       <c r="E43">
-        <v>213</v>
+        <v>238</v>
       </c>
       <c r="F43" t="s">
         <v>89</v>
@@ -2263,19 +2263,19 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44">
-        <v>96</v>
+        <v>59</v>
       </c>
       <c r="B44">
         <v>0</v>
       </c>
       <c r="C44">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="D44">
         <v>0</v>
       </c>
       <c r="E44">
-        <v>264</v>
+        <v>241</v>
       </c>
       <c r="F44" t="s">
         <v>91</v>
@@ -2286,19 +2286,19 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
       <c r="C45">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="D45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E45">
-        <v>227</v>
+        <v>264</v>
       </c>
       <c r="F45" t="s">
         <v>93</v>
@@ -2309,19 +2309,19 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46">
-        <v>87</v>
+        <v>54</v>
       </c>
       <c r="B46">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C46">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="D46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E46">
-        <v>252</v>
+        <v>238</v>
       </c>
       <c r="F46" t="s">
         <v>95</v>
@@ -2332,19 +2332,19 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="B47">
         <v>0</v>
       </c>
       <c r="C47">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="D47">
         <v>0</v>
       </c>
       <c r="E47">
-        <v>218</v>
+        <v>255</v>
       </c>
       <c r="F47" t="s">
         <v>97</v>
@@ -2355,19 +2355,19 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="B48">
         <v>0</v>
       </c>
       <c r="C48">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="D48">
         <v>0</v>
       </c>
       <c r="E48">
-        <v>240</v>
+        <v>219</v>
       </c>
       <c r="F48" t="s">
         <v>99</v>
@@ -2378,19 +2378,19 @@
     </row>
     <row r="49" spans="1:7">
       <c r="A49">
-        <v>58</v>
+        <v>84</v>
       </c>
       <c r="B49">
         <v>0</v>
       </c>
       <c r="C49">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D49">
         <v>0</v>
       </c>
       <c r="E49">
-        <v>222</v>
+        <v>250</v>
       </c>
       <c r="F49" t="s">
         <v>101</v>
@@ -2401,19 +2401,19 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50">
-        <v>94</v>
+        <v>62</v>
       </c>
       <c r="B50">
         <v>0</v>
       </c>
       <c r="C50">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="D50">
         <v>0</v>
       </c>
       <c r="E50">
-        <v>262</v>
+        <v>222</v>
       </c>
       <c r="F50" t="s">
         <v>103</v>
@@ -2424,19 +2424,19 @@
     </row>
     <row r="51" spans="1:7">
       <c r="A51">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="B51">
         <v>0</v>
       </c>
       <c r="C51">
-        <v>190</v>
+        <v>162</v>
       </c>
       <c r="D51">
         <v>0</v>
       </c>
       <c r="E51">
-        <v>255</v>
+        <v>212</v>
       </c>
       <c r="F51" t="s">
         <v>105</v>
@@ -2447,19 +2447,19 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
       <c r="C52">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="D52">
         <v>0</v>
       </c>
       <c r="E52">
-        <v>258</v>
+        <v>277</v>
       </c>
       <c r="F52" t="s">
         <v>107</v>
@@ -2470,19 +2470,19 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C53">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E53">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="F53" t="s">
         <v>109</v>
@@ -2493,19 +2493,19 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B54">
         <v>0</v>
       </c>
       <c r="C54">
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="D54">
         <v>0</v>
       </c>
       <c r="E54">
-        <v>276</v>
+        <v>252</v>
       </c>
       <c r="F54" t="s">
         <v>111</v>
@@ -2516,19 +2516,19 @@
     </row>
     <row r="55" spans="1:7">
       <c r="A55">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B55">
         <v>0</v>
       </c>
       <c r="C55">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="D55">
         <v>0</v>
       </c>
       <c r="E55">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="F55" t="s">
         <v>113</v>
@@ -2539,19 +2539,19 @@
     </row>
     <row r="56" spans="1:7">
       <c r="A56">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B56">
         <v>0</v>
       </c>
       <c r="C56">
-        <v>177</v>
+        <v>191</v>
       </c>
       <c r="D56">
         <v>0</v>
       </c>
       <c r="E56">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="F56" t="s">
         <v>115</v>
@@ -2562,19 +2562,19 @@
     </row>
     <row r="57" spans="1:7">
       <c r="A57">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
       <c r="C57">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="D57">
         <v>0</v>
       </c>
       <c r="E57">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="F57" t="s">
         <v>117</v>
@@ -2585,19 +2585,19 @@
     </row>
     <row r="58" spans="1:7">
       <c r="A58">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="B58">
         <v>0</v>
       </c>
       <c r="C58">
-        <v>200</v>
+        <v>169</v>
       </c>
       <c r="D58">
         <v>0</v>
       </c>
       <c r="E58">
-        <v>293</v>
+        <v>250</v>
       </c>
       <c r="F58" t="s">
         <v>119</v>
@@ -2608,19 +2608,19 @@
     </row>
     <row r="59" spans="1:7">
       <c r="A59">
-        <v>240</v>
+        <v>61</v>
       </c>
       <c r="B59">
         <v>0</v>
       </c>
       <c r="C59">
-        <v>187</v>
+        <v>167</v>
       </c>
       <c r="D59">
         <v>0</v>
       </c>
       <c r="E59">
-        <v>427</v>
+        <v>228</v>
       </c>
       <c r="F59" t="s">
         <v>121</v>
@@ -2634,16 +2634,16 @@
         <v>82</v>
       </c>
       <c r="B60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C60">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="D60">
         <v>0</v>
       </c>
       <c r="E60">
-        <v>250</v>
+        <v>267</v>
       </c>
       <c r="F60" t="s">
         <v>123</v>
@@ -2654,19 +2654,19 @@
     </row>
     <row r="61" spans="1:7">
       <c r="A61">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B61">
         <v>0</v>
       </c>
       <c r="C61">
-        <v>185</v>
+        <v>207</v>
       </c>
       <c r="D61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E61">
-        <v>237</v>
+        <v>264</v>
       </c>
       <c r="F61" t="s">
         <v>125</v>
@@ -2677,19 +2677,19 @@
     </row>
     <row r="62" spans="1:7">
       <c r="A62">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B62">
         <v>0</v>
       </c>
       <c r="C62">
-        <v>219</v>
+        <v>170</v>
       </c>
       <c r="D62">
         <v>0</v>
       </c>
       <c r="E62">
-        <v>304</v>
+        <v>252</v>
       </c>
       <c r="F62" t="s">
         <v>127</v>
@@ -2706,13 +2706,13 @@
         <v>0</v>
       </c>
       <c r="C63">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="D63">
         <v>0</v>
       </c>
       <c r="E63">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="F63" t="s">
         <v>129</v>
@@ -2723,19 +2723,19 @@
     </row>
     <row r="64" spans="1:7">
       <c r="A64">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B64">
         <v>0</v>
       </c>
       <c r="C64">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="D64">
         <v>0</v>
       </c>
       <c r="E64">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="F64" t="s">
         <v>131</v>
@@ -2746,19 +2746,19 @@
     </row>
     <row r="65" spans="1:7">
       <c r="A65">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="B65">
         <v>0</v>
       </c>
       <c r="C65">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D65">
         <v>0</v>
       </c>
       <c r="E65">
-        <v>223</v>
+        <v>237</v>
       </c>
       <c r="F65" t="s">
         <v>133</v>
@@ -2769,19 +2769,19 @@
     </row>
     <row r="66" spans="1:7">
       <c r="A66">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="B66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C66">
-        <v>206</v>
+        <v>171</v>
       </c>
       <c r="D66">
         <v>0</v>
       </c>
       <c r="E66">
-        <v>302</v>
+        <v>231</v>
       </c>
       <c r="F66" t="s">
         <v>135</v>
@@ -2792,19 +2792,19 @@
     </row>
     <row r="67" spans="1:7">
       <c r="A67">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="B67">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C67">
         <v>172</v>
       </c>
       <c r="D67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E67">
-        <v>220</v>
+        <v>255</v>
       </c>
       <c r="F67" t="s">
         <v>137</v>
@@ -2815,19 +2815,19 @@
     </row>
     <row r="68" spans="1:7">
       <c r="A68">
-        <v>100</v>
+        <v>63</v>
       </c>
       <c r="B68">
         <v>0</v>
       </c>
       <c r="C68">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="D68">
         <v>0</v>
       </c>
       <c r="E68">
-        <v>273</v>
+        <v>247</v>
       </c>
       <c r="F68" t="s">
         <v>139</v>
@@ -2838,19 +2838,19 @@
     </row>
     <row r="69" spans="1:7">
       <c r="A69">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="B69">
         <v>0</v>
       </c>
       <c r="C69">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D69">
         <v>0</v>
       </c>
       <c r="E69">
-        <v>237</v>
+        <v>258</v>
       </c>
       <c r="F69" t="s">
         <v>141</v>
@@ -2861,19 +2861,19 @@
     </row>
     <row r="70" spans="1:7">
       <c r="A70">
-        <v>97</v>
+        <v>57</v>
       </c>
       <c r="B70">
         <v>0</v>
       </c>
       <c r="C70">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="D70">
         <v>0</v>
       </c>
       <c r="E70">
-        <v>274</v>
+        <v>239</v>
       </c>
       <c r="F70" t="s">
         <v>143</v>
@@ -2884,19 +2884,19 @@
     </row>
     <row r="71" spans="1:7">
       <c r="A71">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="B71">
         <v>0</v>
       </c>
       <c r="C71">
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="D71">
         <v>0</v>
       </c>
       <c r="E71">
-        <v>234</v>
+        <v>282</v>
       </c>
       <c r="F71" t="s">
         <v>145</v>
@@ -2907,19 +2907,19 @@
     </row>
     <row r="72" spans="1:7">
       <c r="A72">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="B72">
         <v>0</v>
       </c>
       <c r="C72">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="D72">
         <v>0</v>
       </c>
       <c r="E72">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="F72" t="s">
         <v>147</v>
@@ -2930,19 +2930,19 @@
     </row>
     <row r="73" spans="1:7">
       <c r="A73">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="B73">
         <v>0</v>
       </c>
       <c r="C73">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="D73">
         <v>0</v>
       </c>
       <c r="E73">
-        <v>233</v>
+        <v>262</v>
       </c>
       <c r="F73" t="s">
         <v>149</v>
@@ -2953,19 +2953,19 @@
     </row>
     <row r="74" spans="1:7">
       <c r="A74">
-        <v>96</v>
+        <v>59</v>
       </c>
       <c r="B74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C74">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="D74">
         <v>0</v>
       </c>
       <c r="E74">
-        <v>285</v>
+        <v>263</v>
       </c>
       <c r="F74" t="s">
         <v>151</v>
@@ -2976,19 +2976,19 @@
     </row>
     <row r="75" spans="1:7">
       <c r="A75">
-        <v>50</v>
+        <v>245</v>
       </c>
       <c r="B75">
         <v>0</v>
       </c>
       <c r="C75">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="D75">
         <v>0</v>
       </c>
       <c r="E75">
-        <v>253</v>
+        <v>434</v>
       </c>
       <c r="F75" t="s">
         <v>153</v>
@@ -2999,19 +2999,19 @@
     </row>
     <row r="76" spans="1:7">
       <c r="A76">
-        <v>239</v>
+        <v>50</v>
       </c>
       <c r="B76">
         <v>0</v>
       </c>
       <c r="C76">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="D76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E76">
-        <v>448</v>
+        <v>283</v>
       </c>
       <c r="F76" t="s">
         <v>155</v>
@@ -3022,19 +3022,19 @@
     </row>
     <row r="77" spans="1:7">
       <c r="A77">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="B77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C77">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="D77">
         <v>0</v>
       </c>
       <c r="E77">
-        <v>264</v>
+        <v>281</v>
       </c>
       <c r="F77" t="s">
         <v>157</v>
@@ -3045,19 +3045,19 @@
     </row>
     <row r="78" spans="1:7">
       <c r="A78">
-        <v>306</v>
+        <v>58</v>
       </c>
       <c r="B78">
         <v>0</v>
       </c>
       <c r="C78">
-        <v>202</v>
+        <v>185</v>
       </c>
       <c r="D78">
         <v>0</v>
       </c>
       <c r="E78">
-        <v>508</v>
+        <v>243</v>
       </c>
       <c r="F78" t="s">
         <v>159</v>
@@ -3068,19 +3068,19 @@
     </row>
     <row r="79" spans="1:7">
       <c r="A79">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
       </c>
       <c r="C79">
-        <v>225</v>
+        <v>187</v>
       </c>
       <c r="D79">
         <v>0</v>
       </c>
       <c r="E79">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F79" t="s">
         <v>161</v>
@@ -3091,19 +3091,19 @@
     </row>
     <row r="80" spans="1:7">
       <c r="A80">
-        <v>94</v>
+        <v>55</v>
       </c>
       <c r="B80">
         <v>0</v>
       </c>
       <c r="C80">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="D80">
         <v>0</v>
       </c>
       <c r="E80">
-        <v>287</v>
+        <v>243</v>
       </c>
       <c r="F80" t="s">
         <v>163</v>
@@ -3114,19 +3114,19 @@
     </row>
     <row r="81" spans="1:7">
       <c r="A81">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="B81">
         <v>0</v>
       </c>
       <c r="C81">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D81">
         <v>0</v>
       </c>
       <c r="E81">
-        <v>239</v>
+        <v>263</v>
       </c>
       <c r="F81" t="s">
         <v>165</v>
@@ -3137,19 +3137,19 @@
     </row>
     <row r="82" spans="1:7">
       <c r="A82">
-        <v>89</v>
+        <v>56</v>
       </c>
       <c r="B82">
         <v>0</v>
       </c>
       <c r="C82">
-        <v>223</v>
+        <v>177</v>
       </c>
       <c r="D82">
         <v>0</v>
       </c>
       <c r="E82">
-        <v>312</v>
+        <v>233</v>
       </c>
       <c r="F82" t="s">
         <v>167</v>
@@ -3160,19 +3160,19 @@
     </row>
     <row r="83" spans="1:7">
       <c r="A83">
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="B83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C83">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D83">
         <v>0</v>
       </c>
       <c r="E83">
-        <v>243</v>
+        <v>264</v>
       </c>
       <c r="F83" t="s">
         <v>169</v>
@@ -3183,19 +3183,19 @@
     </row>
     <row r="84" spans="1:7">
       <c r="A84">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="B84">
         <v>0</v>
       </c>
       <c r="C84">
-        <v>247</v>
+        <v>179</v>
       </c>
       <c r="D84">
         <v>1</v>
       </c>
       <c r="E84">
-        <v>333</v>
+        <v>241</v>
       </c>
       <c r="F84" t="s">
         <v>171</v>
@@ -3206,19 +3206,19 @@
     </row>
     <row r="85" spans="1:7">
       <c r="A85">
-        <v>49</v>
+        <v>88</v>
       </c>
       <c r="B85">
         <v>0</v>
       </c>
       <c r="C85">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="D85">
         <v>0</v>
       </c>
       <c r="E85">
-        <v>235</v>
+        <v>280</v>
       </c>
       <c r="F85" t="s">
         <v>173</v>
@@ -3229,19 +3229,19 @@
     </row>
     <row r="86" spans="1:7">
       <c r="A86">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="B86">
         <v>0</v>
       </c>
       <c r="C86">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="D86">
         <v>0</v>
       </c>
       <c r="E86">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="F86" t="s">
         <v>175</v>
@@ -3252,19 +3252,19 @@
     </row>
     <row r="87" spans="1:7">
       <c r="A87">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="B87">
         <v>0</v>
       </c>
       <c r="C87">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D87">
         <v>0</v>
       </c>
       <c r="E87">
-        <v>240</v>
+        <v>260</v>
       </c>
       <c r="F87" t="s">
         <v>177</v>
@@ -3275,19 +3275,19 @@
     </row>
     <row r="88" spans="1:7">
       <c r="A88">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C88">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="D88">
         <v>0</v>
       </c>
       <c r="E88">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="F88" t="s">
         <v>179</v>
@@ -3298,19 +3298,19 @@
     </row>
     <row r="89" spans="1:7">
       <c r="A89">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B89">
         <v>0</v>
       </c>
       <c r="C89">
-        <v>228</v>
+        <v>201</v>
       </c>
       <c r="D89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E89">
-        <v>288</v>
+        <v>255</v>
       </c>
       <c r="F89" t="s">
         <v>181</v>
@@ -3321,19 +3321,19 @@
     </row>
     <row r="90" spans="1:7">
       <c r="A90">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C90">
-        <v>215</v>
+        <v>195</v>
       </c>
       <c r="D90">
         <v>0</v>
       </c>
       <c r="E90">
-        <v>277</v>
+        <v>254</v>
       </c>
       <c r="F90" t="s">
         <v>183</v>
@@ -3344,19 +3344,19 @@
     </row>
     <row r="91" spans="1:7">
       <c r="A91">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="B91">
         <v>0</v>
       </c>
       <c r="C91">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="D91">
         <v>0</v>
       </c>
       <c r="E91">
-        <v>269</v>
+        <v>290</v>
       </c>
       <c r="F91" t="s">
         <v>185</v>
@@ -3367,19 +3367,19 @@
     </row>
     <row r="92" spans="1:7">
       <c r="A92">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="B92">
         <v>0</v>
       </c>
       <c r="C92">
-        <v>230</v>
+        <v>195</v>
       </c>
       <c r="D92">
         <v>0</v>
       </c>
       <c r="E92">
-        <v>282</v>
+        <v>258</v>
       </c>
       <c r="F92" t="s">
         <v>187</v>
@@ -3390,19 +3390,19 @@
     </row>
     <row r="93" spans="1:7">
       <c r="A93">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C93">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="D93">
         <v>0</v>
       </c>
       <c r="E93">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="F93" t="s">
         <v>189</v>
@@ -3413,19 +3413,19 @@
     </row>
     <row r="94" spans="1:7">
       <c r="A94">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B94">
         <v>0</v>
       </c>
       <c r="C94">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D94">
         <v>0</v>
       </c>
       <c r="E94">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="F94" t="s">
         <v>191</v>
@@ -3436,19 +3436,19 @@
     </row>
     <row r="95" spans="1:7">
       <c r="A95">
-        <v>255</v>
+        <v>70</v>
       </c>
       <c r="B95">
         <v>0</v>
       </c>
       <c r="C95">
-        <v>261</v>
+        <v>198</v>
       </c>
       <c r="D95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E95">
-        <v>517</v>
+        <v>268</v>
       </c>
       <c r="F95" t="s">
         <v>193</v>
@@ -3459,19 +3459,19 @@
     </row>
     <row r="96" spans="1:7">
       <c r="A96">
-        <v>61</v>
+        <v>90</v>
       </c>
       <c r="B96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C96">
-        <v>226</v>
+        <v>197</v>
       </c>
       <c r="D96">
         <v>0</v>
       </c>
       <c r="E96">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="F96" t="s">
         <v>195</v>
@@ -3482,19 +3482,19 @@
     </row>
     <row r="97" spans="1:7">
       <c r="A97">
-        <v>92</v>
+        <v>1264</v>
       </c>
       <c r="B97">
         <v>0</v>
       </c>
       <c r="C97">
-        <v>254</v>
+        <v>233</v>
       </c>
       <c r="D97">
         <v>0</v>
       </c>
       <c r="E97">
-        <v>346</v>
+        <v>1499</v>
       </c>
       <c r="F97" t="s">
         <v>197</v>
@@ -3505,19 +3505,19 @@
     </row>
     <row r="98" spans="1:7">
       <c r="A98">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="B98">
         <v>0</v>
       </c>
       <c r="C98">
-        <v>226</v>
+        <v>193</v>
       </c>
       <c r="D98">
         <v>0</v>
       </c>
       <c r="E98">
-        <v>293</v>
+        <v>275</v>
       </c>
       <c r="F98" t="s">
         <v>199</v>
@@ -3528,19 +3528,19 @@
     </row>
     <row r="99" spans="1:7">
       <c r="A99">
-        <v>96</v>
+        <v>59</v>
       </c>
       <c r="B99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C99">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D99">
         <v>0</v>
       </c>
       <c r="E99">
-        <v>284</v>
+        <v>246</v>
       </c>
       <c r="F99" t="s">
         <v>201</v>
@@ -3551,19 +3551,19 @@
     </row>
     <row r="100" spans="1:7">
       <c r="A100">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="B100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C100">
-        <v>266</v>
+        <v>188</v>
       </c>
       <c r="D100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E100">
-        <v>326</v>
+        <v>270</v>
       </c>
       <c r="F100" t="s">
         <v>203</v>
@@ -3574,19 +3574,19 @@
     </row>
     <row r="101" spans="1:7">
       <c r="A101">
-        <v>93</v>
+        <v>61</v>
       </c>
       <c r="B101">
         <v>0</v>
       </c>
       <c r="C101">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E101">
-        <v>283</v>
+        <v>248</v>
       </c>
       <c r="F101" t="s">
         <v>205</v>
@@ -3597,19 +3597,19 @@
     </row>
     <row r="102" spans="1:7">
       <c r="A102">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
       <c r="C102">
-        <v>193</v>
+        <v>228</v>
       </c>
       <c r="D102">
         <v>0</v>
       </c>
       <c r="E102">
-        <v>243</v>
+        <v>280</v>
       </c>
       <c r="F102" t="s">
         <v>207</v>
@@ -3620,19 +3620,19 @@
     </row>
     <row r="103" spans="1:7">
       <c r="A103">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="B103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C103">
-        <v>261</v>
+        <v>225</v>
       </c>
       <c r="D103">
         <v>0</v>
       </c>
       <c r="E103">
-        <v>360</v>
+        <v>317</v>
       </c>
       <c r="F103" t="s">
         <v>209</v>
@@ -3643,19 +3643,19 @@
     </row>
     <row r="104" spans="1:7">
       <c r="A104">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
       <c r="C104">
-        <v>243</v>
+        <v>216</v>
       </c>
       <c r="D104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E104">
-        <v>301</v>
+        <v>281</v>
       </c>
       <c r="F104" t="s">
         <v>211</v>
@@ -3666,19 +3666,19 @@
     </row>
     <row r="105" spans="1:7">
       <c r="A105">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="B105">
         <v>0</v>
       </c>
       <c r="C105">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="D105">
         <v>0</v>
       </c>
       <c r="E105">
-        <v>276</v>
+        <v>303</v>
       </c>
       <c r="F105" t="s">
         <v>213</v>
@@ -3689,19 +3689,19 @@
     </row>
     <row r="106" spans="1:7">
       <c r="A106">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C106">
-        <v>245</v>
+        <v>193</v>
       </c>
       <c r="D106">
         <v>0</v>
       </c>
       <c r="E106">
-        <v>300</v>
+        <v>253</v>
       </c>
       <c r="F106" t="s">
         <v>215</v>
@@ -3712,19 +3712,19 @@
     </row>
     <row r="107" spans="1:7">
       <c r="A107">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B107">
         <v>0</v>
       </c>
       <c r="C107">
-        <v>223</v>
+        <v>197</v>
       </c>
       <c r="D107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E107">
-        <v>314</v>
+        <v>283</v>
       </c>
       <c r="F107" t="s">
         <v>217</v>
@@ -3735,19 +3735,19 @@
     </row>
     <row r="108" spans="1:7">
       <c r="A108">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="B108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C108">
-        <v>281</v>
+        <v>196</v>
       </c>
       <c r="D108">
         <v>0</v>
       </c>
       <c r="E108">
-        <v>346</v>
+        <v>251</v>
       </c>
       <c r="F108" t="s">
         <v>219</v>
@@ -3758,19 +3758,19 @@
     </row>
     <row r="109" spans="1:7">
       <c r="A109">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B109">
         <v>0</v>
       </c>
       <c r="C109">
-        <v>302</v>
+        <v>245</v>
       </c>
       <c r="D109">
         <v>0</v>
       </c>
       <c r="E109">
-        <v>392</v>
+        <v>327</v>
       </c>
       <c r="F109" t="s">
         <v>221</v>
@@ -3781,19 +3781,19 @@
     </row>
     <row r="110" spans="1:7">
       <c r="A110">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="B110">
         <v>0</v>
       </c>
       <c r="C110">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="D110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E110">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="F110" t="s">
         <v>223</v>
@@ -3804,19 +3804,19 @@
     </row>
     <row r="111" spans="1:7">
       <c r="A111">
-        <v>101</v>
+        <v>58</v>
       </c>
       <c r="B111">
         <v>0</v>
       </c>
       <c r="C111">
-        <v>260</v>
+        <v>193</v>
       </c>
       <c r="D111">
         <v>0</v>
       </c>
       <c r="E111">
-        <v>361</v>
+        <v>251</v>
       </c>
       <c r="F111" t="s">
         <v>225</v>
@@ -3827,19 +3827,19 @@
     </row>
     <row r="112" spans="1:7">
       <c r="A112">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="B112">
         <v>0</v>
       </c>
       <c r="C112">
-        <v>272</v>
+        <v>214</v>
       </c>
       <c r="D112">
         <v>0</v>
       </c>
       <c r="E112">
-        <v>324</v>
+        <v>293</v>
       </c>
       <c r="F112" t="s">
         <v>227</v>
@@ -3850,19 +3850,19 @@
     </row>
     <row r="113" spans="1:7">
       <c r="A113">
-        <v>86</v>
+        <v>54</v>
       </c>
       <c r="B113">
         <v>0</v>
       </c>
       <c r="C113">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="D113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E113">
-        <v>286</v>
+        <v>261</v>
       </c>
       <c r="F113" t="s">
         <v>229</v>
@@ -3873,19 +3873,19 @@
     </row>
     <row r="114" spans="1:7">
       <c r="A114">
-        <v>250</v>
+        <v>83</v>
       </c>
       <c r="B114">
         <v>0</v>
       </c>
       <c r="C114">
-        <v>234</v>
+        <v>198</v>
       </c>
       <c r="D114">
         <v>0</v>
       </c>
       <c r="E114">
-        <v>484</v>
+        <v>281</v>
       </c>
       <c r="F114" t="s">
         <v>231</v>
@@ -3896,19 +3896,19 @@
     </row>
     <row r="115" spans="1:7">
       <c r="A115">
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="B115">
         <v>0</v>
       </c>
       <c r="C115">
-        <v>230</v>
+        <v>198</v>
       </c>
       <c r="D115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E115">
-        <v>328</v>
+        <v>261</v>
       </c>
       <c r="F115" t="s">
         <v>233</v>
@@ -3919,19 +3919,19 @@
     </row>
     <row r="116" spans="1:7">
       <c r="A116">
-        <v>58</v>
+        <v>146</v>
       </c>
       <c r="B116">
         <v>0</v>
       </c>
       <c r="C116">
-        <v>223</v>
+        <v>197</v>
       </c>
       <c r="D116">
         <v>0</v>
       </c>
       <c r="E116">
-        <v>281</v>
+        <v>343</v>
       </c>
       <c r="F116" t="s">
         <v>235</v>
@@ -3942,19 +3942,19 @@
     </row>
     <row r="117" spans="1:7">
       <c r="A117">
-        <v>90</v>
+        <v>59</v>
       </c>
       <c r="B117">
         <v>0</v>
       </c>
       <c r="C117">
-        <v>227</v>
+        <v>204</v>
       </c>
       <c r="D117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E117">
-        <v>317</v>
+        <v>264</v>
       </c>
       <c r="F117" t="s">
         <v>237</v>
@@ -3965,19 +3965,19 @@
     </row>
     <row r="118" spans="1:7">
       <c r="A118">
-        <v>62</v>
+        <v>94</v>
       </c>
       <c r="B118">
         <v>0</v>
       </c>
       <c r="C118">
-        <v>199</v>
+        <v>232</v>
       </c>
       <c r="D118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E118">
-        <v>263</v>
+        <v>327</v>
       </c>
       <c r="F118" t="s">
         <v>239</v>
@@ -3988,19 +3988,19 @@
     </row>
     <row r="119" spans="1:7">
       <c r="A119">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="B119">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C119">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="D119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E119">
-        <v>337</v>
+        <v>294</v>
       </c>
       <c r="F119" t="s">
         <v>241</v>
@@ -4011,19 +4011,19 @@
     </row>
     <row r="120" spans="1:7">
       <c r="A120">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="B120">
         <v>0</v>
       </c>
       <c r="C120">
-        <v>272</v>
+        <v>204</v>
       </c>
       <c r="D120">
         <v>0</v>
       </c>
       <c r="E120">
-        <v>323</v>
+        <v>267</v>
       </c>
       <c r="F120" t="s">
         <v>243</v>
@@ -4034,19 +4034,19 @@
     </row>
     <row r="121" spans="1:7">
       <c r="A121">
-        <v>78</v>
+        <v>247</v>
       </c>
       <c r="B121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C121">
-        <v>235</v>
+        <v>217</v>
       </c>
       <c r="D121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E121">
-        <v>314</v>
+        <v>465</v>
       </c>
       <c r="F121" t="s">
         <v>245</v>
@@ -4057,19 +4057,19 @@
     </row>
     <row r="122" spans="1:7">
       <c r="A122">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="B122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C122">
-        <v>218</v>
+        <v>199</v>
       </c>
       <c r="D122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E122">
-        <v>274</v>
+        <v>260</v>
       </c>
       <c r="F122" t="s">
         <v>247</v>
@@ -4080,19 +4080,19 @@
     </row>
     <row r="123" spans="1:7">
       <c r="A123">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C123">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E123">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="F123" t="s">
         <v>249</v>
@@ -4103,19 +4103,19 @@
     </row>
     <row r="124" spans="1:7">
       <c r="A124">
-        <v>58</v>
+        <v>310</v>
       </c>
       <c r="B124">
         <v>1</v>
       </c>
       <c r="C124">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="D124">
         <v>0</v>
       </c>
       <c r="E124">
-        <v>259</v>
+        <v>526</v>
       </c>
       <c r="F124" t="s">
         <v>251</v>
@@ -4126,19 +4126,19 @@
     </row>
     <row r="125" spans="1:7">
       <c r="A125">
-        <v>260</v>
+        <v>83</v>
       </c>
       <c r="B125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C125">
-        <v>231</v>
+        <v>201</v>
       </c>
       <c r="D125">
         <v>0</v>
       </c>
       <c r="E125">
-        <v>492</v>
+        <v>284</v>
       </c>
       <c r="F125" t="s">
         <v>253</v>
@@ -4149,19 +4149,19 @@
     </row>
     <row r="126" spans="1:7">
       <c r="A126">
-        <v>58</v>
+        <v>330</v>
       </c>
       <c r="B126">
         <v>0</v>
       </c>
       <c r="C126">
-        <v>260</v>
+        <v>202</v>
       </c>
       <c r="D126">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E126">
-        <v>319</v>
+        <v>532</v>
       </c>
       <c r="F126" t="s">
         <v>255</v>
@@ -4172,19 +4172,19 @@
     </row>
     <row r="127" spans="1:7">
       <c r="A127">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B127">
         <v>0</v>
       </c>
       <c r="C127">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D127">
         <v>0</v>
       </c>
       <c r="E127">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="F127" t="s">
         <v>257</v>
@@ -4195,19 +4195,19 @@
     </row>
     <row r="128" spans="1:7">
       <c r="A128">
-        <v>132</v>
+        <v>64</v>
       </c>
       <c r="B128">
         <v>0</v>
       </c>
       <c r="C128">
-        <v>220</v>
+        <v>201</v>
       </c>
       <c r="D128">
         <v>0</v>
       </c>
       <c r="E128">
-        <v>352</v>
+        <v>265</v>
       </c>
       <c r="F128" t="s">
         <v>259</v>
@@ -4218,19 +4218,19 @@
     </row>
     <row r="129" spans="1:7">
       <c r="A129">
-        <v>77</v>
+        <v>140</v>
       </c>
       <c r="B129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C129">
-        <v>255</v>
+        <v>232</v>
       </c>
       <c r="D129">
         <v>0</v>
       </c>
       <c r="E129">
-        <v>333</v>
+        <v>373</v>
       </c>
       <c r="F129" t="s">
         <v>261</v>
@@ -4241,19 +4241,19 @@
     </row>
     <row r="130" spans="1:7">
       <c r="A130">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="B130">
         <v>0</v>
       </c>
       <c r="C130">
-        <v>256</v>
+        <v>213</v>
       </c>
       <c r="D130">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E130">
-        <v>310</v>
+        <v>278</v>
       </c>
       <c r="F130" t="s">
         <v>263</v>
@@ -4264,13 +4264,13 @@
     </row>
     <row r="131" spans="1:7">
       <c r="A131">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C131">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D131">
         <v>0</v>
@@ -4287,19 +4287,19 @@
     </row>
     <row r="132" spans="1:7">
       <c r="A132">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B132">
         <v>0</v>
       </c>
       <c r="C132">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="D132">
         <v>0</v>
       </c>
       <c r="E132">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="F132" t="s">
         <v>267</v>
@@ -4310,19 +4310,19 @@
     </row>
     <row r="133" spans="1:7">
       <c r="A133">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B133">
         <v>0</v>
       </c>
       <c r="C133">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="D133">
         <v>0</v>
       </c>
       <c r="E133">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="F133" t="s">
         <v>269</v>
@@ -4333,19 +4333,19 @@
     </row>
     <row r="134" spans="1:7">
       <c r="A134">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="B134">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C134">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="D134">
         <v>0</v>
       </c>
       <c r="E134">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F134" t="s">
         <v>271</v>
@@ -4356,19 +4356,19 @@
     </row>
     <row r="135" spans="1:7">
       <c r="A135">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="B135">
         <v>0</v>
       </c>
       <c r="C135">
-        <v>208</v>
+        <v>255</v>
       </c>
       <c r="D135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E135">
-        <v>288</v>
+        <v>316</v>
       </c>
       <c r="F135" t="s">
         <v>273</v>
@@ -4379,19 +4379,19 @@
     </row>
     <row r="136" spans="1:7">
       <c r="A136">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B136">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C136">
-        <v>254</v>
+        <v>227</v>
       </c>
       <c r="D136">
         <v>0</v>
       </c>
       <c r="E136">
-        <v>306</v>
+        <v>282</v>
       </c>
       <c r="F136" t="s">
         <v>275</v>
@@ -4402,19 +4402,19 @@
     </row>
     <row r="137" spans="1:7">
       <c r="A137">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="B137">
         <v>0</v>
       </c>
       <c r="C137">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="D137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E137">
-        <v>296</v>
+        <v>311</v>
       </c>
       <c r="F137" t="s">
         <v>277</v>
@@ -4425,19 +4425,19 @@
     </row>
     <row r="138" spans="1:7">
       <c r="A138">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="B138">
         <v>0</v>
       </c>
       <c r="C138">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="D138">
         <v>0</v>
       </c>
       <c r="E138">
-        <v>328</v>
+        <v>294</v>
       </c>
       <c r="F138" t="s">
         <v>279</v>
@@ -4448,19 +4448,19 @@
     </row>
     <row r="139" spans="1:7">
       <c r="A139">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="B139">
         <v>0</v>
       </c>
       <c r="C139">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="D139">
         <v>0</v>
       </c>
       <c r="E139">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="F139" t="s">
         <v>281</v>
@@ -4471,19 +4471,19 @@
     </row>
     <row r="140" spans="1:7">
       <c r="A140">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="B140">
         <v>0</v>
       </c>
       <c r="C140">
-        <v>247</v>
+        <v>273</v>
       </c>
       <c r="D140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E140">
-        <v>301</v>
+        <v>346</v>
       </c>
       <c r="F140" t="s">
         <v>283</v>
@@ -4494,19 +4494,19 @@
     </row>
     <row r="141" spans="1:7">
       <c r="A141">
-        <v>51</v>
+        <v>88</v>
       </c>
       <c r="B141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C141">
-        <v>209</v>
+        <v>229</v>
       </c>
       <c r="D141">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E141">
-        <v>261</v>
+        <v>318</v>
       </c>
       <c r="F141" t="s">
         <v>285</v>
@@ -4517,19 +4517,19 @@
     </row>
     <row r="142" spans="1:7">
       <c r="A142">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="B142">
         <v>0</v>
       </c>
       <c r="C142">
-        <v>231</v>
+        <v>210</v>
       </c>
       <c r="D142">
         <v>0</v>
       </c>
       <c r="E142">
-        <v>311</v>
+        <v>269</v>
       </c>
       <c r="F142" t="s">
         <v>287</v>
@@ -4540,19 +4540,19 @@
     </row>
     <row r="143" spans="1:7">
       <c r="A143">
-        <v>58</v>
+        <v>89</v>
       </c>
       <c r="B143">
         <v>0</v>
       </c>
       <c r="C143">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="D143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E143">
-        <v>270</v>
+        <v>304</v>
       </c>
       <c r="F143" t="s">
         <v>289</v>
@@ -4563,19 +4563,19 @@
     </row>
     <row r="144" spans="1:7">
       <c r="A144">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="B144">
         <v>0</v>
       </c>
       <c r="C144">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D144">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E144">
-        <v>289</v>
+        <v>266</v>
       </c>
       <c r="F144" t="s">
         <v>291</v>
@@ -4586,19 +4586,19 @@
     </row>
     <row r="145" spans="1:7">
       <c r="A145">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="B145">
         <v>0</v>
       </c>
       <c r="C145">
-        <v>208</v>
+        <v>226</v>
       </c>
       <c r="D145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E145">
-        <v>257</v>
+        <v>306</v>
       </c>
       <c r="F145" t="s">
         <v>293</v>
@@ -4609,19 +4609,19 @@
     </row>
     <row r="146" spans="1:7">
       <c r="A146">
-        <v>91</v>
+        <v>53</v>
       </c>
       <c r="B146">
         <v>0</v>
       </c>
       <c r="C146">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D146">
         <v>0</v>
       </c>
       <c r="E146">
-        <v>302</v>
+        <v>265</v>
       </c>
       <c r="F146" t="s">
         <v>295</v>
@@ -4632,19 +4632,19 @@
     </row>
     <row r="147" spans="1:7">
       <c r="A147">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="B147">
         <v>0</v>
       </c>
       <c r="C147">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D147">
         <v>0</v>
       </c>
       <c r="E147">
-        <v>270</v>
+        <v>300</v>
       </c>
       <c r="F147" t="s">
         <v>297</v>
@@ -4655,19 +4655,19 @@
     </row>
     <row r="148" spans="1:7">
       <c r="A148">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="B148">
         <v>0</v>
       </c>
       <c r="C148">
-        <v>216</v>
+        <v>238</v>
       </c>
       <c r="D148">
         <v>0</v>
       </c>
       <c r="E148">
-        <v>317</v>
+        <v>300</v>
       </c>
       <c r="F148" t="s">
         <v>299</v>
@@ -4678,19 +4678,19 @@
     </row>
     <row r="149" spans="1:7">
       <c r="A149">
-        <v>62</v>
+        <v>178</v>
       </c>
       <c r="B149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C149">
-        <v>230</v>
+        <v>214</v>
       </c>
       <c r="D149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E149">
-        <v>292</v>
+        <v>394</v>
       </c>
       <c r="F149" t="s">
         <v>301</v>
@@ -4701,19 +4701,19 @@
     </row>
     <row r="150" spans="1:7">
       <c r="A150">
-        <v>100</v>
+        <v>173</v>
       </c>
       <c r="B150">
         <v>0</v>
       </c>
       <c r="C150">
-        <v>213</v>
+        <v>254</v>
       </c>
       <c r="D150">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E150">
-        <v>313</v>
+        <v>428</v>
       </c>
       <c r="F150" t="s">
         <v>303</v>
@@ -4724,19 +4724,19 @@
     </row>
     <row r="151" spans="1:7">
       <c r="A151">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="B151">
         <v>0</v>
       </c>
       <c r="C151">
-        <v>262</v>
+        <v>241</v>
       </c>
       <c r="D151">
         <v>0</v>
       </c>
       <c r="E151">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F151" t="s">
         <v>305</v>

--- a/Server_time.xlsx
+++ b/Server_time.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Receve image</t>
   </si>
@@ -37,61 +37,52 @@
     <t>End time</t>
   </si>
   <si>
-    <t>2018-05-24 20:39:46.606125</t>
-  </si>
-  <si>
-    <t>2018-05-24 20:39:46.939343</t>
-  </si>
-  <si>
-    <t>0:00:00.333218</t>
-  </si>
-  <si>
-    <t>2018-05-24 20:39:46.939521</t>
-  </si>
-  <si>
-    <t>2018-05-24 20:39:47.272671</t>
-  </si>
-  <si>
-    <t>0:00:00.333150</t>
-  </si>
-  <si>
-    <t>2018-05-24 20:39:47.272879</t>
-  </si>
-  <si>
-    <t>2018-05-24 20:39:47.605999</t>
-  </si>
-  <si>
-    <t>0:00:00.333120</t>
-  </si>
-  <si>
-    <t>2018-05-24 20:39:47.606139</t>
-  </si>
-  <si>
-    <t>2018-05-24 20:39:47.939245</t>
-  </si>
-  <si>
-    <t>0:00:00.333106</t>
-  </si>
-  <si>
-    <t>2018-05-24 20:39:47.939406</t>
-  </si>
-  <si>
-    <t>2018-05-24 20:39:49.272487</t>
-  </si>
-  <si>
-    <t>0:00:01.333081</t>
-  </si>
-  <si>
-    <t>2018-05-24 20:39:49.272636</t>
-  </si>
-  <si>
-    <t>2018-05-24 20:39:49.605849</t>
-  </si>
-  <si>
-    <t>0:00:00.333213</t>
-  </si>
-  <si>
-    <t>2018-05-24 20:39:49.605991</t>
+    <t>2018-05-24 20:45:29.774304</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:45:30.107534</t>
+  </si>
+  <si>
+    <t>0:00:00.333230</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:45:30.107679</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:45:30.440800</t>
+  </si>
+  <si>
+    <t>0:00:00.333121</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:45:30.441040</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:45:30.774163</t>
+  </si>
+  <si>
+    <t>0:00:00.333123</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:45:30.774317</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:45:32.108380</t>
+  </si>
+  <si>
+    <t>0:00:01.334063</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:45:32.108535</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:45:32.441874</t>
+  </si>
+  <si>
+    <t>0:00:00.333339</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:45:32.442104</t>
   </si>
 </sst>
 </file>
@@ -423,7 +414,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -460,7 +451,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -477,13 +468,13 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>81</v>
+        <v>163</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -500,7 +491,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>108</v>
+        <v>170</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -523,13 +514,13 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>126</v>
+        <v>186</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -546,16 +537,16 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>205</v>
+        <v>0</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="s">
         <v>21</v>
@@ -569,42 +560,19 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>0</v>
+        <v>281</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D7">
         <v>0</v>
-      </c>
-      <c r="E7" t="s">
-        <v>24</v>
       </c>
       <c r="F7" t="s">
         <v>22</v>
-      </c>
-      <c r="G7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8">
-        <v>235</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>151</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="F8" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/Server_time.xlsx
+++ b/Server_time.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="77">
   <si>
     <t>Receve image</t>
   </si>
@@ -37,52 +37,214 @@
     <t>End time</t>
   </si>
   <si>
-    <t>2018-05-24 20:45:29.774304</t>
-  </si>
-  <si>
-    <t>2018-05-24 20:45:30.107534</t>
-  </si>
-  <si>
-    <t>0:00:00.333230</t>
-  </si>
-  <si>
-    <t>2018-05-24 20:45:30.107679</t>
-  </si>
-  <si>
-    <t>2018-05-24 20:45:30.440800</t>
-  </si>
-  <si>
-    <t>0:00:00.333121</t>
-  </si>
-  <si>
-    <t>2018-05-24 20:45:30.441040</t>
-  </si>
-  <si>
-    <t>2018-05-24 20:45:30.774163</t>
-  </si>
-  <si>
-    <t>0:00:00.333123</t>
-  </si>
-  <si>
-    <t>2018-05-24 20:45:30.774317</t>
-  </si>
-  <si>
-    <t>2018-05-24 20:45:32.108380</t>
-  </si>
-  <si>
-    <t>0:00:01.334063</t>
-  </si>
-  <si>
-    <t>2018-05-24 20:45:32.108535</t>
-  </si>
-  <si>
-    <t>2018-05-24 20:45:32.441874</t>
-  </si>
-  <si>
-    <t>0:00:00.333339</t>
-  </si>
-  <si>
-    <t>2018-05-24 20:45:32.442104</t>
+    <t>2018-05-24 20:48:47.605805</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:48:47.938992</t>
+  </si>
+  <si>
+    <t>0:00:00.333187</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:48:47.939136</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:48:49.273089</t>
+  </si>
+  <si>
+    <t>0:00:01.333953</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:48:49.273228</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:48:49.606461</t>
+  </si>
+  <si>
+    <t>0:00:00.333233</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:48:49.606597</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:48:49.998053</t>
+  </si>
+  <si>
+    <t>0:00:00.391456</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:48:49.998129</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:48:51.332157</t>
+  </si>
+  <si>
+    <t>0:00:01.334028</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:48:51.332300</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:48:51.665533</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:48:51.665692</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:48:52.999650</t>
+  </si>
+  <si>
+    <t>0:00:01.333958</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:48:52.999789</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:48:53.333020</t>
+  </si>
+  <si>
+    <t>0:00:00.333231</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:48:53.333166</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:48:53.832133</t>
+  </si>
+  <si>
+    <t>0:00:00.498967</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:48:53.832208</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:48:55.166239</t>
+  </si>
+  <si>
+    <t>0:00:01.334031</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:48:55.166391</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:48:55.499630</t>
+  </si>
+  <si>
+    <t>0:00:00.333239</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:48:55.499778</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:48:55.939058</t>
+  </si>
+  <si>
+    <t>0:00:00.439280</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:48:55.939133</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:48:57.273152</t>
+  </si>
+  <si>
+    <t>0:00:01.334019</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:48:57.273293</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:48:57.606516</t>
+  </si>
+  <si>
+    <t>0:00:00.333223</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:48:57.606651</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:48:58.940550</t>
+  </si>
+  <si>
+    <t>0:00:01.333899</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:48:58.940688</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:48:59.273919</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:48:59.274111</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:48:59.817859</t>
+  </si>
+  <si>
+    <t>0:00:00.543748</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:48:59.817934</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:49:00.151016</t>
+  </si>
+  <si>
+    <t>0:00:00.333082</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:49:00.151159</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:49:00.495310</t>
+  </si>
+  <si>
+    <t>0:00:00.344151</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:49:00.495384</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:49:00.844847</t>
+  </si>
+  <si>
+    <t>0:00:00.349463</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:49:00.844961</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:49:02.178828</t>
+  </si>
+  <si>
+    <t>0:00:01.333867</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:49:02.178964</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:49:02.512183</t>
+  </si>
+  <si>
+    <t>0:00:00.333219</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:49:02.512322</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:49:03.845501</t>
+  </si>
+  <si>
+    <t>0:00:01.333179</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:49:03.845638</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:49:04.178720</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:49:04.178876</t>
   </si>
 </sst>
 </file>
@@ -414,7 +576,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -448,10 +610,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -468,13 +630,13 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>163</v>
+        <v>264</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -491,13 +653,13 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -514,13 +676,13 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>186</v>
+        <v>246</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -537,13 +699,13 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>0</v>
+        <v>201</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -560,19 +722,444 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>281</v>
+        <v>0</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D7">
         <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
       </c>
       <c r="F7" t="s">
         <v>22</v>
+      </c>
+      <c r="G7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>273</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>135</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>138</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>346</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>153</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>198</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>137</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>153</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>281</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>158</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" t="s">
+        <v>39</v>
+      </c>
+      <c r="G13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>200</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>147</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>42</v>
+      </c>
+      <c r="G14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>142</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" t="s">
+        <v>45</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>315</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>145</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F16" t="s">
+        <v>48</v>
+      </c>
+      <c r="G16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17">
+        <v>0</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>142</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17" t="s">
+        <v>29</v>
+      </c>
+      <c r="F17" t="s">
+        <v>51</v>
+      </c>
+      <c r="G17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18">
+        <v>399</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>145</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18" t="s">
+        <v>55</v>
+      </c>
+      <c r="F18" t="s">
+        <v>53</v>
+      </c>
+      <c r="G18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19">
+        <v>161</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>145</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19" t="s">
+        <v>58</v>
+      </c>
+      <c r="F19" t="s">
+        <v>56</v>
+      </c>
+      <c r="G19" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20">
+        <v>198</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20">
+        <v>144</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20" t="s">
+        <v>61</v>
+      </c>
+      <c r="F20" t="s">
+        <v>59</v>
+      </c>
+      <c r="G20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21">
+        <v>204</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>145</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21" t="s">
+        <v>64</v>
+      </c>
+      <c r="F21" t="s">
+        <v>62</v>
+      </c>
+      <c r="G21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22">
+        <v>355</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>146</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22" t="s">
+        <v>67</v>
+      </c>
+      <c r="F22" t="s">
+        <v>65</v>
+      </c>
+      <c r="G22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23">
+        <v>0</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>148</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23" t="s">
+        <v>70</v>
+      </c>
+      <c r="F23" t="s">
+        <v>68</v>
+      </c>
+      <c r="G23" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24">
+        <v>428</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>145</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24" t="s">
+        <v>73</v>
+      </c>
+      <c r="F24" t="s">
+        <v>71</v>
+      </c>
+      <c r="G24" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25">
+        <v>0</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>148</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25" t="s">
+        <v>58</v>
+      </c>
+      <c r="F25" t="s">
+        <v>74</v>
+      </c>
+      <c r="G25" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="F26" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/Server_time.xlsx
+++ b/Server_time.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="175">
   <si>
     <t>Receve image</t>
   </si>
@@ -37,214 +37,508 @@
     <t>End time</t>
   </si>
   <si>
-    <t>2018-05-24 20:48:47.605805</t>
-  </si>
-  <si>
-    <t>2018-05-24 20:48:47.938992</t>
-  </si>
-  <si>
-    <t>0:00:00.333187</t>
-  </si>
-  <si>
-    <t>2018-05-24 20:48:47.939136</t>
-  </si>
-  <si>
-    <t>2018-05-24 20:48:49.273089</t>
-  </si>
-  <si>
-    <t>0:00:01.333953</t>
-  </si>
-  <si>
-    <t>2018-05-24 20:48:49.273228</t>
-  </si>
-  <si>
-    <t>2018-05-24 20:48:49.606461</t>
-  </si>
-  <si>
-    <t>0:00:00.333233</t>
-  </si>
-  <si>
-    <t>2018-05-24 20:48:49.606597</t>
-  </si>
-  <si>
-    <t>2018-05-24 20:48:49.998053</t>
-  </si>
-  <si>
-    <t>0:00:00.391456</t>
-  </si>
-  <si>
-    <t>2018-05-24 20:48:49.998129</t>
-  </si>
-  <si>
-    <t>2018-05-24 20:48:51.332157</t>
-  </si>
-  <si>
-    <t>0:00:01.334028</t>
-  </si>
-  <si>
-    <t>2018-05-24 20:48:51.332300</t>
-  </si>
-  <si>
-    <t>2018-05-24 20:48:51.665533</t>
-  </si>
-  <si>
-    <t>2018-05-24 20:48:51.665692</t>
-  </si>
-  <si>
-    <t>2018-05-24 20:48:52.999650</t>
-  </si>
-  <si>
-    <t>0:00:01.333958</t>
-  </si>
-  <si>
-    <t>2018-05-24 20:48:52.999789</t>
-  </si>
-  <si>
-    <t>2018-05-24 20:48:53.333020</t>
-  </si>
-  <si>
-    <t>0:00:00.333231</t>
-  </si>
-  <si>
-    <t>2018-05-24 20:48:53.333166</t>
-  </si>
-  <si>
-    <t>2018-05-24 20:48:53.832133</t>
-  </si>
-  <si>
-    <t>0:00:00.498967</t>
-  </si>
-  <si>
-    <t>2018-05-24 20:48:53.832208</t>
-  </si>
-  <si>
-    <t>2018-05-24 20:48:55.166239</t>
-  </si>
-  <si>
-    <t>0:00:01.334031</t>
-  </si>
-  <si>
-    <t>2018-05-24 20:48:55.166391</t>
-  </si>
-  <si>
-    <t>2018-05-24 20:48:55.499630</t>
-  </si>
-  <si>
-    <t>0:00:00.333239</t>
-  </si>
-  <si>
-    <t>2018-05-24 20:48:55.499778</t>
-  </si>
-  <si>
-    <t>2018-05-24 20:48:55.939058</t>
-  </si>
-  <si>
-    <t>0:00:00.439280</t>
-  </si>
-  <si>
-    <t>2018-05-24 20:48:55.939133</t>
-  </si>
-  <si>
-    <t>2018-05-24 20:48:57.273152</t>
-  </si>
-  <si>
-    <t>0:00:01.334019</t>
-  </si>
-  <si>
-    <t>2018-05-24 20:48:57.273293</t>
-  </si>
-  <si>
-    <t>2018-05-24 20:48:57.606516</t>
-  </si>
-  <si>
-    <t>0:00:00.333223</t>
-  </si>
-  <si>
-    <t>2018-05-24 20:48:57.606651</t>
-  </si>
-  <si>
-    <t>2018-05-24 20:48:58.940550</t>
-  </si>
-  <si>
-    <t>0:00:01.333899</t>
-  </si>
-  <si>
-    <t>2018-05-24 20:48:58.940688</t>
-  </si>
-  <si>
-    <t>2018-05-24 20:48:59.273919</t>
-  </si>
-  <si>
-    <t>2018-05-24 20:48:59.274111</t>
-  </si>
-  <si>
-    <t>2018-05-24 20:48:59.817859</t>
-  </si>
-  <si>
-    <t>0:00:00.543748</t>
-  </si>
-  <si>
-    <t>2018-05-24 20:48:59.817934</t>
-  </si>
-  <si>
-    <t>2018-05-24 20:49:00.151016</t>
-  </si>
-  <si>
-    <t>0:00:00.333082</t>
-  </si>
-  <si>
-    <t>2018-05-24 20:49:00.151159</t>
-  </si>
-  <si>
-    <t>2018-05-24 20:49:00.495310</t>
-  </si>
-  <si>
-    <t>0:00:00.344151</t>
-  </si>
-  <si>
-    <t>2018-05-24 20:49:00.495384</t>
-  </si>
-  <si>
-    <t>2018-05-24 20:49:00.844847</t>
-  </si>
-  <si>
-    <t>0:00:00.349463</t>
-  </si>
-  <si>
-    <t>2018-05-24 20:49:00.844961</t>
-  </si>
-  <si>
-    <t>2018-05-24 20:49:02.178828</t>
-  </si>
-  <si>
-    <t>0:00:01.333867</t>
-  </si>
-  <si>
-    <t>2018-05-24 20:49:02.178964</t>
-  </si>
-  <si>
-    <t>2018-05-24 20:49:02.512183</t>
-  </si>
-  <si>
-    <t>0:00:00.333219</t>
-  </si>
-  <si>
-    <t>2018-05-24 20:49:02.512322</t>
-  </si>
-  <si>
-    <t>2018-05-24 20:49:03.845501</t>
-  </si>
-  <si>
-    <t>0:00:01.333179</t>
-  </si>
-  <si>
-    <t>2018-05-24 20:49:03.845638</t>
-  </si>
-  <si>
-    <t>2018-05-24 20:49:04.178720</t>
-  </si>
-  <si>
-    <t>2018-05-24 20:49:04.178876</t>
+    <t>2018-05-24 20:52:32.867321</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:52:33.367674</t>
+  </si>
+  <si>
+    <t>0:00:00.500353</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:52:33.367822</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:52:33.868079</t>
+  </si>
+  <si>
+    <t>0:00:00.500257</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:52:33.868226</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:52:34.368533</t>
+  </si>
+  <si>
+    <t>0:00:00.500307</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:52:34.368682</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:52:34.868939</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:52:34.869092</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:52:35.369365</t>
+  </si>
+  <si>
+    <t>0:00:00.500273</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:52:35.369505</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:52:35.869669</t>
+  </si>
+  <si>
+    <t>0:00:00.500164</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:52:35.869778</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:52:36.369900</t>
+  </si>
+  <si>
+    <t>0:00:00.500122</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:52:36.370060</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:52:36.870162</t>
+  </si>
+  <si>
+    <t>0:00:00.500102</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:52:36.870320</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:52:38.371323</t>
+  </si>
+  <si>
+    <t>0:00:01.501003</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:52:38.371467</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:52:38.871856</t>
+  </si>
+  <si>
+    <t>0:00:00.500389</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:52:38.871995</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:52:40.372553</t>
+  </si>
+  <si>
+    <t>0:00:01.500558</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:52:40.372697</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:52:40.873092</t>
+  </si>
+  <si>
+    <t>0:00:00.500395</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:52:40.873230</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:52:42.373332</t>
+  </si>
+  <si>
+    <t>0:00:01.500102</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:52:42.373524</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:52:42.873906</t>
+  </si>
+  <si>
+    <t>0:00:00.500382</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:52:42.874058</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:52:44.374740</t>
+  </si>
+  <si>
+    <t>0:00:01.500682</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:52:44.374881</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:52:44.875261</t>
+  </si>
+  <si>
+    <t>0:00:00.500380</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:52:44.875399</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:52:46.376187</t>
+  </si>
+  <si>
+    <t>0:00:01.500788</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:52:46.376327</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:52:46.876713</t>
+  </si>
+  <si>
+    <t>0:00:00.500386</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:52:46.876851</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:52:48.377610</t>
+  </si>
+  <si>
+    <t>0:00:01.500759</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:52:48.377753</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:52:48.878145</t>
+  </si>
+  <si>
+    <t>0:00:00.500392</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:52:48.878283</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:52:50.378878</t>
+  </si>
+  <si>
+    <t>0:00:01.500595</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:52:50.379027</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:52:50.879410</t>
+  </si>
+  <si>
+    <t>0:00:00.500383</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:52:50.879584</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:52:51.379968</t>
+  </si>
+  <si>
+    <t>0:00:00.500384</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:52:51.380108</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:52:51.880481</t>
+  </si>
+  <si>
+    <t>0:00:00.500373</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:52:51.880619</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:52:52.381038</t>
+  </si>
+  <si>
+    <t>0:00:00.500419</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:52:52.381183</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:52:52.881549</t>
+  </si>
+  <si>
+    <t>0:00:00.500366</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:52:52.881689</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:52:53.381777</t>
+  </si>
+  <si>
+    <t>0:00:00.500088</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:52:53.381931</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:52:53.882315</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:52:53.882456</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:52:54.382845</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:52:54.383011</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:52:54.883388</t>
+  </si>
+  <si>
+    <t>0:00:00.500377</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:52:54.883529</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:52:55.383815</t>
+  </si>
+  <si>
+    <t>0:00:00.500286</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:52:55.383955</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:52:55.884292</t>
+  </si>
+  <si>
+    <t>0:00:00.500337</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:52:55.884431</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:52:56.384675</t>
+  </si>
+  <si>
+    <t>0:00:00.500244</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:52:56.384826</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:52:56.885074</t>
+  </si>
+  <si>
+    <t>0:00:00.500248</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:52:56.885212</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:52:57.385354</t>
+  </si>
+  <si>
+    <t>0:00:00.500142</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:52:57.385495</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:52:57.885632</t>
+  </si>
+  <si>
+    <t>0:00:00.500137</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:52:57.885784</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:52:58.385885</t>
+  </si>
+  <si>
+    <t>0:00:00.500101</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:52:58.386025</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:52:58.886116</t>
+  </si>
+  <si>
+    <t>0:00:00.500091</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:52:58.886258</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:53:00.387238</t>
+  </si>
+  <si>
+    <t>0:00:01.500980</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:53:00.387378</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:53:00.887754</t>
+  </si>
+  <si>
+    <t>0:00:00.500376</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:53:00.887922</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:53:02.388845</t>
+  </si>
+  <si>
+    <t>0:00:01.500923</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:53:02.388991</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:53:02.889363</t>
+  </si>
+  <si>
+    <t>0:00:00.500372</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:53:02.889503</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:53:04.390232</t>
+  </si>
+  <si>
+    <t>0:00:01.500729</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:53:04.390399</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:53:04.890773</t>
+  </si>
+  <si>
+    <t>0:00:00.500374</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:53:04.890914</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:53:06.391746</t>
+  </si>
+  <si>
+    <t>0:00:01.500832</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:53:06.391912</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:53:06.892285</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:53:06.892435</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:53:08.393220</t>
+  </si>
+  <si>
+    <t>0:00:01.500785</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:53:08.393434</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:53:08.893793</t>
+  </si>
+  <si>
+    <t>0:00:00.500359</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:53:08.893933</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:53:10.394575</t>
+  </si>
+  <si>
+    <t>0:00:01.500642</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:53:10.394715</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:53:10.895086</t>
+  </si>
+  <si>
+    <t>0:00:00.500371</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:53:10.895226</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:53:12.395898</t>
+  </si>
+  <si>
+    <t>0:00:01.500672</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:53:12.396049</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:53:12.896222</t>
+  </si>
+  <si>
+    <t>0:00:00.500173</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:53:12.896374</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:53:13.396768</t>
+  </si>
+  <si>
+    <t>0:00:00.500394</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:53:13.396956</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:53:13.897103</t>
+  </si>
+  <si>
+    <t>0:00:00.500147</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:53:13.897269</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:53:14.397642</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:53:14.397809</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:53:14.897981</t>
+  </si>
+  <si>
+    <t>0:00:00.500172</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:53:14.898120</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:53:15.398488</t>
+  </si>
+  <si>
+    <t>0:00:00.500368</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:53:15.398635</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:53:15.899006</t>
   </si>
 </sst>
 </file>
@@ -576,7 +870,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -607,13 +901,13 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="C2">
-        <v>183</v>
+        <v>207</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -630,13 +924,13 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>264</v>
+        <v>106</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -653,13 +947,13 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4">
-        <v>134</v>
+        <v>161</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -676,19 +970,19 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>246</v>
+        <v>142</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
         <v>16</v>
@@ -699,59 +993,59 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>201</v>
+        <v>138</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C6">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" t="s">
         <v>19</v>
-      </c>
-      <c r="G6" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>0</v>
+        <v>227</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" t="s">
         <v>22</v>
-      </c>
-      <c r="G7" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -768,7 +1062,7 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>0</v>
+        <v>292</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -791,13 +1085,13 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>346</v>
+        <v>393</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
       <c r="C10">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -814,16 +1108,16 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>198</v>
+        <v>0</v>
       </c>
       <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>143</v>
+      </c>
+      <c r="D11">
         <v>1</v>
-      </c>
-      <c r="C11">
-        <v>137</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
       </c>
       <c r="E11" t="s">
         <v>35</v>
@@ -837,16 +1131,16 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
-        <v>1</v>
+        <v>450</v>
       </c>
       <c r="B12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="s">
         <v>38</v>
@@ -860,16 +1154,16 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13">
-        <v>281</v>
+        <v>0</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
       <c r="C13">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="s">
         <v>41</v>
@@ -883,13 +1177,13 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14">
-        <v>200</v>
+        <v>499</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
       <c r="C14">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -909,10 +1203,10 @@
         <v>0</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -929,13 +1223,13 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16">
-        <v>315</v>
+        <v>485</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
       <c r="C16">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -958,13 +1252,13 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="F17" t="s">
         <v>51</v>
@@ -975,117 +1269,117 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18">
-        <v>399</v>
+        <v>597</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C18">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18" t="s">
+        <v>56</v>
+      </c>
+      <c r="F18" t="s">
+        <v>54</v>
+      </c>
+      <c r="G18" t="s">
         <v>55</v>
-      </c>
-      <c r="F18" t="s">
-        <v>53</v>
-      </c>
-      <c r="G18" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19">
-        <v>161</v>
+        <v>0</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="s">
+        <v>59</v>
+      </c>
+      <c r="F19" t="s">
+        <v>57</v>
+      </c>
+      <c r="G19" t="s">
         <v>58</v>
-      </c>
-      <c r="F19" t="s">
-        <v>56</v>
-      </c>
-      <c r="G19" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20">
-        <v>198</v>
+        <v>631</v>
       </c>
       <c r="B20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C20">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20" t="s">
+        <v>62</v>
+      </c>
+      <c r="F20" t="s">
+        <v>60</v>
+      </c>
+      <c r="G20" t="s">
         <v>61</v>
-      </c>
-      <c r="F20" t="s">
-        <v>59</v>
-      </c>
-      <c r="G20" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21">
-        <v>204</v>
+        <v>0</v>
       </c>
       <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>143</v>
+      </c>
+      <c r="D21">
         <v>1</v>
       </c>
-      <c r="C21">
-        <v>145</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
       <c r="E21" t="s">
+        <v>65</v>
+      </c>
+      <c r="F21" t="s">
+        <v>63</v>
+      </c>
+      <c r="G21" t="s">
         <v>64</v>
-      </c>
-      <c r="F21" t="s">
-        <v>62</v>
-      </c>
-      <c r="G21" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22">
-        <v>355</v>
+        <v>794</v>
       </c>
       <c r="B22">
         <v>0</v>
       </c>
       <c r="C22">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22" t="s">
+        <v>68</v>
+      </c>
+      <c r="F22" t="s">
+        <v>66</v>
+      </c>
+      <c r="G22" t="s">
         <v>67</v>
-      </c>
-      <c r="F22" t="s">
-        <v>65</v>
-      </c>
-      <c r="G22" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1102,36 +1396,36 @@
         <v>0</v>
       </c>
       <c r="E23" t="s">
+        <v>71</v>
+      </c>
+      <c r="F23" t="s">
+        <v>69</v>
+      </c>
+      <c r="G23" t="s">
         <v>70</v>
-      </c>
-      <c r="F23" t="s">
-        <v>68</v>
-      </c>
-      <c r="G23" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24">
-        <v>428</v>
+        <v>0</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C24">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24" t="s">
+        <v>74</v>
+      </c>
+      <c r="F24" t="s">
+        <v>72</v>
+      </c>
+      <c r="G24" t="s">
         <v>73</v>
-      </c>
-      <c r="F24" t="s">
-        <v>71</v>
-      </c>
-      <c r="G24" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1142,24 +1436,801 @@
         <v>0</v>
       </c>
       <c r="C25">
+        <v>160</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25" t="s">
+        <v>77</v>
+      </c>
+      <c r="F25" t="s">
+        <v>75</v>
+      </c>
+      <c r="G25" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26">
+        <v>0</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>151</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26" t="s">
+        <v>80</v>
+      </c>
+      <c r="F26" t="s">
+        <v>78</v>
+      </c>
+      <c r="G26" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27">
+        <v>0</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>165</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27" t="s">
+        <v>83</v>
+      </c>
+      <c r="F27" t="s">
+        <v>81</v>
+      </c>
+      <c r="G27" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28">
+        <v>0</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>153</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28" t="s">
+        <v>86</v>
+      </c>
+      <c r="F28" t="s">
+        <v>84</v>
+      </c>
+      <c r="G28" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29">
+        <v>0</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>150</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29" t="s">
+        <v>74</v>
+      </c>
+      <c r="F29" t="s">
+        <v>87</v>
+      </c>
+      <c r="G29" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30">
+        <v>0</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
         <v>148</v>
       </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25" t="s">
-        <v>58</v>
-      </c>
-      <c r="F25" t="s">
-        <v>74</v>
-      </c>
-      <c r="G25" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="F26" t="s">
-        <v>76</v>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30" t="s">
+        <v>35</v>
+      </c>
+      <c r="F30" t="s">
+        <v>89</v>
+      </c>
+      <c r="G30" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31">
+        <v>0</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>153</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31" t="s">
+        <v>93</v>
+      </c>
+      <c r="F31" t="s">
+        <v>91</v>
+      </c>
+      <c r="G31" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32">
+        <v>95</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>154</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32" t="s">
+        <v>96</v>
+      </c>
+      <c r="F32" t="s">
+        <v>94</v>
+      </c>
+      <c r="G32" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33">
+        <v>45</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>148</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33" t="s">
+        <v>99</v>
+      </c>
+      <c r="F33" t="s">
+        <v>97</v>
+      </c>
+      <c r="G33" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34">
+        <v>138</v>
+      </c>
+      <c r="B34">
+        <v>2</v>
+      </c>
+      <c r="C34">
+        <v>152</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34" t="s">
+        <v>102</v>
+      </c>
+      <c r="F34" t="s">
+        <v>100</v>
+      </c>
+      <c r="G34" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35">
+        <v>134</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>150</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35" t="s">
+        <v>105</v>
+      </c>
+      <c r="F35" t="s">
+        <v>103</v>
+      </c>
+      <c r="G35" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36">
+        <v>247</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>155</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36" t="s">
+        <v>108</v>
+      </c>
+      <c r="F36" t="s">
+        <v>106</v>
+      </c>
+      <c r="G36" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37">
+        <v>266</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>155</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37" t="s">
+        <v>111</v>
+      </c>
+      <c r="F37" t="s">
+        <v>109</v>
+      </c>
+      <c r="G37" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38">
+        <v>276</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>158</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38" t="s">
+        <v>114</v>
+      </c>
+      <c r="F38" t="s">
+        <v>112</v>
+      </c>
+      <c r="G38" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39">
+        <v>286</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>157</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39" t="s">
+        <v>117</v>
+      </c>
+      <c r="F39" t="s">
+        <v>115</v>
+      </c>
+      <c r="G39" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40">
+        <v>395</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <v>157</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40" t="s">
+        <v>120</v>
+      </c>
+      <c r="F40" t="s">
+        <v>118</v>
+      </c>
+      <c r="G40" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41">
+        <v>0</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>159</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41" t="s">
+        <v>123</v>
+      </c>
+      <c r="F41" t="s">
+        <v>121</v>
+      </c>
+      <c r="G41" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42">
+        <v>454</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>158</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42" t="s">
+        <v>126</v>
+      </c>
+      <c r="F42" t="s">
+        <v>124</v>
+      </c>
+      <c r="G42" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43">
+        <v>0</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>160</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43" t="s">
+        <v>129</v>
+      </c>
+      <c r="F43" t="s">
+        <v>127</v>
+      </c>
+      <c r="G43" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44">
+        <v>428</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <v>170</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44" t="s">
+        <v>132</v>
+      </c>
+      <c r="F44" t="s">
+        <v>130</v>
+      </c>
+      <c r="G44" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45">
+        <v>0</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <v>160</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45" t="s">
+        <v>135</v>
+      </c>
+      <c r="F45" t="s">
+        <v>133</v>
+      </c>
+      <c r="G45" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46">
+        <v>540</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <v>155</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46" t="s">
+        <v>138</v>
+      </c>
+      <c r="F46" t="s">
+        <v>136</v>
+      </c>
+      <c r="G46" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47">
+        <v>0</v>
+      </c>
+      <c r="B47">
+        <v>2</v>
+      </c>
+      <c r="C47">
+        <v>158</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47" t="s">
+        <v>77</v>
+      </c>
+      <c r="F47" t="s">
+        <v>139</v>
+      </c>
+      <c r="G47" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48">
+        <v>590</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+      <c r="C48">
+        <v>162</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48" t="s">
+        <v>143</v>
+      </c>
+      <c r="F48" t="s">
+        <v>141</v>
+      </c>
+      <c r="G48" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49">
+        <v>0</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+      <c r="C49">
+        <v>175</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49" t="s">
+        <v>146</v>
+      </c>
+      <c r="F49" t="s">
+        <v>144</v>
+      </c>
+      <c r="G49" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50">
+        <v>729</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="C50">
+        <v>163</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50" t="s">
+        <v>149</v>
+      </c>
+      <c r="F50" t="s">
+        <v>147</v>
+      </c>
+      <c r="G50" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51">
+        <v>0</v>
+      </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
+      <c r="C51">
+        <v>163</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51" t="s">
+        <v>152</v>
+      </c>
+      <c r="F51" t="s">
+        <v>150</v>
+      </c>
+      <c r="G51" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52">
+        <v>693</v>
+      </c>
+      <c r="B52">
+        <v>2</v>
+      </c>
+      <c r="C52">
+        <v>175</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52" t="s">
+        <v>155</v>
+      </c>
+      <c r="F52" t="s">
+        <v>153</v>
+      </c>
+      <c r="G52" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53">
+        <v>0</v>
+      </c>
+      <c r="B53">
+        <v>0</v>
+      </c>
+      <c r="C53">
+        <v>163</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53" t="s">
+        <v>158</v>
+      </c>
+      <c r="F53" t="s">
+        <v>156</v>
+      </c>
+      <c r="G53" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54">
+        <v>1</v>
+      </c>
+      <c r="B54">
+        <v>0</v>
+      </c>
+      <c r="C54">
+        <v>161</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54" t="s">
+        <v>161</v>
+      </c>
+      <c r="F54" t="s">
+        <v>159</v>
+      </c>
+      <c r="G54" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55">
+        <v>0</v>
+      </c>
+      <c r="B55">
+        <v>0</v>
+      </c>
+      <c r="C55">
+        <v>160</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55" t="s">
+        <v>164</v>
+      </c>
+      <c r="F55" t="s">
+        <v>162</v>
+      </c>
+      <c r="G55" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56">
+        <v>0</v>
+      </c>
+      <c r="B56">
+        <v>1</v>
+      </c>
+      <c r="C56">
+        <v>161</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56" t="s">
+        <v>77</v>
+      </c>
+      <c r="F56" t="s">
+        <v>165</v>
+      </c>
+      <c r="G56" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57">
+        <v>0</v>
+      </c>
+      <c r="B57">
+        <v>0</v>
+      </c>
+      <c r="C57">
+        <v>163</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57" t="s">
+        <v>169</v>
+      </c>
+      <c r="F57" t="s">
+        <v>167</v>
+      </c>
+      <c r="G57" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58">
+        <v>0</v>
+      </c>
+      <c r="B58">
+        <v>0</v>
+      </c>
+      <c r="C58">
+        <v>167</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58" t="s">
+        <v>172</v>
+      </c>
+      <c r="F58" t="s">
+        <v>170</v>
+      </c>
+      <c r="G58" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59">
+        <v>0</v>
+      </c>
+      <c r="B59">
+        <v>0</v>
+      </c>
+      <c r="C59">
+        <v>163</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="E59" t="s">
+        <v>152</v>
+      </c>
+      <c r="F59" t="s">
+        <v>173</v>
+      </c>
+      <c r="G59" t="s">
+        <v>174</v>
       </c>
     </row>
   </sheetData>
